--- a/04/PoblacionMundial.xlsx
+++ b/04/PoblacionMundial.xlsx
@@ -14,6 +14,55 @@
   <sheets>
     <sheet name="PoblaciónMundial" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">PoblaciónMundial!$A$157:$B$200</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PoblaciónMundial!$C$157:$C$200</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">PoblaciónMundial!$F$184:$F$200</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">PoblaciónMundial!$G$184:$G$200</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">PoblaciónMundial!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">PoblaciónMundial!$C$2:$C$201</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">PoblaciónMundial!$C$2:$C$222</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">PoblaciónMundial!$C$2:$C$224</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">PoblaciónMundial!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">PoblaciónMundial!$D$2:$D$201</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">PoblaciónMundial!$D$2:$D$222</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">PoblaciónMundial!$D$2:$D$224</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">PoblaciónMundial!$D$157:$D$200</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">PoblaciónMundial!$E$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">PoblaciónMundial!$E$2:$E$201</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">PoblaciónMundial!$E$2:$E$222</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">PoblaciónMundial!$E$2:$E$224</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">PoblaciónMundial!$F$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">PoblaciónMundial!$F$2:$F$201</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">PoblaciónMundial!$F$2:$F$222</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">PoblaciónMundial!$F$2:$F$224</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">PoblaciónMundial!$G$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">PoblaciónMundial!$G$2:$G$222</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">PoblaciónMundial!$E$157:$E$200</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">PoblaciónMundial!$G$2:$G$224</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">PoblaciónMundial!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">PoblaciónMundial!$C$2:$C$224</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">PoblaciónMundial!$D$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">PoblaciónMundial!$D$2:$D$224</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">PoblaciónMundial!$E$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">PoblaciónMundial!$E$2:$E$224</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">PoblaciónMundial!$F$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">PoblaciónMundial!$F$2:$F$224</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">PoblaciónMundial!$G$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">PoblaciónMundial!$F$157:$F$200</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">PoblaciónMundial!$G$2:$G$224</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">PoblaciónMundial!$C$184:$C$200</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">PoblaciónMundial!$C$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">PoblaciónMundial!$D$184:$D$200</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">PoblaciónMundial!$E$184:$E$200</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">PoblaciónMundial!$F$184:$F$200</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">PoblaciónMundial!$G$184:$G$200</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">PoblaciónMundial!$G$157:$G$200</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">PoblaciónMundial!$C$184:$C$200</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">PoblaciónMundial!$C$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">PoblaciónMundial!$D$184:$D$200</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">PoblaciónMundial!$E$184:$E$200</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="246">
   <si>
     <t>Continente</t>
   </si>
@@ -732,13 +781,46 @@
   </si>
   <si>
     <t>Nº datos</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Media aritmética</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Media acotada</t>
+  </si>
+  <si>
+    <t>Media geométrica</t>
+  </si>
+  <si>
+    <t>Medidas de posición</t>
+  </si>
+  <si>
+    <t>Media armónica</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>3er cuartil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +840,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -782,11 +879,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,9 +915,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -916,6 +1030,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Poblacion" displayName="Poblacion" ref="A1:G224" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:G224"/>
+  <sortState ref="A157:G201">
+    <sortCondition ref="F1:F224"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Continente"/>
     <tableColumn id="2" name="País" dataDxfId="5"/>
@@ -1194,15 +1311,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1232,98 +1349,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
-        <v>11251</v>
+        <v>6168</v>
       </c>
       <c r="D2" s="3">
-        <v>10672</v>
+        <v>6310</v>
       </c>
       <c r="E2" s="3">
-        <v>17217</v>
+        <v>8295</v>
       </c>
       <c r="F2" s="3">
-        <v>4707</v>
+        <v>4183</v>
       </c>
       <c r="G2" s="7">
         <f>F2+E2</f>
-        <v>21924</v>
+        <v>12478</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1592</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1521</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1907</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1206</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15575</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15199</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12763</v>
+      </c>
+      <c r="F3" s="3">
+        <v>18011</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="0">F3+E3</f>
-        <v>3113</v>
+        <f>F3+E3</f>
+        <v>30774</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="5">
-        <v>40197</v>
-      </c>
-      <c r="D4" s="5">
-        <v>41980</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10411</v>
-      </c>
-      <c r="F4" s="5">
-        <v>71767</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2926</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3011</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3475</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2462</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>82178</v>
+        <f>F4+E4</f>
+        <v>5937</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="4">
+        <v>784</v>
+      </c>
+      <c r="D5" s="4">
+        <v>813</v>
+      </c>
+      <c r="E5" s="4">
+        <v>469</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1128</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>F5+E5</f>
+        <v>1597</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,119 +1448,119 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>6168</v>
+        <v>5797</v>
       </c>
       <c r="D6" s="3">
-        <v>6310</v>
+        <v>5819</v>
       </c>
       <c r="E6" s="3">
-        <v>8295</v>
+        <v>9535</v>
       </c>
       <c r="F6" s="3">
-        <v>4183</v>
+        <v>2081</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>12478</v>
+        <f>F6+E6</f>
+        <v>11616</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3212</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3353</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5997</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>568</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>F7+E7</f>
+        <v>6565</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="E8" s="4">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="F8" s="4">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f>F8+E8</f>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="4">
-        <v>104</v>
-      </c>
-      <c r="D9" s="4">
-        <v>111</v>
-      </c>
-      <c r="E9" s="4">
-        <v>65</v>
-      </c>
-      <c r="F9" s="4">
-        <v>150</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7302</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7390</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7633</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7060</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f>F9+E9</f>
+        <v>14693</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
-        <v>11566</v>
+        <v>1725</v>
       </c>
       <c r="D10" s="3">
-        <v>9333</v>
+        <v>1824</v>
       </c>
       <c r="E10" s="3">
-        <v>3106</v>
+        <v>2103</v>
       </c>
       <c r="F10" s="3">
-        <v>17793</v>
+        <v>1447</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>20899</v>
+        <f>F10+E10</f>
+        <v>3550</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,335 +1568,335 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
-        <v>15575</v>
+        <v>3687</v>
       </c>
       <c r="D11" s="3">
-        <v>15199</v>
+        <v>3771</v>
       </c>
       <c r="E11" s="3">
-        <v>12763</v>
+        <v>5708</v>
       </c>
       <c r="F11" s="3">
-        <v>18011</v>
+        <v>1750</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>30774</v>
+        <f>F11+E11</f>
+        <v>7458</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3">
-        <v>17940</v>
-      </c>
-      <c r="D12" s="3">
-        <v>18637</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3988</v>
-      </c>
-      <c r="F12" s="3">
-        <v>32589</v>
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <v>338</v>
+      </c>
+      <c r="D12" s="4">
+        <v>338</v>
+      </c>
+      <c r="E12" s="4">
+        <v>455</v>
+      </c>
+      <c r="F12" s="4">
+        <v>220</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>36577</v>
+        <f>F12+E12</f>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3">
-        <v>1714</v>
+        <v>1400</v>
       </c>
       <c r="D13" s="3">
-        <v>1811</v>
+        <v>1464</v>
       </c>
       <c r="E13" s="3">
-        <v>1069</v>
+        <v>1097</v>
       </c>
       <c r="F13" s="3">
-        <v>2456</v>
+        <v>1767</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>3525</v>
+        <f>F13+E13</f>
+        <v>2864</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="5">
-        <v>9288</v>
-      </c>
-      <c r="D14" s="5">
-        <v>9413</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2863</v>
-      </c>
-      <c r="F14" s="5">
-        <v>15838</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24904</v>
+      </c>
+      <c r="D14" s="3">
+        <v>25432</v>
+      </c>
+      <c r="E14" s="3">
+        <v>35254</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15081</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>18701</v>
+        <f>F14+E14</f>
+        <v>50335</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4029</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4148</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2895</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5281</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7394</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7133</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7860</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6666</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>8176</v>
+        <f>F15+E15</f>
+        <v>14526</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3770</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3927</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3314</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4383</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="4">
+        <v>308</v>
+      </c>
+      <c r="D16" s="4">
+        <v>321</v>
+      </c>
+      <c r="E16" s="4">
+        <v>107</v>
+      </c>
+      <c r="F16" s="4">
+        <v>522</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>7697</v>
+        <f>F16+E16</f>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="4">
-        <v>148</v>
-      </c>
-      <c r="D17" s="4">
-        <v>153</v>
-      </c>
-      <c r="E17" s="4">
-        <v>36</v>
-      </c>
-      <c r="F17" s="4">
-        <v>265</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>34096</v>
+      </c>
+      <c r="D17" s="3">
+        <v>33130</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36519</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30708</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>301</v>
+        <f>F17+E17</f>
+        <v>67227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="4">
-        <v>346</v>
-      </c>
-      <c r="D18" s="4">
-        <v>261</v>
-      </c>
-      <c r="E18" s="4">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1846</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1874</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3035</v>
       </c>
       <c r="F18" s="4">
-        <v>557</v>
+        <v>684</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
-        <v>606</v>
+        <f>F18+E18</f>
+        <v>3719</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>65001</v>
+        <v>30659</v>
       </c>
       <c r="D19" s="3">
-        <v>61947</v>
+        <v>30436</v>
       </c>
       <c r="E19" s="3">
-        <v>100839</v>
+        <v>50600</v>
       </c>
       <c r="F19" s="3">
-        <v>26109</v>
+        <v>10495</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>126948</v>
+        <f>F19+E19</f>
+        <v>61095</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
-        <v>130</v>
+        <v>592</v>
       </c>
       <c r="D20" s="4">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="E20" s="4">
-        <v>136</v>
+        <v>549</v>
       </c>
       <c r="F20" s="4">
-        <v>133</v>
+        <v>648</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
-        <v>269</v>
+        <f>F20+E20</f>
+        <v>1197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4826</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5449</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2698</v>
-      </c>
-      <c r="F21" s="5">
-        <v>7576</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="4">
+        <v>627</v>
+      </c>
+      <c r="D21" s="4">
+        <v>641</v>
+      </c>
+      <c r="E21" s="4">
+        <v>865</v>
+      </c>
+      <c r="F21" s="4">
+        <v>403</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
-        <v>10274</v>
+        <f>F21+E21</f>
+        <v>1268</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="5">
-        <v>4972</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5180</v>
-      </c>
-      <c r="E22" s="6">
-        <v>276</v>
-      </c>
-      <c r="F22" s="5">
-        <v>9876</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9793</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9885</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12230</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7448</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
-        <v>10152</v>
+        <f>F22+E22</f>
+        <v>19678</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5181</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5398</v>
-      </c>
-      <c r="E23" s="6">
-        <v>317</v>
-      </c>
-      <c r="F23" s="5">
-        <v>10262</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3701</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3658</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2357</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>10579</v>
+        <f>F23+E23</f>
+        <v>7359</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="D24" s="4">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="E24" s="4">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="F24" s="4">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
-        <v>235</v>
+        <f>F24+E24</f>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,119 +1904,119 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2926</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3011</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3475</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2462</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="4">
+        <v>584</v>
+      </c>
+      <c r="D25" s="4">
+        <v>603</v>
+      </c>
+      <c r="E25" s="4">
+        <v>910</v>
+      </c>
+      <c r="F25" s="4">
+        <v>277</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
-        <v>5937</v>
+        <f>F25+E25</f>
+        <v>1187</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14805</v>
+      </c>
+      <c r="D26" s="3">
+        <v>14744</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20050</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9499</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>F26+E26</f>
+        <v>29549</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D27" s="3">
-        <v>1022</v>
+        <v>1070</v>
       </c>
       <c r="E27" s="3">
-        <v>1921</v>
+        <v>1536</v>
       </c>
       <c r="F27" s="4">
-        <v>142</v>
+        <v>571</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
-        <v>2063</v>
+        <f>F27+E27</f>
+        <v>2107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3">
-        <v>4049</v>
+        <v>1471</v>
       </c>
       <c r="D28" s="3">
-        <v>4093</v>
+        <v>1459</v>
       </c>
       <c r="E28" s="3">
-        <v>2935</v>
+        <v>1544</v>
       </c>
       <c r="F28" s="3">
-        <v>5207</v>
+        <v>1386</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
-        <v>8142</v>
+        <f>F28+E28</f>
+        <v>2930</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1899</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1939</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2198</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1640</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2835</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2635</v>
+      </c>
+      <c r="E29" s="4">
+        <v>702</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4769</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
-        <v>3838</v>
+        <f>F29+E29</f>
+        <v>5471</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,95 +2024,95 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4">
-        <v>784</v>
-      </c>
-      <c r="D30" s="4">
-        <v>813</v>
-      </c>
-      <c r="E30" s="4">
-        <v>469</v>
+        <v>24</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7692</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7804</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11024</v>
       </c>
       <c r="F30" s="3">
-        <v>1128</v>
+        <v>4472</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
-        <v>1597</v>
+        <f>F30+E30</f>
+        <v>15496</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
-        <v>82997</v>
+        <v>5274</v>
       </c>
       <c r="D31" s="3">
-        <v>84991</v>
+        <v>5366</v>
       </c>
       <c r="E31" s="3">
-        <v>32439</v>
+        <v>9050</v>
       </c>
       <c r="F31" s="3">
-        <v>135549</v>
+        <v>1591</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
-        <v>167988</v>
+        <f>F31+E31</f>
+        <v>10641</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="4">
-        <v>168</v>
-      </c>
-      <c r="D32" s="4">
-        <v>153</v>
-      </c>
-      <c r="E32" s="4">
-        <v>92</v>
-      </c>
-      <c r="F32" s="4">
-        <v>230</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5409</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5551</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7741</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3219</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
-        <v>322</v>
+        <f>F32+E32</f>
+        <v>10960</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4031</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4249</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2508</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5771</v>
+        <v>20</v>
+      </c>
+      <c r="C33" s="3">
+        <v>13946</v>
+      </c>
+      <c r="D33" s="3">
+        <v>13920</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12649</v>
+      </c>
+      <c r="F33" s="3">
+        <v>15218</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="0"/>
-        <v>8279</v>
+        <f>F33+E33</f>
+        <v>27867</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,23 +2120,23 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3">
-        <v>5797</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5819</v>
-      </c>
-      <c r="E34" s="3">
-        <v>9535</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2081</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="4">
+        <v>573</v>
+      </c>
+      <c r="D34" s="4">
+        <v>576</v>
+      </c>
+      <c r="E34" s="4">
+        <v>677</v>
+      </c>
+      <c r="F34" s="4">
+        <v>473</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="0"/>
-        <v>11616</v>
+        <f>F34+E34</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2027,23 +2144,23 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3">
-        <v>3212</v>
+        <v>1288</v>
       </c>
       <c r="D35" s="3">
-        <v>3353</v>
+        <v>1310</v>
       </c>
       <c r="E35" s="3">
-        <v>5997</v>
-      </c>
-      <c r="F35" s="4">
-        <v>568</v>
+        <v>1134</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1464</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="0"/>
-        <v>6565</v>
+        <f>F35+E35</f>
+        <v>2598</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,71 +2168,71 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4">
-        <v>195</v>
-      </c>
-      <c r="D36" s="4">
-        <v>223</v>
-      </c>
-      <c r="E36" s="4">
-        <v>165</v>
-      </c>
-      <c r="F36" s="4">
-        <v>253</v>
+        <v>23</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9525</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9761</v>
+      </c>
+      <c r="E36" s="3">
+        <v>11792</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7494</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
-        <v>418</v>
+        <f>F36+E36</f>
+        <v>19286</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
+        <v>850</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1020</v>
       </c>
       <c r="F37" s="4">
-        <v>37</v>
+        <v>675</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>F37+E37</f>
+        <v>1695</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
-        <v>5305</v>
+        <v>5145</v>
       </c>
       <c r="D38" s="3">
-        <v>5641</v>
+        <v>5256</v>
       </c>
       <c r="E38" s="3">
-        <v>8447</v>
+        <v>8313</v>
       </c>
       <c r="F38" s="3">
-        <v>2498</v>
+        <v>2087</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
-        <v>10945</v>
+        <f>F38+E38</f>
+        <v>10400</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,47 +2240,47 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C39" s="3">
-        <v>7302</v>
+        <v>54033</v>
       </c>
       <c r="D39" s="3">
-        <v>7390</v>
+        <v>54912</v>
       </c>
       <c r="E39" s="3">
-        <v>7633</v>
+        <v>62031</v>
       </c>
       <c r="F39" s="3">
-        <v>7060</v>
+        <v>46914</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="0"/>
-        <v>14693</v>
+        <f>F39+E39</f>
+        <v>108945</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="3">
-        <v>15274</v>
-      </c>
-      <c r="D40" s="3">
-        <v>15583</v>
-      </c>
-      <c r="E40" s="3">
-        <v>7099</v>
-      </c>
-      <c r="F40" s="3">
-        <v>23758</v>
+        <v>58</v>
+      </c>
+      <c r="C40" s="4">
+        <v>338</v>
+      </c>
+      <c r="D40" s="4">
+        <v>353</v>
+      </c>
+      <c r="E40" s="4">
+        <v>206</v>
+      </c>
+      <c r="F40" s="4">
+        <v>485</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="0"/>
-        <v>30857</v>
+        <f>F40+E40</f>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2171,23 +2288,23 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3">
-        <v>1725</v>
+        <v>3572</v>
       </c>
       <c r="D41" s="3">
-        <v>1824</v>
+        <v>3663</v>
       </c>
       <c r="E41" s="3">
-        <v>2103</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1447</v>
+        <v>6797</v>
+      </c>
+      <c r="F41" s="4">
+        <v>438</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
-        <v>3550</v>
+        <f>F41+E41</f>
+        <v>7235</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,167 +2312,167 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="3">
-        <v>3687</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3771</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5708</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1750</v>
+        <v>63</v>
+      </c>
+      <c r="C42" s="4">
+        <v>141</v>
+      </c>
+      <c r="D42" s="4">
+        <v>143</v>
+      </c>
+      <c r="E42" s="4">
+        <v>14</v>
+      </c>
+      <c r="F42" s="4">
+        <v>270</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="0"/>
-        <v>7458</v>
+        <f>F42+E42</f>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="5">
-        <v>4997</v>
-      </c>
-      <c r="D43" s="5">
-        <v>5266</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3480</v>
-      </c>
-      <c r="F43" s="5">
-        <v>6782</v>
+        <v>66</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="0"/>
-        <v>10262</v>
+        <f>F43+E43</f>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3">
-        <v>7435</v>
-      </c>
-      <c r="D44" s="3">
-        <v>7584</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2334</v>
-      </c>
-      <c r="F44" s="3">
-        <v>12684</v>
+        <v>64</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>78</v>
+      </c>
+      <c r="F44" s="4">
+        <v>66</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="0"/>
-        <v>15018</v>
+        <f>F44+E44</f>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C45" s="3">
-        <v>655632</v>
+        <v>4608</v>
       </c>
       <c r="D45" s="3">
-        <v>618475</v>
+        <v>4632</v>
       </c>
       <c r="E45" s="3">
-        <v>843136</v>
+        <v>4960</v>
       </c>
       <c r="F45" s="3">
-        <v>430971</v>
+        <v>4279</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="0"/>
-        <v>1274107</v>
+        <f>F45+E45</f>
+        <v>9239</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="F46" s="4">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="0"/>
-        <v>779</v>
+        <f>F46+E46</f>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4">
-        <v>830</v>
-      </c>
-      <c r="D47" s="4">
-        <v>829</v>
-      </c>
-      <c r="E47" s="4">
-        <v>438</v>
+        <v>43</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2315</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2402</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3022</v>
       </c>
       <c r="F47" s="3">
-        <v>1222</v>
+        <v>1695</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="0"/>
-        <v>1660</v>
+        <f>F47+E47</f>
+        <v>4717</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C48" s="3">
-        <v>20538</v>
+        <v>4801</v>
       </c>
       <c r="D48" s="3">
-        <v>21026</v>
+        <v>4871</v>
       </c>
       <c r="E48" s="3">
-        <v>10612</v>
+        <v>7050</v>
       </c>
       <c r="F48" s="3">
-        <v>30952</v>
+        <v>2622</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="0"/>
-        <v>41564</v>
+        <f>F48+E48</f>
+        <v>9672</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,23 +2480,23 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>338</v>
-      </c>
-      <c r="D49" s="4">
-        <v>338</v>
-      </c>
-      <c r="E49" s="4">
-        <v>455</v>
-      </c>
-      <c r="F49" s="4">
-        <v>220</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="3">
+        <v>19597</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20303</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19892</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20008</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="0"/>
-        <v>675</v>
+        <f>F49+E49</f>
+        <v>39900</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,23 +2504,23 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3">
-        <v>1400</v>
+        <v>14480</v>
       </c>
       <c r="D50" s="3">
-        <v>1464</v>
+        <v>14402</v>
       </c>
       <c r="E50" s="3">
-        <v>1097</v>
+        <v>18742</v>
       </c>
       <c r="F50" s="3">
-        <v>1767</v>
+        <v>10141</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="0"/>
-        <v>2864</v>
+        <f>F50+E50</f>
+        <v>28883</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,119 +2528,119 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3">
-        <v>24904</v>
-      </c>
-      <c r="D51" s="3">
-        <v>25432</v>
-      </c>
-      <c r="E51" s="3">
-        <v>35254</v>
-      </c>
-      <c r="F51" s="3">
-        <v>15081</v>
+        <v>57</v>
+      </c>
+      <c r="C51" s="4">
+        <v>472</v>
+      </c>
+      <c r="D51" s="4">
+        <v>508</v>
+      </c>
+      <c r="E51" s="4">
+        <v>640</v>
+      </c>
+      <c r="F51" s="4">
+        <v>340</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="0"/>
-        <v>50335</v>
+        <f>F51+E51</f>
+        <v>980</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>7</v>
-      </c>
-      <c r="F52" s="6">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C52" s="3">
+        <v>16251</v>
+      </c>
+      <c r="D52" s="3">
+        <v>16541</v>
+      </c>
+      <c r="E52" s="3">
+        <v>23914</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8878</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>F52+E52</f>
+        <v>32792</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3">
-        <v>11882</v>
+        <v>2237</v>
       </c>
       <c r="D53" s="3">
-        <v>11820</v>
+        <v>2275</v>
       </c>
       <c r="E53" s="3">
-        <v>8890</v>
+        <v>3035</v>
       </c>
       <c r="F53" s="3">
-        <v>14812</v>
+        <v>1478</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="0"/>
-        <v>23702</v>
+        <f>F53+E53</f>
+        <v>4513</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="C54" s="3">
-        <v>23437</v>
+        <v>4778</v>
       </c>
       <c r="D54" s="3">
-        <v>23042</v>
+        <v>4682</v>
       </c>
       <c r="E54" s="3">
-        <v>6897</v>
+        <v>3331</v>
       </c>
       <c r="F54" s="3">
-        <v>39583</v>
+        <v>6129</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="0"/>
-        <v>46480</v>
+        <f>F54+E54</f>
+        <v>9460</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C55" s="3">
-        <v>1994</v>
+        <v>10523</v>
       </c>
       <c r="D55" s="3">
-        <v>1939</v>
+        <v>10620</v>
       </c>
       <c r="E55" s="3">
-        <v>1914</v>
+        <v>18221</v>
       </c>
       <c r="F55" s="3">
-        <v>2019</v>
+        <v>2922</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="0"/>
-        <v>3933</v>
+        <f>F55+E55</f>
+        <v>21143</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,47 +2648,47 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C56" s="3">
-        <v>7394</v>
+        <v>4439</v>
       </c>
       <c r="D56" s="3">
-        <v>7133</v>
+        <v>4537</v>
       </c>
       <c r="E56" s="3">
-        <v>7860</v>
+        <v>5006</v>
       </c>
       <c r="F56" s="3">
-        <v>6666</v>
+        <v>3970</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="0"/>
-        <v>14526</v>
+        <f>F56+E56</f>
+        <v>8976</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2164</v>
-      </c>
-      <c r="D57" s="5">
-        <v>2313</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1910</v>
-      </c>
-      <c r="F57" s="5">
-        <v>2567</v>
+        <v>29</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5723</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5806</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7543</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3986</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="0"/>
-        <v>4477</v>
+        <f>F57+E57</f>
+        <v>11529</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2579,71 +2696,71 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="3">
-        <v>5593</v>
-      </c>
-      <c r="D58" s="3">
-        <v>5567</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2512</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8648</v>
+        <v>114</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="0"/>
-        <v>11160</v>
+        <f>F58+E58</f>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2612</v>
-      </c>
-      <c r="D59" s="5">
-        <v>2671</v>
-      </c>
-      <c r="E59" s="6">
-        <v>759</v>
-      </c>
-      <c r="F59" s="5">
-        <v>4523</v>
+        <v>106</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43</v>
+      </c>
+      <c r="F59" s="4">
+        <v>25</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="0"/>
-        <v>5282</v>
+        <f>F59+E59</f>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C60" s="4">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="E60" s="4">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F60" s="4">
-        <v>522</v>
+        <v>150</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="0"/>
-        <v>629</v>
+        <f>F60+E60</f>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,23 +2768,23 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>21</v>
-      </c>
-      <c r="F61" s="4">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="C61" s="3">
+        <v>17940</v>
+      </c>
+      <c r="D61" s="3">
+        <v>18637</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3988</v>
+      </c>
+      <c r="F61" s="3">
+        <v>32589</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f>F61+E61</f>
+        <v>36577</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,23 +2792,23 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4253</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4112</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2968</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5396</v>
+        <v>96</v>
+      </c>
+      <c r="C62" s="4">
+        <v>148</v>
+      </c>
+      <c r="D62" s="4">
+        <v>153</v>
+      </c>
+      <c r="E62" s="4">
+        <v>36</v>
+      </c>
+      <c r="F62" s="4">
+        <v>265</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="0"/>
-        <v>8364</v>
+        <f>F62+E62</f>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2699,47 +2816,47 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6233</v>
-      </c>
-      <c r="D63" s="3">
-        <v>6178</v>
-      </c>
-      <c r="E63" s="3">
-        <v>4754</v>
-      </c>
-      <c r="F63" s="3">
-        <v>7656</v>
+        <v>97</v>
+      </c>
+      <c r="C63" s="4">
+        <v>130</v>
+      </c>
+      <c r="D63" s="4">
+        <v>139</v>
+      </c>
+      <c r="E63" s="4">
+        <v>136</v>
+      </c>
+      <c r="F63" s="4">
+        <v>133</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="0"/>
-        <v>12410</v>
+        <f>F63+E63</f>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3">
-        <v>34096</v>
-      </c>
-      <c r="D64" s="3">
-        <v>33130</v>
-      </c>
-      <c r="E64" s="3">
-        <v>36519</v>
-      </c>
-      <c r="F64" s="3">
-        <v>30708</v>
+        <v>98</v>
+      </c>
+      <c r="C64" s="4">
+        <v>119</v>
+      </c>
+      <c r="D64" s="4">
+        <v>116</v>
+      </c>
+      <c r="E64" s="4">
+        <v>126</v>
+      </c>
+      <c r="F64" s="4">
+        <v>109</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="0"/>
-        <v>67227</v>
+        <f>F64+E64</f>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,143 +2864,143 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="3">
-        <v>3019</v>
-      </c>
-      <c r="D65" s="3">
-        <v>3135</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3304</v>
-      </c>
-      <c r="F65" s="3">
-        <v>2850</v>
+        <v>107</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>64</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="0"/>
-        <v>6154</v>
+        <f>F65+E65</f>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3">
-        <v>1521</v>
-      </c>
-      <c r="D66" s="4">
-        <v>876</v>
-      </c>
-      <c r="E66" s="4">
-        <v>348</v>
+        <v>4049</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4093</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2935</v>
       </c>
       <c r="F66" s="3">
-        <v>2049</v>
+        <v>5207</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="0"/>
-        <v>2397</v>
+        <f>F66+E66</f>
+        <v>8142</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3">
-        <v>1846</v>
+        <v>82997</v>
       </c>
       <c r="D67" s="3">
-        <v>1874</v>
+        <v>84991</v>
       </c>
       <c r="E67" s="3">
-        <v>3035</v>
-      </c>
-      <c r="F67" s="4">
-        <v>684</v>
+        <v>32439</v>
+      </c>
+      <c r="F67" s="3">
+        <v>135549</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" ref="G67:G130" si="1">F67+E67</f>
-        <v>3719</v>
+        <f>F67+E67</f>
+        <v>167988</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="5">
-        <v>2622</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2759</v>
-      </c>
-      <c r="E68" s="5">
-        <v>2118</v>
-      </c>
-      <c r="F68" s="5">
-        <v>3263</v>
+        <v>110</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>37</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="1"/>
-        <v>5381</v>
+        <f>F68+E68</f>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="6">
-        <v>966</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1023</v>
-      </c>
-      <c r="E69" s="6">
-        <v>948</v>
-      </c>
-      <c r="F69" s="5">
-        <v>1041</v>
+        <v>72</v>
+      </c>
+      <c r="C69" s="3">
+        <v>15274</v>
+      </c>
+      <c r="D69" s="3">
+        <v>15583</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7099</v>
+      </c>
+      <c r="F69" s="3">
+        <v>23758</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="1"/>
-        <v>1989</v>
+        <f>F69+E69</f>
+        <v>30857</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="5">
-        <v>19383</v>
-      </c>
-      <c r="D70" s="5">
-        <v>20250</v>
-      </c>
-      <c r="E70" s="5">
-        <v>8962</v>
-      </c>
-      <c r="F70" s="5">
-        <v>30672</v>
+        <v>75</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7435</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7584</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2334</v>
+      </c>
+      <c r="F70" s="3">
+        <v>12684</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="1"/>
-        <v>39634</v>
+        <f>F70+E70</f>
+        <v>15018</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,335 +3008,335 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3">
-        <v>136128</v>
+        <v>20538</v>
       </c>
       <c r="D71" s="3">
-        <v>140091</v>
+        <v>21026</v>
       </c>
       <c r="E71" s="3">
-        <v>63543</v>
+        <v>10612</v>
       </c>
       <c r="F71" s="3">
-        <v>212675</v>
+        <v>30952</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="1"/>
-        <v>276218</v>
+        <f>F71+E71</f>
+        <v>41564</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="6">
-        <v>664</v>
-      </c>
-      <c r="D72" s="6">
-        <v>748</v>
-      </c>
-      <c r="E72" s="6">
-        <v>367</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1045</v>
+        <v>86</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1994</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1939</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1914</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2019</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="1"/>
-        <v>1412</v>
+        <f>F72+E72</f>
+        <v>3933</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C73" s="3">
-        <v>30659</v>
+        <v>5593</v>
       </c>
       <c r="D73" s="3">
-        <v>30436</v>
+        <v>5567</v>
       </c>
       <c r="E73" s="3">
-        <v>50600</v>
+        <v>2512</v>
       </c>
       <c r="F73" s="3">
-        <v>10495</v>
+        <v>8648</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="1"/>
-        <v>61095</v>
+        <f>F73+E73</f>
+        <v>11160</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="5">
-        <v>68827</v>
-      </c>
-      <c r="D74" s="5">
-        <v>78368</v>
-      </c>
-      <c r="E74" s="5">
-        <v>33375</v>
-      </c>
-      <c r="F74" s="5">
-        <v>113821</v>
+        <v>105</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>21</v>
+      </c>
+      <c r="F74" s="4">
+        <v>50</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="1"/>
-        <v>147196</v>
+        <f>F74+E74</f>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6">
-        <v>28</v>
-      </c>
-      <c r="F75" s="6">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4253</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4112</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2968</v>
+      </c>
+      <c r="F75" s="3">
+        <v>5396</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f>F75+E75</f>
+        <v>8364</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="6">
-        <v>410</v>
-      </c>
-      <c r="D76" s="6">
-        <v>396</v>
-      </c>
-      <c r="E76" s="6">
-        <v>468</v>
-      </c>
-      <c r="F76" s="6">
-        <v>338</v>
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
+        <v>6233</v>
+      </c>
+      <c r="D76" s="3">
+        <v>6178</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4754</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7656</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="1"/>
-        <v>806</v>
+        <f>F76+E76</f>
+        <v>12410</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C77" s="3">
-        <v>37558</v>
+        <v>3019</v>
       </c>
       <c r="D77" s="3">
-        <v>36896</v>
+        <v>3135</v>
       </c>
       <c r="E77" s="3">
-        <v>31514</v>
+        <v>3304</v>
       </c>
       <c r="F77" s="3">
-        <v>42940</v>
+        <v>2850</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="1"/>
-        <v>74454</v>
+        <f>F77+E77</f>
+        <v>6154</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="5">
-        <v>2518</v>
-      </c>
-      <c r="D78" s="5">
-        <v>2647</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1827</v>
-      </c>
-      <c r="F78" s="5">
-        <v>3338</v>
+        <v>67</v>
+      </c>
+      <c r="C78" s="3">
+        <v>136128</v>
+      </c>
+      <c r="D78" s="3">
+        <v>140091</v>
+      </c>
+      <c r="E78" s="3">
+        <v>63543</v>
+      </c>
+      <c r="F78" s="3">
+        <v>212675</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="1"/>
-        <v>5165</v>
+        <f>F78+E78</f>
+        <v>276218</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="5">
-        <v>28705</v>
-      </c>
-      <c r="D79" s="5">
-        <v>30181</v>
-      </c>
-      <c r="E79" s="5">
-        <v>14495</v>
-      </c>
-      <c r="F79" s="5">
-        <v>44391</v>
+        <v>104</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>58</v>
+      </c>
+      <c r="F79" s="4">
+        <v>35</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="1"/>
-        <v>58886</v>
+        <f>F79+E79</f>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C80" s="4">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="D80" s="4">
-        <v>605</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
-        <v>549</v>
+        <v>10</v>
       </c>
       <c r="F80" s="4">
-        <v>648</v>
+        <v>46</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="1"/>
-        <v>1197</v>
+        <f>F80+E80</f>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C81" s="4">
-        <v>627</v>
+        <v>220</v>
       </c>
       <c r="D81" s="4">
-        <v>641</v>
+        <v>230</v>
       </c>
       <c r="E81" s="4">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="1"/>
-        <v>1268</v>
+        <f>F81+E81</f>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C82" s="3">
-        <v>2392</v>
+        <v>5593</v>
       </c>
       <c r="D82" s="3">
-        <v>2613</v>
+        <v>5497</v>
       </c>
       <c r="E82" s="3">
-        <v>1991</v>
+        <v>6648</v>
       </c>
       <c r="F82" s="3">
-        <v>3015</v>
+        <v>4442</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="1"/>
-        <v>5006</v>
+        <f>F82+E82</f>
+        <v>11090</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="3">
-        <v>9793</v>
-      </c>
-      <c r="D83" s="3">
-        <v>9885</v>
-      </c>
-      <c r="E83" s="3">
-        <v>12230</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7448</v>
+        <v>100</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>39</v>
+      </c>
+      <c r="F83" s="4">
+        <v>135</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="1"/>
-        <v>19678</v>
+        <f>F83+E83</f>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="C84" s="4">
+        <v>422</v>
+      </c>
+      <c r="D84" s="4">
+        <v>433</v>
+      </c>
+      <c r="E84" s="4">
+        <v>533</v>
+      </c>
+      <c r="F84" s="4">
+        <v>322</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>F84+E84</f>
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,47 +3344,47 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4">
-        <v>58</v>
-      </c>
-      <c r="F85" s="4">
-        <v>35</v>
+        <v>81</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3973</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4114</v>
+      </c>
+      <c r="E85" s="3">
+        <v>5318</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2769</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f>F85+E85</f>
+        <v>8087</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="5">
-        <v>5230</v>
-      </c>
-      <c r="D86" s="5">
-        <v>5396</v>
-      </c>
-      <c r="E86" s="5">
-        <v>4259</v>
-      </c>
-      <c r="F86" s="5">
-        <v>6367</v>
+        <v>82</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3183</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3132</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3394</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2922</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="1"/>
-        <v>10626</v>
+        <f>F86+E86</f>
+        <v>6316</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,23 +3392,23 @@
         <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1270</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1291</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1137</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1424</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f>F87+E87</f>
+        <v>2561</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,47 +3416,47 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C88" s="4">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
-        <v>448</v>
+        <v>2</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="1"/>
-        <v>449</v>
+        <f>F88+E88</f>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C89" s="6">
-        <v>87</v>
-      </c>
-      <c r="D89" s="6">
-        <v>78</v>
-      </c>
-      <c r="E89" s="6">
-        <v>100</v>
-      </c>
-      <c r="F89" s="6">
-        <v>65</v>
+        <v>95</v>
+      </c>
+      <c r="C89" s="4">
+        <v>190</v>
+      </c>
+      <c r="D89" s="4">
+        <v>202</v>
+      </c>
+      <c r="E89" s="4">
+        <v>21</v>
+      </c>
+      <c r="F89" s="4">
+        <v>371</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="1"/>
-        <v>165</v>
+        <f>F89+E89</f>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,23 +3464,23 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C90" s="3">
-        <v>5593</v>
+        <v>48198</v>
       </c>
       <c r="D90" s="3">
-        <v>5497</v>
+        <v>49168</v>
       </c>
       <c r="E90" s="3">
-        <v>6648</v>
+        <v>25126</v>
       </c>
       <c r="F90" s="3">
-        <v>4442</v>
+        <v>72239</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="1"/>
-        <v>11090</v>
+        <f>F90+E90</f>
+        <v>97365</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -3380,86 +3497,86 @@
         <v>1</v>
       </c>
       <c r="E91" s="4">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F91" s="4">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="1"/>
-        <v>174</v>
+        <f>F91+E91</f>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C92" s="3">
-        <v>3701</v>
+        <v>2455</v>
       </c>
       <c r="D92" s="3">
-        <v>3658</v>
+        <v>2483</v>
       </c>
       <c r="E92" s="3">
-        <v>5002</v>
+        <v>1768</v>
       </c>
       <c r="F92" s="3">
-        <v>2357</v>
+        <v>3170</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="1"/>
-        <v>7359</v>
+        <f>F92+E92</f>
+        <v>4938</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="4">
-        <v>218</v>
-      </c>
-      <c r="D93" s="4">
-        <v>224</v>
-      </c>
-      <c r="E93" s="4">
-        <v>234</v>
-      </c>
-      <c r="F93" s="4">
-        <v>207</v>
+        <v>89</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1419</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1393</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1611</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="1"/>
-        <v>441</v>
+        <f>F93+E93</f>
+        <v>2811</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C94" s="4">
-        <v>584</v>
-      </c>
-      <c r="D94" s="4">
-        <v>603</v>
-      </c>
-      <c r="E94" s="4">
-        <v>910</v>
-      </c>
-      <c r="F94" s="4">
-        <v>277</v>
+        <v>84</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2702</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2657</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2398</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2961</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="1"/>
-        <v>1187</v>
+        <f>F94+E94</f>
+        <v>5359</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,23 +3584,23 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="4">
-        <v>422</v>
-      </c>
-      <c r="D95" s="4">
-        <v>433</v>
-      </c>
-      <c r="E95" s="4">
-        <v>533</v>
-      </c>
-      <c r="F95" s="4">
-        <v>322</v>
+        <v>73</v>
+      </c>
+      <c r="C95" s="3">
+        <v>12514</v>
+      </c>
+      <c r="D95" s="3">
+        <v>12716</v>
+      </c>
+      <c r="E95" s="3">
+        <v>6967</v>
+      </c>
+      <c r="F95" s="3">
+        <v>18262</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="1"/>
-        <v>855</v>
+        <f>F95+E95</f>
+        <v>25229</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,23 +3608,23 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3">
-        <v>3973</v>
+        <v>1851</v>
       </c>
       <c r="D96" s="3">
-        <v>4114</v>
-      </c>
-      <c r="E96" s="3">
-        <v>5318</v>
+        <v>1988</v>
+      </c>
+      <c r="E96" s="4">
+        <v>965</v>
       </c>
       <c r="F96" s="3">
-        <v>2769</v>
+        <v>2874</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="1"/>
-        <v>8087</v>
+        <f>F96+E96</f>
+        <v>3839</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,239 +3632,239 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="3">
-        <v>3183</v>
-      </c>
-      <c r="D97" s="3">
-        <v>3132</v>
-      </c>
-      <c r="E97" s="3">
-        <v>3394</v>
-      </c>
-      <c r="F97" s="3">
-        <v>2922</v>
+        <v>109</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>26</v>
+      </c>
+      <c r="F97" s="4">
+        <v>13</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="1"/>
-        <v>6316</v>
+        <f>F97+E97</f>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" s="5">
-        <v>4816</v>
-      </c>
-      <c r="D98" s="5">
-        <v>5259</v>
-      </c>
-      <c r="E98" s="5">
-        <v>3379</v>
-      </c>
-      <c r="F98" s="5">
-        <v>6696</v>
+        <v>115</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>6</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="1"/>
-        <v>10075</v>
+        <f>F98+E98</f>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="3">
-        <v>515255</v>
-      </c>
-      <c r="D99" s="3">
-        <v>482801</v>
-      </c>
-      <c r="E99" s="3">
-        <v>717585</v>
-      </c>
-      <c r="F99" s="3">
-        <v>280471</v>
+        <v>102</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>53</v>
+      </c>
+      <c r="F99" s="4">
+        <v>60</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="1"/>
-        <v>998056</v>
+        <f>F99+E99</f>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="3">
-        <v>104403</v>
-      </c>
-      <c r="D100" s="3">
-        <v>104852</v>
-      </c>
-      <c r="E100" s="3">
-        <v>127231</v>
-      </c>
-      <c r="F100" s="3">
-        <v>82024</v>
+        <v>101</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>95</v>
+      </c>
+      <c r="F100" s="4">
+        <v>57</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="1"/>
-        <v>209255</v>
+        <f>F100+E100</f>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="3">
-        <v>33886</v>
-      </c>
-      <c r="D101" s="3">
-        <v>32910</v>
-      </c>
-      <c r="E101" s="3">
-        <v>26001</v>
-      </c>
-      <c r="F101" s="3">
-        <v>40795</v>
+        <v>94</v>
+      </c>
+      <c r="C101" s="4">
+        <v>206</v>
+      </c>
+      <c r="D101" s="4">
+        <v>210</v>
+      </c>
+      <c r="E101" s="4">
+        <v>201</v>
+      </c>
+      <c r="F101" s="4">
+        <v>214</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="1"/>
-        <v>66796</v>
+        <f>F101+E101</f>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="3">
-        <v>11419</v>
-      </c>
-      <c r="D102" s="3">
-        <v>11031</v>
-      </c>
-      <c r="E102" s="3">
-        <v>5309</v>
-      </c>
-      <c r="F102" s="3">
-        <v>17141</v>
+        <v>91</v>
+      </c>
+      <c r="C102" s="4">
+        <v>641</v>
+      </c>
+      <c r="D102" s="4">
+        <v>647</v>
+      </c>
+      <c r="E102" s="4">
+        <v>341</v>
+      </c>
+      <c r="F102" s="4">
+        <v>948</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="1"/>
-        <v>22450</v>
+        <f>F102+E102</f>
+        <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
         <v>9</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C103" s="5">
-        <v>1839</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1866</v>
-      </c>
-      <c r="E103" s="5">
-        <v>1544</v>
-      </c>
-      <c r="F103" s="5">
-        <v>2161</v>
+      <c r="F103" s="4">
+        <v>7</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="1"/>
-        <v>3705</v>
+        <f>F103+E103</f>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="6">
-        <v>140</v>
-      </c>
-      <c r="D104" s="6">
-        <v>139</v>
-      </c>
-      <c r="E104" s="6">
-        <v>22</v>
-      </c>
-      <c r="F104" s="6">
-        <v>256</v>
+        <v>88</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1607</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1706</v>
+      </c>
+      <c r="E104" s="4">
+        <v>294</v>
+      </c>
+      <c r="F104" s="3">
+        <v>3019</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="1"/>
-        <v>278</v>
+        <f>F104+E104</f>
+        <v>3313</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="C105" s="3">
-        <v>3026</v>
+        <v>11930</v>
       </c>
       <c r="D105" s="3">
-        <v>3075</v>
-      </c>
-      <c r="E105" s="4">
-        <v>544</v>
+        <v>11776</v>
+      </c>
+      <c r="E105" s="3">
+        <v>3071</v>
       </c>
       <c r="F105" s="3">
-        <v>5557</v>
+        <v>20636</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="1"/>
-        <v>6101</v>
+        <f>F105+E105</f>
+        <v>23707</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="5">
-        <v>27830</v>
-      </c>
-      <c r="D106" s="5">
-        <v>29513</v>
-      </c>
-      <c r="E106" s="5">
-        <v>18969</v>
-      </c>
-      <c r="F106" s="5">
-        <v>38374</v>
+        <v>111</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8</v>
+      </c>
+      <c r="F106" s="4">
+        <v>12</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="1"/>
-        <v>57343</v>
+        <f>F106+E106</f>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,23 +3872,23 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" s="3">
-        <v>1270</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1291</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1137</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1424</v>
+        <v>103</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>51</v>
+      </c>
+      <c r="F107" s="4">
+        <v>43</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="1"/>
-        <v>2561</v>
+        <f>F107+E107</f>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,23 +3896,23 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C108" s="3">
-        <v>61997</v>
+        <v>11251</v>
       </c>
       <c r="D108" s="3">
-        <v>64508</v>
+        <v>10672</v>
       </c>
       <c r="E108" s="3">
-        <v>26930</v>
+        <v>17217</v>
       </c>
       <c r="F108" s="3">
-        <v>99575</v>
+        <v>4707</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="1"/>
-        <v>126505</v>
+        <f>F108+E108</f>
+        <v>21924</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3803,23 +3920,23 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C109" s="3">
-        <v>2519</v>
+        <v>11566</v>
       </c>
       <c r="D109" s="3">
-        <v>2303</v>
+        <v>9333</v>
       </c>
       <c r="E109" s="3">
-        <v>1272</v>
+        <v>3106</v>
       </c>
       <c r="F109" s="3">
-        <v>3551</v>
+        <v>17793</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="1"/>
-        <v>4823</v>
+        <f>F109+E109</f>
+        <v>20899</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,47 +3944,47 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C110" s="3">
-        <v>7917</v>
+        <v>1714</v>
       </c>
       <c r="D110" s="3">
-        <v>8352</v>
+        <v>1811</v>
       </c>
       <c r="E110" s="3">
-        <v>6303</v>
+        <v>1069</v>
       </c>
       <c r="F110" s="3">
-        <v>9966</v>
+        <v>2456</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="1"/>
-        <v>16269</v>
+        <f>F110+E110</f>
+        <v>3525</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="C111" s="3">
-        <v>14805</v>
+        <v>3770</v>
       </c>
       <c r="D111" s="3">
-        <v>14744</v>
+        <v>3927</v>
       </c>
       <c r="E111" s="3">
-        <v>20050</v>
+        <v>3314</v>
       </c>
       <c r="F111" s="3">
-        <v>9499</v>
+        <v>4383</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="1"/>
-        <v>29549</v>
+        <f>F111+E111</f>
+        <v>7697</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3875,47 +3992,47 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="3">
-        <v>2289</v>
-      </c>
-      <c r="D112" s="3">
-        <v>2380</v>
-      </c>
-      <c r="E112" s="3">
-        <v>2810</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1859</v>
+        <v>160</v>
+      </c>
+      <c r="C112" s="4">
+        <v>346</v>
+      </c>
+      <c r="D112" s="4">
+        <v>261</v>
+      </c>
+      <c r="E112" s="4">
+        <v>49</v>
+      </c>
+      <c r="F112" s="4">
+        <v>557</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="1"/>
-        <v>4669</v>
+        <f>F112+E112</f>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="6">
-        <v>0</v>
-      </c>
-      <c r="D113" s="6">
-        <v>1</v>
-      </c>
-      <c r="E113" s="6">
-        <v>52</v>
-      </c>
-      <c r="F113" s="6">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C113" s="3">
+        <v>65001</v>
+      </c>
+      <c r="D113" s="3">
+        <v>61947</v>
+      </c>
+      <c r="E113" s="3">
+        <v>100839</v>
+      </c>
+      <c r="F113" s="3">
+        <v>26109</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f>F113+E113</f>
+        <v>126948</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,23 +4040,23 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="4">
-        <v>991</v>
-      </c>
-      <c r="D114" s="4">
-        <v>906</v>
-      </c>
-      <c r="E114" s="4">
-        <v>48</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1849</v>
+        <v>154</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1042</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1022</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F114" s="4">
+        <v>142</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="1"/>
-        <v>1897</v>
+        <f>F114+E114</f>
+        <v>2063</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3947,71 +4064,71 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" s="3">
-        <v>2668</v>
-      </c>
-      <c r="D115" s="3">
-        <v>2629</v>
-      </c>
-      <c r="E115" s="3">
-        <v>4085</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1212</v>
+        <v>162</v>
+      </c>
+      <c r="C115" s="4">
+        <v>168</v>
+      </c>
+      <c r="D115" s="4">
+        <v>153</v>
+      </c>
+      <c r="E115" s="4">
+        <v>92</v>
+      </c>
+      <c r="F115" s="4">
+        <v>230</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="1"/>
-        <v>5297</v>
+        <f>F115+E115</f>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C116" s="3">
-        <v>1038</v>
+        <v>5305</v>
       </c>
       <c r="D116" s="3">
-        <v>1070</v>
+        <v>5641</v>
       </c>
       <c r="E116" s="3">
-        <v>1536</v>
-      </c>
-      <c r="F116" s="4">
-        <v>571</v>
+        <v>8447</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2498</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="1"/>
-        <v>2107</v>
+        <f>F116+E116</f>
+        <v>10945</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="5">
-        <v>1086</v>
-      </c>
-      <c r="D117" s="5">
-        <v>1303</v>
-      </c>
-      <c r="E117" s="6">
-        <v>622</v>
-      </c>
-      <c r="F117" s="5">
-        <v>1768</v>
+        <v>232</v>
+      </c>
+      <c r="C117" s="3">
+        <v>655632</v>
+      </c>
+      <c r="D117" s="3">
+        <v>618475</v>
+      </c>
+      <c r="E117" s="3">
+        <v>843136</v>
+      </c>
+      <c r="F117" s="3">
+        <v>430971</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="1"/>
-        <v>2390</v>
+        <f>F117+E117</f>
+        <v>1274107</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,191 +4136,191 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1582</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1654</v>
+        <v>159</v>
+      </c>
+      <c r="C118" s="4">
+        <v>389</v>
+      </c>
+      <c r="D118" s="4">
+        <v>390</v>
       </c>
       <c r="E118" s="4">
-        <v>347</v>
-      </c>
-      <c r="F118" s="3">
-        <v>2889</v>
+        <v>341</v>
+      </c>
+      <c r="F118" s="4">
+        <v>438</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="1"/>
-        <v>3236</v>
+        <f>F118+E118</f>
+        <v>779</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1471</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1459</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1544</v>
+        <v>156</v>
+      </c>
+      <c r="C119" s="4">
+        <v>830</v>
+      </c>
+      <c r="D119" s="4">
+        <v>829</v>
+      </c>
+      <c r="E119" s="4">
+        <v>438</v>
       </c>
       <c r="F119" s="3">
-        <v>1386</v>
+        <v>1222</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="1"/>
-        <v>2930</v>
+        <f>F119+E119</f>
+        <v>1660</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C120" s="3">
-        <v>2835</v>
+        <v>11882</v>
       </c>
       <c r="D120" s="3">
-        <v>2635</v>
-      </c>
-      <c r="E120" s="4">
-        <v>702</v>
+        <v>11820</v>
+      </c>
+      <c r="E120" s="3">
+        <v>8890</v>
       </c>
       <c r="F120" s="3">
-        <v>4769</v>
+        <v>14812</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="1"/>
-        <v>5471</v>
+        <f>F120+E120</f>
+        <v>23702</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="6">
-        <v>0</v>
-      </c>
-      <c r="D121" s="6">
-        <v>1</v>
-      </c>
-      <c r="E121" s="6">
-        <v>26</v>
-      </c>
-      <c r="F121" s="6">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="C121" s="3">
+        <v>23437</v>
+      </c>
+      <c r="D121" s="3">
+        <v>23042</v>
+      </c>
+      <c r="E121" s="3">
+        <v>6897</v>
+      </c>
+      <c r="F121" s="3">
+        <v>39583</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>F121+E121</f>
+        <v>46480</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C122" s="5">
-        <v>1738</v>
-      </c>
-      <c r="D122" s="5">
-        <v>1944</v>
-      </c>
-      <c r="E122" s="6">
-        <v>953</v>
-      </c>
-      <c r="F122" s="5">
-        <v>2729</v>
+        <v>153</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1521</v>
+      </c>
+      <c r="D122" s="4">
+        <v>876</v>
+      </c>
+      <c r="E122" s="4">
+        <v>348</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2049</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="1"/>
-        <v>3682</v>
+        <f>F122+E122</f>
+        <v>2397</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="6">
-        <v>209</v>
-      </c>
-      <c r="D123" s="6">
-        <v>217</v>
-      </c>
-      <c r="E123" s="6">
-        <v>40</v>
-      </c>
-      <c r="F123" s="6">
-        <v>386</v>
+        <v>123</v>
+      </c>
+      <c r="C123" s="3">
+        <v>37558</v>
+      </c>
+      <c r="D123" s="3">
+        <v>36896</v>
+      </c>
+      <c r="E123" s="3">
+        <v>31514</v>
+      </c>
+      <c r="F123" s="3">
+        <v>42940</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="1"/>
-        <v>426</v>
+        <f>F123+E123</f>
+        <v>74454</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1006</v>
-      </c>
-      <c r="E124" s="6">
-        <v>773</v>
-      </c>
-      <c r="F124" s="5">
-        <v>1238</v>
+        <v>144</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2392</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2613</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1991</v>
+      </c>
+      <c r="F124" s="3">
+        <v>3015</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="1"/>
-        <v>2011</v>
+        <f>F124+E124</f>
+        <v>5006</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C125" s="3">
-        <v>7692</v>
+        <v>515255</v>
       </c>
       <c r="D125" s="3">
-        <v>7804</v>
+        <v>482801</v>
       </c>
       <c r="E125" s="3">
-        <v>11024</v>
+        <v>717585</v>
       </c>
       <c r="F125" s="3">
-        <v>4472</v>
+        <v>280471</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="1"/>
-        <v>15496</v>
+        <f>F125+E125</f>
+        <v>998056</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,47 +4328,47 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C126" s="3">
-        <v>11065</v>
+        <v>104403</v>
       </c>
       <c r="D126" s="3">
-        <v>10765</v>
+        <v>104852</v>
       </c>
       <c r="E126" s="3">
-        <v>9495</v>
+        <v>127231</v>
       </c>
       <c r="F126" s="3">
-        <v>12335</v>
+        <v>82024</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="1"/>
-        <v>21830</v>
+        <f>F126+E126</f>
+        <v>209255</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3">
-        <v>5274</v>
+        <v>33886</v>
       </c>
       <c r="D127" s="3">
-        <v>5366</v>
+        <v>32910</v>
       </c>
       <c r="E127" s="3">
-        <v>9050</v>
+        <v>26001</v>
       </c>
       <c r="F127" s="3">
-        <v>1591</v>
+        <v>40795</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="1"/>
-        <v>10641</v>
+        <f>F127+E127</f>
+        <v>66796</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4259,335 +4376,335 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C128" s="4">
-        <v>143</v>
-      </c>
-      <c r="D128" s="4">
-        <v>135</v>
-      </c>
-      <c r="E128" s="4">
-        <v>200</v>
-      </c>
-      <c r="F128" s="4">
-        <v>78</v>
+        <v>132</v>
+      </c>
+      <c r="C128" s="3">
+        <v>11419</v>
+      </c>
+      <c r="D128" s="3">
+        <v>11031</v>
+      </c>
+      <c r="E128" s="3">
+        <v>5309</v>
+      </c>
+      <c r="F128" s="3">
+        <v>17141</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="1"/>
-        <v>278</v>
+        <f>F128+E128</f>
+        <v>22450</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C129" s="3">
-        <v>5409</v>
+        <v>3026</v>
       </c>
       <c r="D129" s="3">
-        <v>5551</v>
-      </c>
-      <c r="E129" s="3">
-        <v>7741</v>
+        <v>3075</v>
+      </c>
+      <c r="E129" s="4">
+        <v>544</v>
       </c>
       <c r="F129" s="3">
-        <v>3219</v>
+        <v>5557</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="1"/>
-        <v>10960</v>
+        <f>F129+E129</f>
+        <v>6101</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" s="6">
-        <v>191</v>
-      </c>
-      <c r="D130" s="6">
-        <v>195</v>
-      </c>
-      <c r="E130" s="6">
-        <v>38</v>
-      </c>
-      <c r="F130" s="6">
-        <v>348</v>
+        <v>121</v>
+      </c>
+      <c r="C130" s="3">
+        <v>61997</v>
+      </c>
+      <c r="D130" s="3">
+        <v>64508</v>
+      </c>
+      <c r="E130" s="3">
+        <v>26930</v>
+      </c>
+      <c r="F130" s="3">
+        <v>99575</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" si="1"/>
-        <v>386</v>
+        <f>F130+E130</f>
+        <v>126505</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C131" s="4">
-        <v>0</v>
-      </c>
-      <c r="D131" s="4">
-        <v>1</v>
-      </c>
-      <c r="E131" s="4">
-        <v>0</v>
-      </c>
-      <c r="F131" s="4">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2519</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2303</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1272</v>
+      </c>
+      <c r="F131" s="3">
+        <v>3551</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" ref="G131:G194" si="2">F131+E131</f>
-        <v>2</v>
+        <f>F131+E131</f>
+        <v>4823</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="6">
-        <v>0</v>
-      </c>
-      <c r="D132" s="6">
-        <v>1</v>
-      </c>
-      <c r="E132" s="6">
-        <v>34</v>
-      </c>
-      <c r="F132" s="6">
-        <v>40</v>
+        <v>137</v>
+      </c>
+      <c r="C132" s="3">
+        <v>7917</v>
+      </c>
+      <c r="D132" s="3">
+        <v>8352</v>
+      </c>
+      <c r="E132" s="3">
+        <v>6303</v>
+      </c>
+      <c r="F132" s="3">
+        <v>9966</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" si="2"/>
-        <v>74</v>
+        <f>F132+E132</f>
+        <v>16269</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C133" s="3">
-        <v>13946</v>
+        <v>2289</v>
       </c>
       <c r="D133" s="3">
-        <v>13920</v>
+        <v>2380</v>
       </c>
       <c r="E133" s="3">
-        <v>12649</v>
+        <v>2810</v>
       </c>
       <c r="F133" s="3">
-        <v>15218</v>
+        <v>1859</v>
       </c>
       <c r="G133" s="7">
-        <f t="shared" si="2"/>
-        <v>27867</v>
+        <f>F133+E133</f>
+        <v>4669</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" s="6">
-        <v>0</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1</v>
-      </c>
-      <c r="E134" s="6">
-        <v>18</v>
-      </c>
-      <c r="F134" s="6">
-        <v>45</v>
+        <v>155</v>
+      </c>
+      <c r="C134" s="4">
+        <v>991</v>
+      </c>
+      <c r="D134" s="4">
+        <v>906</v>
+      </c>
+      <c r="E134" s="4">
+        <v>48</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1849</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f>F134+E134</f>
+        <v>1897</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135" s="4">
-        <v>190</v>
-      </c>
-      <c r="D135" s="4">
-        <v>202</v>
-      </c>
-      <c r="E135" s="4">
-        <v>21</v>
-      </c>
-      <c r="F135" s="4">
-        <v>371</v>
+        <v>143</v>
+      </c>
+      <c r="C135" s="3">
+        <v>2668</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2629</v>
+      </c>
+      <c r="E135" s="3">
+        <v>4085</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1212</v>
       </c>
       <c r="G135" s="7">
-        <f t="shared" si="2"/>
-        <v>392</v>
+        <f>F135+E135</f>
+        <v>5297</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C136" s="4">
-        <v>573</v>
-      </c>
-      <c r="D136" s="4">
-        <v>576</v>
+        <v>150</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1582</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1654</v>
       </c>
       <c r="E136" s="4">
-        <v>677</v>
-      </c>
-      <c r="F136" s="4">
-        <v>473</v>
+        <v>347</v>
+      </c>
+      <c r="F136" s="3">
+        <v>2889</v>
       </c>
       <c r="G136" s="7">
-        <f t="shared" si="2"/>
-        <v>1150</v>
+        <f>F136+E136</f>
+        <v>3236</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C137" s="3">
-        <v>1288</v>
+        <v>11065</v>
       </c>
       <c r="D137" s="3">
-        <v>1310</v>
+        <v>10765</v>
       </c>
       <c r="E137" s="3">
-        <v>1134</v>
+        <v>9495</v>
       </c>
       <c r="F137" s="3">
-        <v>1464</v>
+        <v>12335</v>
       </c>
       <c r="G137" s="7">
-        <f t="shared" si="2"/>
-        <v>2598</v>
+        <f>F137+E137</f>
+        <v>21830</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="3">
-        <v>48198</v>
-      </c>
-      <c r="D138" s="3">
-        <v>49168</v>
-      </c>
-      <c r="E138" s="3">
-        <v>25126</v>
-      </c>
-      <c r="F138" s="3">
-        <v>72239</v>
+        <v>163</v>
+      </c>
+      <c r="C138" s="4">
+        <v>143</v>
+      </c>
+      <c r="D138" s="4">
+        <v>135</v>
+      </c>
+      <c r="E138" s="4">
+        <v>200</v>
+      </c>
+      <c r="F138" s="4">
+        <v>78</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="2"/>
-        <v>97365</v>
+        <f>F138+E138</f>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C139" s="6">
-        <v>0</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1</v>
-      </c>
-      <c r="E139" s="6">
-        <v>82</v>
-      </c>
-      <c r="F139" s="6">
-        <v>34</v>
+        <v>151</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1314</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1307</v>
+      </c>
+      <c r="E139" s="4">
+        <v>970</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1650</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="2"/>
-        <v>116</v>
+        <f>F139+E139</f>
+        <v>2620</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C140" s="5">
-        <v>2096</v>
-      </c>
-      <c r="D140" s="5">
-        <v>2283</v>
-      </c>
-      <c r="E140" s="5">
-        <v>1995</v>
-      </c>
-      <c r="F140" s="5">
-        <v>2384</v>
+        <v>128</v>
+      </c>
+      <c r="C140" s="3">
+        <v>22426</v>
+      </c>
+      <c r="D140" s="3">
+        <v>22633</v>
+      </c>
+      <c r="E140" s="3">
+        <v>32754</v>
+      </c>
+      <c r="F140" s="3">
+        <v>12305</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="2"/>
-        <v>4379</v>
+        <f>F140+E140</f>
+        <v>45059</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C141" s="6">
-        <v>0</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1</v>
-      </c>
-      <c r="E141" s="6">
-        <v>0</v>
-      </c>
-      <c r="F141" s="6">
-        <v>33</v>
+        <v>131</v>
+      </c>
+      <c r="C141" s="3">
+        <v>11848</v>
+      </c>
+      <c r="D141" s="3">
+        <v>11538</v>
+      </c>
+      <c r="E141" s="3">
+        <v>20684</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2701</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f>F141+E141</f>
+        <v>23385</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,71 +4712,71 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142" s="3">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="D142" s="3">
-        <v>1307</v>
+        <v>1155</v>
       </c>
       <c r="E142" s="4">
-        <v>970</v>
+        <v>437</v>
       </c>
       <c r="F142" s="3">
-        <v>1650</v>
+        <v>2023</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="2"/>
-        <v>2620</v>
+        <f>F142+E142</f>
+        <v>2460</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0</v>
-      </c>
-      <c r="D143" s="4">
-        <v>1</v>
-      </c>
-      <c r="E143" s="4">
-        <v>9</v>
-      </c>
-      <c r="F143" s="4">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="C143" s="3">
+        <v>78632</v>
+      </c>
+      <c r="D143" s="3">
+        <v>73698</v>
+      </c>
+      <c r="E143" s="3">
+        <v>96764</v>
+      </c>
+      <c r="F143" s="3">
+        <v>55567</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>F143+E143</f>
+        <v>152331</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" s="3">
-        <v>9525</v>
-      </c>
-      <c r="D144" s="3">
-        <v>9761</v>
-      </c>
-      <c r="E144" s="3">
-        <v>11792</v>
-      </c>
-      <c r="F144" s="3">
-        <v>7494</v>
+        <v>161</v>
+      </c>
+      <c r="C144" s="4">
+        <v>385</v>
+      </c>
+      <c r="D144" s="4">
+        <v>204</v>
+      </c>
+      <c r="E144" s="4">
+        <v>46</v>
+      </c>
+      <c r="F144" s="4">
+        <v>544</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="2"/>
-        <v>19286</v>
+        <f>F144+E144</f>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,71 +4784,71 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C145" s="3">
-        <v>22426</v>
+        <v>1774</v>
       </c>
       <c r="D145" s="3">
-        <v>22633</v>
-      </c>
-      <c r="E145" s="3">
-        <v>32754</v>
+        <v>1748</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
       </c>
       <c r="F145" s="3">
-        <v>12305</v>
+        <v>3522</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="2"/>
-        <v>45059</v>
+        <f>F145+E145</f>
+        <v>3522</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C146" s="4">
-        <v>845</v>
-      </c>
-      <c r="D146" s="4">
-        <v>850</v>
+        <v>138</v>
+      </c>
+      <c r="C146" s="3">
+        <v>7943</v>
+      </c>
+      <c r="D146" s="3">
+        <v>7782</v>
       </c>
       <c r="E146" s="3">
-        <v>1020</v>
-      </c>
-      <c r="F146" s="4">
-        <v>675</v>
+        <v>7231</v>
+      </c>
+      <c r="F146" s="3">
+        <v>8494</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="2"/>
-        <v>1695</v>
+        <f>F146+E146</f>
+        <v>15725</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0</v>
-      </c>
-      <c r="F147" s="6">
-        <v>11</v>
+        <v>135</v>
+      </c>
+      <c r="C147" s="3">
+        <v>9227</v>
+      </c>
+      <c r="D147" s="3">
+        <v>9412</v>
+      </c>
+      <c r="E147" s="3">
+        <v>14305</v>
+      </c>
+      <c r="F147" s="3">
+        <v>4334</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>F147+E147</f>
+        <v>18639</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4739,191 +4856,191 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C148" s="3">
-        <v>11848</v>
+        <v>30374</v>
       </c>
       <c r="D148" s="3">
-        <v>11538</v>
+        <v>30482</v>
       </c>
       <c r="E148" s="3">
-        <v>20684</v>
+        <v>47926</v>
       </c>
       <c r="F148" s="3">
-        <v>2701</v>
+        <v>12930</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="2"/>
-        <v>23385</v>
+        <f>F148+E148</f>
+        <v>60856</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C149" s="3">
-        <v>2455</v>
+        <v>3040</v>
       </c>
       <c r="D149" s="3">
-        <v>2483</v>
+        <v>3064</v>
       </c>
       <c r="E149" s="3">
-        <v>1768</v>
+        <v>4107</v>
       </c>
       <c r="F149" s="3">
-        <v>3170</v>
+        <v>1997</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="2"/>
-        <v>4938</v>
+        <f>F149+E149</f>
+        <v>6104</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="3">
-        <v>5145</v>
-      </c>
-      <c r="D150" s="3">
-        <v>5256</v>
-      </c>
-      <c r="E150" s="3">
-        <v>8313</v>
-      </c>
-      <c r="F150" s="3">
-        <v>2087</v>
+        <v>158</v>
+      </c>
+      <c r="C150" s="4">
+        <v>448</v>
+      </c>
+      <c r="D150" s="4">
+        <v>423</v>
+      </c>
+      <c r="E150" s="4">
+        <v>806</v>
+      </c>
+      <c r="F150" s="4">
+        <v>65</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="2"/>
-        <v>10400</v>
+        <f>F150+E150</f>
+        <v>871</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3">
-        <v>54033</v>
+        <v>2169</v>
       </c>
       <c r="D151" s="3">
-        <v>54912</v>
+        <v>2215</v>
       </c>
       <c r="E151" s="3">
-        <v>62031</v>
+        <v>2395</v>
       </c>
       <c r="F151" s="3">
-        <v>46914</v>
+        <v>1989</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="2"/>
-        <v>108945</v>
+        <f>F151+E151</f>
+        <v>4384</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C152" s="6">
-        <v>0</v>
-      </c>
-      <c r="D152" s="6">
-        <v>1</v>
-      </c>
-      <c r="E152" s="6">
-        <v>1</v>
-      </c>
-      <c r="F152" s="6">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="C152" s="3">
+        <v>33110</v>
+      </c>
+      <c r="D152" s="3">
+        <v>32436</v>
+      </c>
+      <c r="E152" s="3">
+        <v>16994</v>
+      </c>
+      <c r="F152" s="3">
+        <v>48552</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>F152+E152</f>
+        <v>65546</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C153" s="5">
-        <v>2201</v>
-      </c>
-      <c r="D153" s="5">
-        <v>2241</v>
-      </c>
-      <c r="E153" s="5">
-        <v>1156</v>
-      </c>
-      <c r="F153" s="5">
-        <v>3286</v>
+        <v>129</v>
+      </c>
+      <c r="C153" s="3">
+        <v>11887</v>
+      </c>
+      <c r="D153" s="3">
+        <v>12054</v>
+      </c>
+      <c r="E153" s="3">
+        <v>13853</v>
+      </c>
+      <c r="F153" s="3">
+        <v>10089</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="2"/>
-        <v>4442</v>
+        <f>F153+E153</f>
+        <v>23942</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C154" s="6">
-        <v>108</v>
-      </c>
-      <c r="D154" s="6">
-        <v>103</v>
-      </c>
-      <c r="E154" s="6">
-        <v>76</v>
-      </c>
-      <c r="F154" s="6">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="C154" s="3">
+        <v>38847</v>
+      </c>
+      <c r="D154" s="3">
+        <v>39858</v>
+      </c>
+      <c r="E154" s="3">
+        <v>63223</v>
+      </c>
+      <c r="F154" s="3">
+        <v>15482</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="2"/>
-        <v>210</v>
+        <f>F154+E154</f>
+        <v>78705</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C155" s="5">
-        <v>1886</v>
-      </c>
-      <c r="D155" s="5">
-        <v>1942</v>
-      </c>
-      <c r="E155" s="6">
-        <v>509</v>
-      </c>
-      <c r="F155" s="5">
-        <v>3320</v>
+        <v>136</v>
+      </c>
+      <c r="C155" s="3">
+        <v>8809</v>
+      </c>
+      <c r="D155" s="3">
+        <v>8679</v>
+      </c>
+      <c r="E155" s="3">
+        <v>11007</v>
+      </c>
+      <c r="F155" s="3">
+        <v>6481</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="2"/>
-        <v>3829</v>
+        <f>F155+E155</f>
+        <v>17488</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,23 +5048,23 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1305</v>
-      </c>
-      <c r="D156" s="3">
-        <v>1155</v>
+        <v>157</v>
+      </c>
+      <c r="C156" s="4">
+        <v>544</v>
+      </c>
+      <c r="D156" s="4">
+        <v>533</v>
       </c>
       <c r="E156" s="4">
-        <v>437</v>
+        <v>59</v>
       </c>
       <c r="F156" s="3">
-        <v>2023</v>
+        <v>1018</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="2"/>
-        <v>2460</v>
+        <f>F156+E156</f>
+        <v>1077</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4955,55 +5072,55 @@
         <v>9</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C157" s="5">
-        <v>7790</v>
-      </c>
-      <c r="D157" s="5">
-        <v>7945</v>
-      </c>
-      <c r="E157" s="5">
-        <v>1687</v>
-      </c>
-      <c r="F157" s="5">
-        <v>14048</v>
+        <v>205</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
+      <c r="E157" s="6">
+        <v>26</v>
+      </c>
+      <c r="F157" s="6">
+        <v>7</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="2"/>
-        <v>15735</v>
+        <f>F157+E157</f>
+        <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C158" s="3">
-        <v>78632</v>
-      </c>
-      <c r="D158" s="3">
-        <v>73698</v>
-      </c>
-      <c r="E158" s="3">
-        <v>96764</v>
-      </c>
-      <c r="F158" s="3">
-        <v>55567</v>
+        <v>204</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="6">
+        <v>28</v>
+      </c>
+      <c r="F158" s="6">
+        <v>15</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="2"/>
-        <v>152331</v>
+        <f>F158+E158</f>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C159" s="6">
         <v>0</v>
@@ -5012,134 +5129,134 @@
         <v>1</v>
       </c>
       <c r="E159" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F159" s="6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>F159+E159</f>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1419</v>
-      </c>
-      <c r="D160" s="3">
-        <v>1393</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F160" s="3">
-        <v>1611</v>
+        <v>207</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="6">
+        <v>25</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="2"/>
-        <v>2811</v>
+        <f>F160+E160</f>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C161" s="5">
-        <v>2423</v>
-      </c>
-      <c r="D161" s="5">
-        <v>2279</v>
-      </c>
-      <c r="E161" s="5">
-        <v>3897</v>
+        <v>206</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0</v>
       </c>
       <c r="F161" s="6">
-        <v>806</v>
+        <v>33</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="2"/>
-        <v>4703</v>
+        <f>F161+E161</f>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="3">
-        <v>2702</v>
-      </c>
-      <c r="D162" s="3">
-        <v>2657</v>
-      </c>
-      <c r="E162" s="3">
-        <v>2398</v>
-      </c>
-      <c r="F162" s="3">
-        <v>2961</v>
+        <v>203</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="6">
+        <v>4</v>
+      </c>
+      <c r="F162" s="6">
+        <v>71</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="2"/>
-        <v>5359</v>
+        <f>F162+E162</f>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" s="3">
-        <v>12514</v>
-      </c>
-      <c r="D163" s="3">
-        <v>12716</v>
-      </c>
-      <c r="E163" s="3">
-        <v>6967</v>
-      </c>
-      <c r="F163" s="3">
-        <v>18262</v>
+        <v>202</v>
+      </c>
+      <c r="C163" s="6">
+        <v>140</v>
+      </c>
+      <c r="D163" s="6">
+        <v>139</v>
+      </c>
+      <c r="E163" s="6">
+        <v>22</v>
+      </c>
+      <c r="F163" s="6">
+        <v>256</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="2"/>
-        <v>25229</v>
+        <f>F163+E163</f>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C164" s="6">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D164" s="6">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="E164" s="6">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F164" s="6">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="2"/>
-        <v>232</v>
+        <f>F164+E164</f>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,23 +5264,23 @@
         <v>9</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C165" s="5">
-        <v>18832</v>
-      </c>
-      <c r="D165" s="5">
-        <v>19909</v>
-      </c>
-      <c r="E165" s="5">
-        <v>13492</v>
-      </c>
-      <c r="F165" s="5">
-        <v>25248</v>
+        <v>200</v>
+      </c>
+      <c r="C165" s="6">
+        <v>209</v>
+      </c>
+      <c r="D165" s="6">
+        <v>217</v>
+      </c>
+      <c r="E165" s="6">
+        <v>40</v>
+      </c>
+      <c r="F165" s="6">
+        <v>386</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="2"/>
-        <v>38740</v>
+        <f>F165+E165</f>
+        <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,71 +5288,71 @@
         <v>9</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C166" s="5">
-        <v>4750</v>
+        <v>198</v>
+      </c>
+      <c r="C166" s="6">
+        <v>966</v>
       </c>
       <c r="D166" s="5">
-        <v>5123</v>
-      </c>
-      <c r="E166" s="5">
-        <v>6171</v>
+        <v>1023</v>
+      </c>
+      <c r="E166" s="6">
+        <v>948</v>
       </c>
       <c r="F166" s="5">
-        <v>3703</v>
+        <v>1041</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="2"/>
-        <v>9874</v>
+        <f>F166+E166</f>
+        <v>1989</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1851</v>
-      </c>
-      <c r="D167" s="3">
-        <v>1988</v>
-      </c>
-      <c r="E167" s="4">
-        <v>965</v>
-      </c>
-      <c r="F167" s="3">
-        <v>2874</v>
+        <v>199</v>
+      </c>
+      <c r="C167" s="6">
+        <v>664</v>
+      </c>
+      <c r="D167" s="6">
+        <v>748</v>
+      </c>
+      <c r="E167" s="6">
+        <v>367</v>
+      </c>
+      <c r="F167" s="5">
+        <v>1045</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="2"/>
-        <v>3839</v>
+        <f>F167+E167</f>
+        <v>1412</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C168" s="4">
-        <v>385</v>
-      </c>
-      <c r="D168" s="4">
-        <v>204</v>
-      </c>
-      <c r="E168" s="4">
-        <v>46</v>
-      </c>
-      <c r="F168" s="4">
-        <v>544</v>
+        <v>195</v>
+      </c>
+      <c r="C168" s="5">
+        <v>1592</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1521</v>
+      </c>
+      <c r="E168" s="5">
+        <v>1907</v>
+      </c>
+      <c r="F168" s="5">
+        <v>1206</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="2"/>
-        <v>590</v>
+        <f>F168+E168</f>
+        <v>3113</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5243,47 +5360,47 @@
         <v>9</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C169" s="5">
-        <v>28947</v>
+        <v>1005</v>
       </c>
       <c r="D169" s="5">
-        <v>30027</v>
-      </c>
-      <c r="E169" s="5">
-        <v>6335</v>
+        <v>1006</v>
+      </c>
+      <c r="E169" s="6">
+        <v>773</v>
       </c>
       <c r="F169" s="5">
-        <v>52639</v>
+        <v>1238</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="2"/>
-        <v>58974</v>
+        <f>F169+E169</f>
+        <v>2011</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C170" s="4">
-        <v>338</v>
-      </c>
-      <c r="D170" s="4">
-        <v>353</v>
-      </c>
-      <c r="E170" s="4">
-        <v>206</v>
-      </c>
-      <c r="F170" s="4">
-        <v>485</v>
+        <v>192</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1899</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1939</v>
+      </c>
+      <c r="E170" s="5">
+        <v>2198</v>
+      </c>
+      <c r="F170" s="5">
+        <v>1640</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="2"/>
-        <v>691</v>
+        <f>F170+E170</f>
+        <v>3838</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,167 +5408,167 @@
         <v>9</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C171" s="5">
-        <v>11002</v>
+        <v>1086</v>
       </c>
       <c r="D171" s="5">
-        <v>11400</v>
-      </c>
-      <c r="E171" s="5">
-        <v>9469</v>
+        <v>1303</v>
+      </c>
+      <c r="E171" s="6">
+        <v>622</v>
       </c>
       <c r="F171" s="5">
-        <v>12933</v>
+        <v>1768</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="2"/>
-        <v>22402</v>
+        <f>F171+E171</f>
+        <v>2390</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C172" s="3">
-        <v>3572</v>
-      </c>
-      <c r="D172" s="3">
-        <v>3663</v>
-      </c>
-      <c r="E172" s="3">
-        <v>6797</v>
-      </c>
-      <c r="F172" s="4">
-        <v>438</v>
+        <v>193</v>
+      </c>
+      <c r="C172" s="5">
+        <v>1839</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1866</v>
+      </c>
+      <c r="E172" s="5">
+        <v>1544</v>
+      </c>
+      <c r="F172" s="5">
+        <v>2161</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="2"/>
-        <v>7235</v>
+        <f>F172+E172</f>
+        <v>3705</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C173" s="4">
-        <v>141</v>
-      </c>
-      <c r="D173" s="4">
-        <v>143</v>
-      </c>
-      <c r="E173" s="4">
-        <v>14</v>
-      </c>
-      <c r="F173" s="4">
-        <v>270</v>
+        <v>191</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2096</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2283</v>
+      </c>
+      <c r="E173" s="5">
+        <v>1995</v>
+      </c>
+      <c r="F173" s="5">
+        <v>2384</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="2"/>
-        <v>284</v>
+        <f>F173+E173</f>
+        <v>4379</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0</v>
-      </c>
-      <c r="D174" s="4">
-        <v>1</v>
-      </c>
-      <c r="E174" s="4">
-        <v>26</v>
-      </c>
-      <c r="F174" s="4">
-        <v>13</v>
+        <v>189</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2164</v>
+      </c>
+      <c r="D174" s="5">
+        <v>2313</v>
+      </c>
+      <c r="E174" s="5">
+        <v>1910</v>
+      </c>
+      <c r="F174" s="5">
+        <v>2567</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f>F174+E174</f>
+        <v>4477</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C175" s="6">
-        <v>221</v>
-      </c>
-      <c r="D175" s="6">
-        <v>209</v>
+        <v>194</v>
+      </c>
+      <c r="C175" s="5">
+        <v>1738</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1944</v>
       </c>
       <c r="E175" s="6">
-        <v>348</v>
-      </c>
-      <c r="F175" s="6">
-        <v>82</v>
+        <v>953</v>
+      </c>
+      <c r="F175" s="5">
+        <v>2729</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="2"/>
-        <v>430</v>
+        <f>F175+E175</f>
+        <v>3682</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C176" s="6">
-        <v>92</v>
-      </c>
-      <c r="D176" s="6">
-        <v>85</v>
-      </c>
-      <c r="E176" s="6">
-        <v>139</v>
-      </c>
-      <c r="F176" s="6">
-        <v>38</v>
+        <v>186</v>
+      </c>
+      <c r="C176" s="5">
+        <v>2622</v>
+      </c>
+      <c r="D176" s="5">
+        <v>2759</v>
+      </c>
+      <c r="E176" s="5">
+        <v>2118</v>
+      </c>
+      <c r="F176" s="5">
+        <v>3263</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="2"/>
-        <v>177</v>
+        <f>F176+E176</f>
+        <v>5381</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C177" s="6">
-        <v>0</v>
-      </c>
-      <c r="D177" s="6">
-        <v>1</v>
-      </c>
-      <c r="E177" s="6">
-        <v>32</v>
-      </c>
-      <c r="F177" s="6">
-        <v>34</v>
+        <v>190</v>
+      </c>
+      <c r="C177" s="5">
+        <v>2201</v>
+      </c>
+      <c r="D177" s="5">
+        <v>2241</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1156</v>
+      </c>
+      <c r="F177" s="5">
+        <v>3286</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f>F177+E177</f>
+        <v>4442</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5459,359 +5576,359 @@
         <v>9</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C178" s="6">
-        <v>0</v>
-      </c>
-      <c r="D178" s="6">
-        <v>1</v>
-      </c>
-      <c r="E178" s="6">
-        <v>1</v>
-      </c>
-      <c r="F178" s="6">
-        <v>25</v>
+        <v>188</v>
+      </c>
+      <c r="C178" s="5">
+        <v>2518</v>
+      </c>
+      <c r="D178" s="5">
+        <v>2647</v>
+      </c>
+      <c r="E178" s="5">
+        <v>1827</v>
+      </c>
+      <c r="F178" s="5">
+        <v>3338</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>F178+E178</f>
+        <v>5165</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" s="4">
-        <v>0</v>
-      </c>
-      <c r="D179" s="4">
-        <v>1</v>
-      </c>
-      <c r="E179" s="4">
-        <v>1</v>
-      </c>
-      <c r="F179" s="4">
-        <v>6</v>
+        <v>181</v>
+      </c>
+      <c r="C179" s="5">
+        <v>4750</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5123</v>
+      </c>
+      <c r="E179" s="5">
+        <v>6171</v>
+      </c>
+      <c r="F179" s="5">
+        <v>3703</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>F179+E179</f>
+        <v>9874</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C180" s="4">
-        <v>0</v>
-      </c>
-      <c r="D180" s="4">
-        <v>1</v>
-      </c>
-      <c r="E180" s="4">
-        <v>53</v>
-      </c>
-      <c r="F180" s="4">
-        <v>60</v>
+        <v>187</v>
+      </c>
+      <c r="C180" s="5">
+        <v>2612</v>
+      </c>
+      <c r="D180" s="5">
+        <v>2671</v>
+      </c>
+      <c r="E180" s="6">
+        <v>759</v>
+      </c>
+      <c r="F180" s="5">
+        <v>4523</v>
       </c>
       <c r="G180" s="7">
-        <f t="shared" si="2"/>
-        <v>113</v>
+        <f>F180+E180</f>
+        <v>5282</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C181" s="4">
-        <v>0</v>
-      </c>
-      <c r="D181" s="4">
-        <v>1</v>
-      </c>
-      <c r="E181" s="4">
-        <v>2</v>
-      </c>
-      <c r="F181" s="4">
-        <v>4</v>
+        <v>185</v>
+      </c>
+      <c r="C181" s="5">
+        <v>3631</v>
+      </c>
+      <c r="D181" s="5">
+        <v>3714</v>
+      </c>
+      <c r="E181" s="5">
+        <v>2772</v>
+      </c>
+      <c r="F181" s="5">
+        <v>4573</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>F181+E181</f>
+        <v>7345</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C182" s="4">
-        <v>0</v>
-      </c>
-      <c r="D182" s="4">
-        <v>1</v>
-      </c>
-      <c r="E182" s="4">
-        <v>95</v>
-      </c>
-      <c r="F182" s="4">
-        <v>57</v>
+        <v>184</v>
+      </c>
+      <c r="C182" s="5">
+        <v>4029</v>
+      </c>
+      <c r="D182" s="5">
+        <v>4148</v>
+      </c>
+      <c r="E182" s="5">
+        <v>2895</v>
+      </c>
+      <c r="F182" s="5">
+        <v>5281</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <f>F182+E182</f>
+        <v>8176</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C183" s="4">
-        <v>0</v>
-      </c>
-      <c r="D183" s="4">
-        <v>1</v>
-      </c>
-      <c r="E183" s="4">
-        <v>78</v>
-      </c>
-      <c r="F183" s="4">
-        <v>66</v>
+        <v>183</v>
+      </c>
+      <c r="C183" s="5">
+        <v>4031</v>
+      </c>
+      <c r="D183" s="5">
+        <v>4249</v>
+      </c>
+      <c r="E183" s="5">
+        <v>2508</v>
+      </c>
+      <c r="F183" s="5">
+        <v>5771</v>
       </c>
       <c r="G183" s="7">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <f>F183+E183</f>
+        <v>8279</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C184" s="3">
-        <v>4608</v>
-      </c>
-      <c r="D184" s="3">
-        <v>4632</v>
-      </c>
-      <c r="E184" s="3">
-        <v>4960</v>
-      </c>
-      <c r="F184" s="3">
-        <v>4279</v>
+        <v>174</v>
+      </c>
+      <c r="C184" s="5">
+        <v>5286</v>
+      </c>
+      <c r="D184" s="5">
+        <v>5351</v>
+      </c>
+      <c r="E184" s="5">
+        <v>4341</v>
+      </c>
+      <c r="F184" s="5">
+        <v>6296</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="2"/>
-        <v>9239</v>
+        <f>F184+E184</f>
+        <v>10637</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C185" s="4">
-        <v>0</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1</v>
-      </c>
-      <c r="E185" s="4">
-        <v>32</v>
-      </c>
-      <c r="F185" s="4">
-        <v>44</v>
+        <v>175</v>
+      </c>
+      <c r="C185" s="5">
+        <v>5230</v>
+      </c>
+      <c r="D185" s="5">
+        <v>5396</v>
+      </c>
+      <c r="E185" s="5">
+        <v>4259</v>
+      </c>
+      <c r="F185" s="5">
+        <v>6367</v>
       </c>
       <c r="G185" s="7">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f>F185+E185</f>
+        <v>10626</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C186" s="3">
-        <v>2315</v>
-      </c>
-      <c r="D186" s="3">
-        <v>2402</v>
-      </c>
-      <c r="E186" s="3">
-        <v>3022</v>
-      </c>
-      <c r="F186" s="3">
-        <v>1695</v>
+        <v>180</v>
+      </c>
+      <c r="C186" s="5">
+        <v>4816</v>
+      </c>
+      <c r="D186" s="5">
+        <v>5259</v>
+      </c>
+      <c r="E186" s="5">
+        <v>3379</v>
+      </c>
+      <c r="F186" s="5">
+        <v>6696</v>
       </c>
       <c r="G186" s="7">
-        <f t="shared" si="2"/>
-        <v>4717</v>
+        <f>F186+E186</f>
+        <v>10075</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1774</v>
-      </c>
-      <c r="D187" s="3">
-        <v>1748</v>
-      </c>
-      <c r="E187" s="4">
-        <v>0</v>
-      </c>
-      <c r="F187" s="3">
-        <v>3522</v>
+        <v>178</v>
+      </c>
+      <c r="C187" s="5">
+        <v>4997</v>
+      </c>
+      <c r="D187" s="5">
+        <v>5266</v>
+      </c>
+      <c r="E187" s="5">
+        <v>3480</v>
+      </c>
+      <c r="F187" s="5">
+        <v>6782</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" si="2"/>
-        <v>3522</v>
+        <f>F187+E187</f>
+        <v>10262</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C188" s="3">
-        <v>7943</v>
-      </c>
-      <c r="D188" s="3">
-        <v>7782</v>
-      </c>
-      <c r="E188" s="3">
-        <v>7231</v>
-      </c>
-      <c r="F188" s="3">
-        <v>8494</v>
+        <v>182</v>
+      </c>
+      <c r="C188" s="5">
+        <v>4408</v>
+      </c>
+      <c r="D188" s="5">
+        <v>4484</v>
+      </c>
+      <c r="E188" s="5">
+        <v>1487</v>
+      </c>
+      <c r="F188" s="5">
+        <v>7405</v>
       </c>
       <c r="G188" s="7">
-        <f t="shared" si="2"/>
-        <v>15725</v>
+        <f>F188+E188</f>
+        <v>8892</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C189" s="3">
-        <v>4801</v>
-      </c>
-      <c r="D189" s="3">
-        <v>4871</v>
-      </c>
-      <c r="E189" s="3">
-        <v>7050</v>
-      </c>
-      <c r="F189" s="3">
-        <v>2622</v>
+        <v>177</v>
+      </c>
+      <c r="C189" s="5">
+        <v>4826</v>
+      </c>
+      <c r="D189" s="5">
+        <v>5449</v>
+      </c>
+      <c r="E189" s="5">
+        <v>2698</v>
+      </c>
+      <c r="F189" s="5">
+        <v>7576</v>
       </c>
       <c r="G189" s="7">
-        <f t="shared" si="2"/>
-        <v>9672</v>
+        <f>F189+E189</f>
+        <v>10274</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C190" s="3">
-        <v>9227</v>
-      </c>
-      <c r="D190" s="3">
-        <v>9412</v>
-      </c>
-      <c r="E190" s="3">
-        <v>14305</v>
-      </c>
-      <c r="F190" s="3">
-        <v>4334</v>
+        <v>179</v>
+      </c>
+      <c r="C190" s="5">
+        <v>4972</v>
+      </c>
+      <c r="D190" s="5">
+        <v>5180</v>
+      </c>
+      <c r="E190" s="6">
+        <v>276</v>
+      </c>
+      <c r="F190" s="5">
+        <v>9876</v>
       </c>
       <c r="G190" s="7">
-        <f t="shared" si="2"/>
-        <v>18639</v>
+        <f>F190+E190</f>
+        <v>10152</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="3">
-        <v>19597</v>
-      </c>
-      <c r="D191" s="3">
-        <v>20303</v>
-      </c>
-      <c r="E191" s="3">
-        <v>19892</v>
-      </c>
-      <c r="F191" s="3">
-        <v>20008</v>
+        <v>176</v>
+      </c>
+      <c r="C191" s="5">
+        <v>5181</v>
+      </c>
+      <c r="D191" s="5">
+        <v>5398</v>
+      </c>
+      <c r="E191" s="6">
+        <v>317</v>
+      </c>
+      <c r="F191" s="5">
+        <v>10262</v>
       </c>
       <c r="G191" s="7">
-        <f t="shared" si="2"/>
-        <v>39900</v>
+        <f>F191+E191</f>
+        <v>10579</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="3">
-        <v>14480</v>
-      </c>
-      <c r="D192" s="3">
-        <v>14402</v>
-      </c>
-      <c r="E192" s="3">
-        <v>18742</v>
-      </c>
-      <c r="F192" s="3">
-        <v>10141</v>
+        <v>172</v>
+      </c>
+      <c r="C192" s="5">
+        <v>11002</v>
+      </c>
+      <c r="D192" s="5">
+        <v>11400</v>
+      </c>
+      <c r="E192" s="5">
+        <v>9469</v>
+      </c>
+      <c r="F192" s="5">
+        <v>12933</v>
       </c>
       <c r="G192" s="7">
-        <f t="shared" si="2"/>
-        <v>28883</v>
+        <f>F192+E192</f>
+        <v>22402</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5819,23 +5936,23 @@
         <v>9</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C193" s="5">
-        <v>4408</v>
+        <v>7790</v>
       </c>
       <c r="D193" s="5">
-        <v>4484</v>
+        <v>7945</v>
       </c>
       <c r="E193" s="5">
-        <v>1487</v>
+        <v>1687</v>
       </c>
       <c r="F193" s="5">
-        <v>7405</v>
+        <v>14048</v>
       </c>
       <c r="G193" s="7">
-        <f t="shared" si="2"/>
-        <v>8892</v>
+        <f>F193+E193</f>
+        <v>15735</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5843,191 +5960,191 @@
         <v>9</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C194" s="5">
-        <v>3631</v>
+        <v>18832</v>
       </c>
       <c r="D194" s="5">
-        <v>3714</v>
+        <v>19909</v>
       </c>
       <c r="E194" s="5">
-        <v>2772</v>
+        <v>13492</v>
       </c>
       <c r="F194" s="5">
-        <v>4573</v>
+        <v>25248</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" si="2"/>
-        <v>7345</v>
+        <f>F194+E194</f>
+        <v>38740</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C195" s="4">
-        <v>206</v>
-      </c>
-      <c r="D195" s="4">
-        <v>210</v>
-      </c>
-      <c r="E195" s="4">
-        <v>201</v>
-      </c>
-      <c r="F195" s="4">
-        <v>214</v>
+        <v>170</v>
+      </c>
+      <c r="C195" s="5">
+        <v>19383</v>
+      </c>
+      <c r="D195" s="5">
+        <v>20250</v>
+      </c>
+      <c r="E195" s="5">
+        <v>8962</v>
+      </c>
+      <c r="F195" s="5">
+        <v>30672</v>
       </c>
       <c r="G195" s="7">
-        <f t="shared" ref="G195:G224" si="3">F195+E195</f>
-        <v>415</v>
+        <f>F195+E195</f>
+        <v>39634</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C196" s="4">
-        <v>472</v>
-      </c>
-      <c r="D196" s="4">
-        <v>508</v>
-      </c>
-      <c r="E196" s="4">
-        <v>640</v>
-      </c>
-      <c r="F196" s="4">
-        <v>340</v>
+        <v>169</v>
+      </c>
+      <c r="C196" s="5">
+        <v>23583</v>
+      </c>
+      <c r="D196" s="5">
+        <v>27075</v>
+      </c>
+      <c r="E196" s="5">
+        <v>14166</v>
+      </c>
+      <c r="F196" s="5">
+        <v>36492</v>
       </c>
       <c r="G196" s="7">
-        <f t="shared" si="3"/>
-        <v>980</v>
+        <f>F196+E196</f>
+        <v>50658</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C197" s="3">
-        <v>30374</v>
-      </c>
-      <c r="D197" s="3">
-        <v>30482</v>
-      </c>
-      <c r="E197" s="3">
-        <v>47926</v>
-      </c>
-      <c r="F197" s="3">
-        <v>12930</v>
+        <v>168</v>
+      </c>
+      <c r="C197" s="5">
+        <v>27830</v>
+      </c>
+      <c r="D197" s="5">
+        <v>29513</v>
+      </c>
+      <c r="E197" s="5">
+        <v>18969</v>
+      </c>
+      <c r="F197" s="5">
+        <v>38374</v>
       </c>
       <c r="G197" s="7">
-        <f t="shared" si="3"/>
-        <v>60856</v>
+        <f>F197+E197</f>
+        <v>57343</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" s="3">
-        <v>16251</v>
-      </c>
-      <c r="D198" s="3">
-        <v>16541</v>
-      </c>
-      <c r="E198" s="3">
-        <v>23914</v>
-      </c>
-      <c r="F198" s="3">
-        <v>8878</v>
+        <v>167</v>
+      </c>
+      <c r="C198" s="5">
+        <v>28705</v>
+      </c>
+      <c r="D198" s="5">
+        <v>30181</v>
+      </c>
+      <c r="E198" s="5">
+        <v>14495</v>
+      </c>
+      <c r="F198" s="5">
+        <v>44391</v>
       </c>
       <c r="G198" s="7">
-        <f t="shared" si="3"/>
-        <v>32792</v>
+        <f>F198+E198</f>
+        <v>58886</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C199" s="3">
-        <v>3040</v>
-      </c>
-      <c r="D199" s="3">
-        <v>3064</v>
-      </c>
-      <c r="E199" s="3">
-        <v>4107</v>
-      </c>
-      <c r="F199" s="3">
-        <v>1997</v>
+        <v>166</v>
+      </c>
+      <c r="C199" s="5">
+        <v>28947</v>
+      </c>
+      <c r="D199" s="5">
+        <v>30027</v>
+      </c>
+      <c r="E199" s="5">
+        <v>6335</v>
+      </c>
+      <c r="F199" s="5">
+        <v>52639</v>
       </c>
       <c r="G199" s="7">
-        <f t="shared" si="3"/>
-        <v>6104</v>
+        <f>F199+E199</f>
+        <v>58974</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C200" s="4">
-        <v>448</v>
-      </c>
-      <c r="D200" s="4">
-        <v>423</v>
-      </c>
-      <c r="E200" s="4">
-        <v>806</v>
-      </c>
-      <c r="F200" s="4">
-        <v>65</v>
+        <v>165</v>
+      </c>
+      <c r="C200" s="5">
+        <v>40197</v>
+      </c>
+      <c r="D200" s="5">
+        <v>41980</v>
+      </c>
+      <c r="E200" s="5">
+        <v>10411</v>
+      </c>
+      <c r="F200" s="5">
+        <v>71767</v>
       </c>
       <c r="G200" s="7">
-        <f t="shared" si="3"/>
-        <v>871</v>
+        <f>F200+E200</f>
+        <v>82178</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C201" s="3">
-        <v>2237</v>
-      </c>
-      <c r="D201" s="3">
-        <v>2275</v>
-      </c>
-      <c r="E201" s="3">
-        <v>3035</v>
-      </c>
-      <c r="F201" s="3">
-        <v>1478</v>
+        <v>164</v>
+      </c>
+      <c r="C201" s="5">
+        <v>68827</v>
+      </c>
+      <c r="D201" s="5">
+        <v>78368</v>
+      </c>
+      <c r="E201" s="5">
+        <v>33375</v>
+      </c>
+      <c r="F201" s="5">
+        <v>113821</v>
       </c>
       <c r="G201" s="7">
-        <f t="shared" si="3"/>
-        <v>4513</v>
+        <f>F201+E201</f>
+        <v>147196</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,23 +6152,23 @@
         <v>10</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C202" s="6">
-        <v>0</v>
-      </c>
-      <c r="D202" s="6">
-        <v>1</v>
-      </c>
-      <c r="E202" s="6">
-        <v>1</v>
-      </c>
-      <c r="F202" s="6">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="C202" s="5">
+        <v>9288</v>
+      </c>
+      <c r="D202" s="5">
+        <v>9413</v>
+      </c>
+      <c r="E202" s="5">
+        <v>2863</v>
+      </c>
+      <c r="F202" s="5">
+        <v>15838</v>
       </c>
       <c r="G202" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>F202+E202</f>
+        <v>18701</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6059,7 +6176,7 @@
         <v>10</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C203" s="6">
         <v>0</v>
@@ -6068,134 +6185,134 @@
         <v>1</v>
       </c>
       <c r="E203" s="6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F203" s="6">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G203" s="7">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <f>F203+E203</f>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C204" s="4">
-        <v>641</v>
-      </c>
-      <c r="D204" s="4">
-        <v>647</v>
-      </c>
-      <c r="E204" s="4">
-        <v>341</v>
-      </c>
-      <c r="F204" s="4">
-        <v>948</v>
+        <v>212</v>
+      </c>
+      <c r="C204" s="6">
+        <v>410</v>
+      </c>
+      <c r="D204" s="6">
+        <v>396</v>
+      </c>
+      <c r="E204" s="6">
+        <v>468</v>
+      </c>
+      <c r="F204" s="6">
+        <v>338</v>
       </c>
       <c r="G204" s="7">
-        <f t="shared" si="3"/>
-        <v>1289</v>
+        <f>F204+E204</f>
+        <v>806</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C205" s="3">
-        <v>4778</v>
-      </c>
-      <c r="D205" s="3">
-        <v>4682</v>
-      </c>
-      <c r="E205" s="3">
-        <v>3331</v>
-      </c>
-      <c r="F205" s="3">
-        <v>6129</v>
+        <v>218</v>
+      </c>
+      <c r="C205" s="6">
+        <v>87</v>
+      </c>
+      <c r="D205" s="6">
+        <v>78</v>
+      </c>
+      <c r="E205" s="6">
+        <v>100</v>
+      </c>
+      <c r="F205" s="6">
+        <v>65</v>
       </c>
       <c r="G205" s="7">
-        <f t="shared" si="3"/>
-        <v>9460</v>
+        <f>F205+E205</f>
+        <v>165</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C206" s="4">
+        <v>221</v>
+      </c>
+      <c r="C206" s="6">
         <v>0</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="6">
         <v>1</v>
       </c>
-      <c r="E206" s="4">
-        <v>9</v>
-      </c>
-      <c r="F206" s="4">
-        <v>7</v>
+      <c r="E206" s="6">
+        <v>52</v>
+      </c>
+      <c r="F206" s="6">
+        <v>30</v>
       </c>
       <c r="G206" s="7">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f>F206+E206</f>
+        <v>82</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C207" s="3">
-        <v>2169</v>
-      </c>
-      <c r="D207" s="3">
-        <v>2215</v>
-      </c>
-      <c r="E207" s="3">
-        <v>2395</v>
-      </c>
-      <c r="F207" s="3">
-        <v>1989</v>
+        <v>222</v>
+      </c>
+      <c r="C207" s="6">
+        <v>0</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1</v>
+      </c>
+      <c r="E207" s="6">
+        <v>34</v>
+      </c>
+      <c r="F207" s="6">
+        <v>40</v>
       </c>
       <c r="G207" s="7">
-        <f t="shared" si="3"/>
-        <v>4384</v>
+        <f>F207+E207</f>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C208" s="3">
-        <v>33110</v>
-      </c>
-      <c r="D208" s="3">
-        <v>32436</v>
-      </c>
-      <c r="E208" s="3">
-        <v>16994</v>
-      </c>
-      <c r="F208" s="3">
-        <v>48552</v>
+        <v>224</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0</v>
+      </c>
+      <c r="D208" s="6">
+        <v>1</v>
+      </c>
+      <c r="E208" s="6">
+        <v>18</v>
+      </c>
+      <c r="F208" s="6">
+        <v>45</v>
       </c>
       <c r="G208" s="7">
-        <f t="shared" si="3"/>
-        <v>65546</v>
+        <f>F208+E208</f>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C209" s="6">
         <v>0</v>
@@ -6212,110 +6329,110 @@
         <v>1</v>
       </c>
       <c r="E209" s="6">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="F209" s="6">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G209" s="7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>F209+E209</f>
+        <v>116</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C210" s="5">
-        <v>23583</v>
-      </c>
-      <c r="D210" s="5">
-        <v>27075</v>
-      </c>
-      <c r="E210" s="5">
-        <v>14166</v>
-      </c>
-      <c r="F210" s="5">
-        <v>36492</v>
+        <v>228</v>
+      </c>
+      <c r="C210" s="6">
+        <v>0</v>
+      </c>
+      <c r="D210" s="6">
+        <v>1</v>
+      </c>
+      <c r="E210" s="6">
+        <v>0</v>
+      </c>
+      <c r="F210" s="6">
+        <v>11</v>
       </c>
       <c r="G210" s="7">
-        <f t="shared" si="3"/>
-        <v>50658</v>
+        <f>F210+E210</f>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C211" s="3">
-        <v>10523</v>
-      </c>
-      <c r="D211" s="3">
-        <v>10620</v>
-      </c>
-      <c r="E211" s="3">
-        <v>18221</v>
-      </c>
-      <c r="F211" s="3">
-        <v>2922</v>
+        <v>230</v>
+      </c>
+      <c r="C211" s="6">
+        <v>0</v>
+      </c>
+      <c r="D211" s="6">
+        <v>1</v>
+      </c>
+      <c r="E211" s="6">
+        <v>1</v>
+      </c>
+      <c r="F211" s="6">
+        <v>1</v>
       </c>
       <c r="G211" s="7">
-        <f t="shared" si="3"/>
-        <v>21143</v>
+        <f>F211+E211</f>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C212" s="3">
-        <v>1607</v>
-      </c>
-      <c r="D212" s="3">
-        <v>1706</v>
-      </c>
-      <c r="E212" s="4">
-        <v>294</v>
-      </c>
-      <c r="F212" s="3">
-        <v>3019</v>
+        <v>215</v>
+      </c>
+      <c r="C212" s="6">
+        <v>108</v>
+      </c>
+      <c r="D212" s="6">
+        <v>103</v>
+      </c>
+      <c r="E212" s="6">
+        <v>76</v>
+      </c>
+      <c r="F212" s="6">
+        <v>134</v>
       </c>
       <c r="G212" s="7">
-        <f t="shared" si="3"/>
-        <v>3313</v>
+        <f>F212+E212</f>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C213" s="3">
-        <v>11887</v>
-      </c>
-      <c r="D213" s="3">
-        <v>12054</v>
-      </c>
-      <c r="E213" s="3">
-        <v>13853</v>
-      </c>
-      <c r="F213" s="3">
-        <v>10089</v>
+        <v>211</v>
+      </c>
+      <c r="C213" s="5">
+        <v>1886</v>
+      </c>
+      <c r="D213" s="5">
+        <v>1942</v>
+      </c>
+      <c r="E213" s="6">
+        <v>509</v>
+      </c>
+      <c r="F213" s="5">
+        <v>3320</v>
       </c>
       <c r="G213" s="7">
-        <f t="shared" si="3"/>
-        <v>23942</v>
+        <f>F213+E213</f>
+        <v>3829</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6323,119 +6440,119 @@
         <v>10</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C214" s="6">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D214" s="6">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E214" s="6">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="F214" s="6">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G214" s="7">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f>F214+E214</f>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C215" s="3">
-        <v>11930</v>
-      </c>
-      <c r="D215" s="3">
-        <v>11776</v>
-      </c>
-      <c r="E215" s="3">
-        <v>3071</v>
-      </c>
-      <c r="F215" s="3">
-        <v>20636</v>
+        <v>210</v>
+      </c>
+      <c r="C215" s="5">
+        <v>2423</v>
+      </c>
+      <c r="D215" s="5">
+        <v>2279</v>
+      </c>
+      <c r="E215" s="5">
+        <v>3897</v>
+      </c>
+      <c r="F215" s="6">
+        <v>806</v>
       </c>
       <c r="G215" s="7">
-        <f t="shared" si="3"/>
-        <v>23707</v>
+        <f>F215+E215</f>
+        <v>4703</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C216" s="3">
-        <v>38847</v>
-      </c>
-      <c r="D216" s="3">
-        <v>39858</v>
-      </c>
-      <c r="E216" s="3">
-        <v>63223</v>
-      </c>
-      <c r="F216" s="3">
-        <v>15482</v>
+        <v>214</v>
+      </c>
+      <c r="C216" s="6">
+        <v>119</v>
+      </c>
+      <c r="D216" s="6">
+        <v>112</v>
+      </c>
+      <c r="E216" s="6">
+        <v>100</v>
+      </c>
+      <c r="F216" s="6">
+        <v>132</v>
       </c>
       <c r="G216" s="7">
-        <f t="shared" si="3"/>
-        <v>78705</v>
+        <f>F216+E216</f>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C217" s="4">
-        <v>0</v>
-      </c>
-      <c r="D217" s="4">
-        <v>1</v>
-      </c>
-      <c r="E217" s="4">
-        <v>8</v>
-      </c>
-      <c r="F217" s="4">
-        <v>12</v>
+        <v>213</v>
+      </c>
+      <c r="C217" s="6">
+        <v>221</v>
+      </c>
+      <c r="D217" s="6">
+        <v>209</v>
+      </c>
+      <c r="E217" s="6">
+        <v>348</v>
+      </c>
+      <c r="F217" s="6">
+        <v>82</v>
       </c>
       <c r="G217" s="7">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>F217+E217</f>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C218" s="4">
-        <v>0</v>
-      </c>
-      <c r="D218" s="4">
-        <v>1</v>
-      </c>
-      <c r="E218" s="4">
-        <v>51</v>
-      </c>
-      <c r="F218" s="4">
-        <v>43</v>
+        <v>217</v>
+      </c>
+      <c r="C218" s="6">
+        <v>92</v>
+      </c>
+      <c r="D218" s="6">
+        <v>85</v>
+      </c>
+      <c r="E218" s="6">
+        <v>139</v>
+      </c>
+      <c r="F218" s="6">
+        <v>38</v>
       </c>
       <c r="G218" s="7">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f>F218+E218</f>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6443,7 +6560,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C219" s="6">
         <v>0</v>
@@ -6452,149 +6569,239 @@
         <v>1</v>
       </c>
       <c r="E219" s="6">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F219" s="6">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G219" s="7">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>F219+E219</f>
+        <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C220" s="3">
-        <v>8809</v>
-      </c>
-      <c r="D220" s="3">
-        <v>8679</v>
-      </c>
-      <c r="E220" s="3">
-        <v>11007</v>
-      </c>
-      <c r="F220" s="3">
-        <v>6481</v>
+        <v>231</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0</v>
+      </c>
+      <c r="D220" s="6">
+        <v>1</v>
+      </c>
+      <c r="E220" s="6">
+        <v>1</v>
+      </c>
+      <c r="F220" s="6">
+        <v>0</v>
       </c>
       <c r="G220" s="7">
-        <f t="shared" si="3"/>
-        <v>17488</v>
+        <f>F220+E220</f>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C221" s="5">
-        <v>5286</v>
-      </c>
-      <c r="D221" s="5">
-        <v>5351</v>
-      </c>
-      <c r="E221" s="5">
-        <v>4341</v>
-      </c>
-      <c r="F221" s="5">
-        <v>6296</v>
+        <v>220</v>
+      </c>
+      <c r="C221" s="6">
+        <v>0</v>
+      </c>
+      <c r="D221" s="6">
+        <v>1</v>
+      </c>
+      <c r="E221" s="6">
+        <v>54</v>
+      </c>
+      <c r="F221" s="6">
+        <v>44</v>
       </c>
       <c r="G221" s="7">
-        <f t="shared" si="3"/>
-        <v>10637</v>
+        <f>F221+E221</f>
+        <v>98</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C222" s="6">
+        <v>0</v>
+      </c>
+      <c r="D222" s="6">
+        <v>1</v>
+      </c>
+      <c r="E222" s="6">
         <v>6</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C222" s="3">
-        <v>4439</v>
-      </c>
-      <c r="D222" s="3">
-        <v>4537</v>
-      </c>
-      <c r="E222" s="3">
-        <v>5006</v>
-      </c>
-      <c r="F222" s="3">
-        <v>3970</v>
+      <c r="F222" s="6">
+        <v>5</v>
       </c>
       <c r="G222" s="7">
-        <f t="shared" si="3"/>
-        <v>8976</v>
+        <f>F222+E222</f>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C223" s="3">
-        <v>5723</v>
-      </c>
-      <c r="D223" s="3">
-        <v>5806</v>
-      </c>
-      <c r="E223" s="3">
-        <v>7543</v>
-      </c>
-      <c r="F223" s="3">
-        <v>3986</v>
+        <v>216</v>
+      </c>
+      <c r="C223" s="6">
+        <v>93</v>
+      </c>
+      <c r="D223" s="6">
+        <v>93</v>
+      </c>
+      <c r="E223" s="6">
+        <v>149</v>
+      </c>
+      <c r="F223" s="6">
+        <v>36</v>
       </c>
       <c r="G223" s="7">
-        <f t="shared" si="3"/>
-        <v>11529</v>
+        <f>F223+E223</f>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C224" s="4">
-        <v>544</v>
-      </c>
-      <c r="D224" s="4">
-        <v>533</v>
-      </c>
-      <c r="E224" s="4">
-        <v>59</v>
-      </c>
-      <c r="F224" s="3">
-        <v>1018</v>
+        <v>227</v>
+      </c>
+      <c r="C224" s="6">
+        <v>0</v>
+      </c>
+      <c r="D224" s="6">
+        <v>1</v>
+      </c>
+      <c r="E224" s="6">
+        <v>14</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0</v>
       </c>
       <c r="G224" s="7">
-        <f t="shared" si="3"/>
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+        <f>F224+E224</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B226" s="10"/>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B226">
+      <c r="B227" s="9">
         <f>COUNT(Poblacion[Hombres])</f>
         <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B228" s="9">
+        <f>SUM(Poblacion[Hombres])</f>
+        <v>3014881</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" s="9">
+        <f>B228/B227</f>
+        <v>13519.645739910315</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" s="9">
+        <f>AVERAGE(Poblacion[Hombres])</f>
+        <v>13519.645739910315</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231" s="9">
+        <f>TRIMMEAN(Poblacion[Hombres], 0.2)</f>
+        <v>4355.1340782122907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232" s="9">
+        <f>GEOMEAN(Poblacion[Total])</f>
+        <v>2536.2699728417242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" s="9">
+        <f>HARMEAN(Poblacion[Total])</f>
+        <v>63.023467423566082</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B234" s="9">
+        <f>MEDIAN(Poblacion[Total])</f>
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B235" s="9">
+        <f>MODE(Poblacion[Total])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B236" s="9">
+        <f>QUARTILE(Poblacion[Total],3)</f>
+        <v>15610.5</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F224">
     <sortCondition ref="B17"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A226:B226"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/04/PoblacionMundial.xlsx
+++ b/04/PoblacionMundial.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="252">
   <si>
     <t>Continente</t>
   </si>
@@ -811,6 +811,24 @@
   </si>
   <si>
     <t>3er cuartil</t>
+  </si>
+  <si>
+    <t>Medidas de dispersión</t>
+  </si>
+  <si>
+    <t>Recorrido</t>
+  </si>
+  <si>
+    <t>Recorrido intercuartílico</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Desviación</t>
+  </si>
+  <si>
+    <t>Coef. Var. Pearson</t>
   </si>
 </sst>
 </file>
@@ -1313,14 +1331,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6699,13 +6719,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
         <v>241</v>
       </c>
       <c r="B226" s="10"/>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>235</v>
       </c>
@@ -6713,8 +6738,15 @@
         <f>COUNT(Poblacion[Hombres])</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D227" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F227" s="9">
+        <f>MAX(Poblacion[Mujeres])-MIN(Poblacion[Mujeres])</f>
+        <v>618474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>236</v>
       </c>
@@ -6722,8 +6754,15 @@
         <f>SUM(Poblacion[Hombres])</f>
         <v>3014881</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D228" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F228" s="9">
+        <f>QUARTILE(Poblacion[Mujeres],3)-QUARTILE(Poblacion[Mujeres],1)</f>
+        <v>7583.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>237</v>
       </c>
@@ -6731,8 +6770,15 @@
         <f>B228/B227</f>
         <v>13519.645739910315</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D229" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F229" s="9">
+        <f>_xlfn.VAR.P(Poblacion[Mujeres])</f>
+        <v>2961608666.7171268</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>238</v>
       </c>
@@ -6740,8 +6786,15 @@
         <f>AVERAGE(Poblacion[Hombres])</f>
         <v>13519.645739910315</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D230" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F230" s="9">
+        <f>_xlfn.STDEV.P(Poblacion[Mujeres])</f>
+        <v>54420.663967992223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>239</v>
       </c>
@@ -6749,8 +6802,15 @@
         <f>TRIMMEAN(Poblacion[Hombres], 0.2)</f>
         <v>4355.1340782122907</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D231" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F231" s="9">
+        <f>STDEVP(Poblacion[Mujeres])/AVERAGE(Poblacion[Mujeres])</f>
+        <v>4.0834276249668617</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>240</v>
       </c>
@@ -6759,7 +6819,7 @@
         <v>2536.2699728417242</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>242</v>
       </c>
@@ -6768,7 +6828,7 @@
         <v>63.023467423566082</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>243</v>
       </c>
@@ -6777,7 +6837,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>244</v>
       </c>
@@ -6786,7 +6846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>245</v>
       </c>
@@ -6799,8 +6859,9 @@
   <sortState ref="A2:F224">
     <sortCondition ref="B17"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A226:B226"/>
+    <mergeCell ref="D226:F226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04/PoblacionMundial.xlsx
+++ b/04/PoblacionMundial.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="257">
   <si>
     <t>Continente</t>
   </si>
@@ -829,14 +829,30 @@
   </si>
   <si>
     <t>Coef. Var. Pearson</t>
+  </si>
+  <si>
+    <t>Medidas de forma</t>
+  </si>
+  <si>
+    <t>Coef. Asim. Pearson</t>
+  </si>
+  <si>
+    <t>Coef. Bowley</t>
+  </si>
+  <si>
+    <t>Coef. Fisher</t>
+  </si>
+  <si>
+    <t>Curtosis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -912,7 +928,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,6 +954,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
@@ -1329,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="F231" sqref="F231"/>
+    <sheetView tabSelected="1" topLeftCell="C224" workbookViewId="0">
+      <selection activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,6 +1359,7 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6719,7 +6737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
         <v>241</v>
       </c>
@@ -6729,8 +6747,13 @@
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H226" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>235</v>
       </c>
@@ -6745,8 +6768,15 @@
         <f>MAX(Poblacion[Mujeres])-MIN(Poblacion[Mujeres])</f>
         <v>618474</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H227" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="J227" s="11">
+        <f>(AVERAGE(Poblacion[Total])-MODE(Poblacion[Total]))/_xlfn.STDEV.P(Poblacion[Total])</f>
+        <v>0.23998237365523298</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>236</v>
       </c>
@@ -6761,8 +6791,15 @@
         <f>QUARTILE(Poblacion[Mujeres],3)-QUARTILE(Poblacion[Mujeres],1)</f>
         <v>7583.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H228" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J228" s="11">
+        <f>(QUARTILE(Poblacion[Total],3)+QUARTILE(Poblacion[Total],1)-2*MEDIAN(Poblacion[Total]))/(QUARTILE(Poblacion[Total],3)-QUARTILE(Poblacion[Total],1))</f>
+        <v>0.46130295947591926</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>237</v>
       </c>
@@ -6777,8 +6814,15 @@
         <f>_xlfn.VAR.P(Poblacion[Mujeres])</f>
         <v>2961608666.7171268</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H229" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J229" s="11">
+        <f>SKEW(Poblacion[Total])</f>
+        <v>9.308138992992891</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>238</v>
       </c>
@@ -6793,8 +6837,15 @@
         <f>_xlfn.STDEV.P(Poblacion[Mujeres])</f>
         <v>54420.663967992223</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H230" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J230" s="11">
+        <f>KURT(Poblacion[Total])</f>
+        <v>94.087876378324253</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>239</v>
       </c>
@@ -6810,7 +6861,7 @@
         <v>4.0834276249668617</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>240</v>
       </c>
@@ -6819,7 +6870,7 @@
         <v>2536.2699728417242</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>242</v>
       </c>
@@ -6828,7 +6879,7 @@
         <v>63.023467423566082</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>243</v>
       </c>
@@ -6837,7 +6888,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>244</v>
       </c>
@@ -6846,7 +6897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>245</v>
       </c>
@@ -6859,9 +6910,10 @@
   <sortState ref="A2:F224">
     <sortCondition ref="B17"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A226:B226"/>
     <mergeCell ref="D226:F226"/>
+    <mergeCell ref="H226:J226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04/PoblacionMundial.xlsx
+++ b/04/PoblacionMundial.xlsx
@@ -12,57 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="8955"/>
   </bookViews>
   <sheets>
-    <sheet name="PoblaciónMundial" sheetId="1" r:id="rId1"/>
+    <sheet name="Estadística descriptiva" sheetId="2" r:id="rId1"/>
+    <sheet name="PoblaciónMundial" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PoblaciónMundial!$A$157:$B$200</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PoblaciónMundial!$C$157:$C$200</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">PoblaciónMundial!$F$184:$F$200</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">PoblaciónMundial!$G$184:$G$200</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">PoblaciónMundial!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">PoblaciónMundial!$C$2:$C$201</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">PoblaciónMundial!$C$2:$C$222</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">PoblaciónMundial!$C$2:$C$224</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">PoblaciónMundial!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">PoblaciónMundial!$D$2:$D$201</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">PoblaciónMundial!$D$2:$D$222</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">PoblaciónMundial!$D$2:$D$224</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PoblaciónMundial!$D$157:$D$200</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">PoblaciónMundial!$E$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">PoblaciónMundial!$E$2:$E$201</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">PoblaciónMundial!$E$2:$E$222</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">PoblaciónMundial!$E$2:$E$224</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">PoblaciónMundial!$F$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">PoblaciónMundial!$F$2:$F$201</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">PoblaciónMundial!$F$2:$F$222</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">PoblaciónMundial!$F$2:$F$224</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">PoblaciónMundial!$G$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">PoblaciónMundial!$G$2:$G$222</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PoblaciónMundial!$E$157:$E$200</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">PoblaciónMundial!$G$2:$G$224</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">PoblaciónMundial!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">PoblaciónMundial!$C$2:$C$224</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">PoblaciónMundial!$D$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">PoblaciónMundial!$D$2:$D$224</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">PoblaciónMundial!$E$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">PoblaciónMundial!$E$2:$E$224</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">PoblaciónMundial!$F$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">PoblaciónMundial!$F$2:$F$224</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">PoblaciónMundial!$G$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PoblaciónMundial!$F$157:$F$200</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">PoblaciónMundial!$G$2:$G$224</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">PoblaciónMundial!$C$184:$C$200</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">PoblaciónMundial!$C$1:$F$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">PoblaciónMundial!$D$184:$D$200</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">PoblaciónMundial!$E$184:$E$200</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">PoblaciónMundial!$F$184:$F$200</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">PoblaciónMundial!$G$184:$G$200</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PoblaciónMundial!$G$157:$G$200</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PoblaciónMundial!$C$184:$C$200</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PoblaciónMundial!$C$1:$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">PoblaciónMundial!$D$184:$D$200</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">PoblaciónMundial!$E$184:$E$200</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="270">
   <si>
     <t>Continente</t>
   </si>
@@ -844,6 +796,45 @@
   </si>
   <si>
     <t>Curtosis</t>
+  </si>
+  <si>
+    <t>% Femenino</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Error típico</t>
+  </si>
+  <si>
+    <t>Desviación estándar</t>
+  </si>
+  <si>
+    <t>Varianza de la muestra</t>
+  </si>
+  <si>
+    <t>Coeficiente de asimetría</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Mayor (1)</t>
+  </si>
+  <si>
+    <t>Menor(1)</t>
+  </si>
+  <si>
+    <t>Nivel de confianza(95,0%)</t>
   </si>
 </sst>
 </file>
@@ -854,7 +845,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,16 +887,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -922,13 +934,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,15 +1103,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -972,6 +1167,9 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1047,8 +1245,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1063,20 +1261,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Poblacion" displayName="Poblacion" ref="A1:G224" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:G224"/>
-  <sortState ref="A157:G201">
-    <sortCondition ref="F1:F224"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Poblacion" displayName="Poblacion" ref="A1:H224" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:H224"/>
+  <sortState ref="A157:H201">
+    <sortCondition ref="G1:G224"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" name="Continente"/>
-    <tableColumn id="2" name="País" dataDxfId="5"/>
-    <tableColumn id="3" name="Hombres" dataDxfId="4"/>
-    <tableColumn id="4" name="Mujeres" dataDxfId="3"/>
-    <tableColumn id="5" name="Rural" dataDxfId="2"/>
-    <tableColumn id="6" name="Urbana" dataDxfId="1"/>
-    <tableColumn id="7" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>F2+E2</calculatedColumnFormula>
+    <tableColumn id="2" name="País" dataDxfId="6"/>
+    <tableColumn id="3" name="Hombres" dataDxfId="5"/>
+    <tableColumn id="4" name="Mujeres" dataDxfId="2"/>
+    <tableColumn id="8" name="% Femenino" dataDxfId="0">
+      <calculatedColumnFormula>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Rural" dataDxfId="1"/>
+    <tableColumn id="6" name="Urbana" dataDxfId="4"/>
+    <tableColumn id="7" name="Total" dataDxfId="3">
+      <calculatedColumnFormula>G2+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1346,23 +1547,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C224" workbookViewId="0">
-      <selection activeCell="J230" sqref="J230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="17">
+        <v>13519.645739910315</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="17">
+        <v>13327.201793721973</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="18">
+        <v>58.840689868460927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3856.1152219817864</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3652.475815088565</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.2776763246106009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2237</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2283</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="18">
+        <v>50.552050473186121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="17">
+        <v>57584.080152065639</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="17">
+        <v>54543.095312761026</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="18">
+        <v>19.079776316165532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3315926286.9595199</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2974949246.2969337</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="20">
+        <v>364.03786427491116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="17">
+        <v>95.33835253048251</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="17">
+        <v>92.69981727428808</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.9281006036206163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="19">
+        <v>9.3929728260954928</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9.2144021388947674</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.6825885044405495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="17">
+        <v>655632</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="17">
+        <v>618474</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="18">
+        <v>65.36502546689303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="20">
+        <v>34.634974533106963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="17">
+        <v>655632</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="17">
+        <v>618475</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3014881</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2971966</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="20">
+        <v>13121.473840666788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="17">
+        <v>223</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="17">
+        <v>223</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="18">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="19">
+        <v>655632</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="19">
+        <v>618475</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="18">
+        <v>34.634974533106963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="21">
+        <v>7599.2747851670738</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="21">
+        <v>7197.961100023942</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.5179261817358998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K236"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,16 +1948,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1398,18 +1973,22 @@
       <c r="D2" s="3">
         <v>6310</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.56900144253887</v>
+      </c>
+      <c r="F2" s="3">
         <v>8295</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>4183</v>
       </c>
-      <c r="G2" s="7">
-        <f>F2+E2</f>
+      <c r="H2" s="7">
+        <f>G2+F2</f>
         <v>12478</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1422,18 +2001,22 @@
       <c r="D3" s="3">
         <v>15199</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.389094690322999</v>
+      </c>
+      <c r="F3" s="3">
         <v>12763</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>18011</v>
       </c>
-      <c r="G3" s="7">
-        <f>F3+E3</f>
+      <c r="H3" s="7">
+        <f>G3+F3</f>
         <v>30774</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1446,18 +2029,22 @@
       <c r="D4" s="3">
         <v>3011</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.715849755768907</v>
+      </c>
+      <c r="F4" s="3">
         <v>3475</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>2462</v>
       </c>
-      <c r="G4" s="7">
-        <f>F4+E4</f>
+      <c r="H4" s="7">
+        <f>G4+F4</f>
         <v>5937</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1470,18 +2057,22 @@
       <c r="D5" s="4">
         <v>813</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.907952410770193</v>
+      </c>
+      <c r="F5" s="4">
         <v>469</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1128</v>
       </c>
-      <c r="G5" s="7">
-        <f>F5+E5</f>
+      <c r="H5" s="7">
+        <f>G5+F5</f>
         <v>1597</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1494,18 +2085,22 @@
       <c r="D6" s="3">
         <v>5819</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.094696969696969</v>
+      </c>
+      <c r="F6" s="3">
         <v>9535</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2081</v>
       </c>
-      <c r="G6" s="7">
-        <f>F6+E6</f>
+      <c r="H6" s="7">
+        <f>G6+F6</f>
         <v>11616</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1518,18 +2113,22 @@
       <c r="D7" s="3">
         <v>3353</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.073876618431072</v>
+      </c>
+      <c r="F7" s="3">
         <v>5997</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>568</v>
       </c>
-      <c r="G7" s="7">
-        <f>F7+E7</f>
+      <c r="H7" s="7">
+        <f>G7+F7</f>
         <v>6565</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1542,18 +2141,22 @@
       <c r="D8" s="4">
         <v>223</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>53.349282296650721</v>
+      </c>
+      <c r="F8" s="4">
         <v>165</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>253</v>
       </c>
-      <c r="G8" s="7">
-        <f>F8+E8</f>
+      <c r="H8" s="7">
+        <f>G8+F8</f>
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1566,18 +2169,22 @@
       <c r="D9" s="3">
         <v>7390</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.299482711679829</v>
+      </c>
+      <c r="F9" s="3">
         <v>7633</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7060</v>
       </c>
-      <c r="G9" s="7">
-        <f>F9+E9</f>
+      <c r="H9" s="7">
+        <f>G9+F9</f>
         <v>14693</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1590,18 +2197,22 @@
       <c r="D10" s="3">
         <v>1824</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.394759087066781</v>
+      </c>
+      <c r="F10" s="3">
         <v>2103</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1447</v>
       </c>
-      <c r="G10" s="7">
-        <f>F10+E10</f>
+      <c r="H10" s="7">
+        <f>G10+F10</f>
         <v>3550</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1614,18 +2225,22 @@
       <c r="D11" s="3">
         <v>3771</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.563153660498791</v>
+      </c>
+      <c r="F11" s="3">
         <v>5708</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>1750</v>
       </c>
-      <c r="G11" s="7">
-        <f>F11+E11</f>
+      <c r="H11" s="7">
+        <f>G11+F11</f>
         <v>7458</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1638,18 +2253,22 @@
       <c r="D12" s="4">
         <v>338</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
         <v>455</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>220</v>
       </c>
-      <c r="G12" s="7">
-        <f>F12+E12</f>
+      <c r="H12" s="7">
+        <f>G12+F12</f>
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1662,18 +2281,22 @@
       <c r="D13" s="3">
         <v>1464</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.117318435754193</v>
+      </c>
+      <c r="F13" s="3">
         <v>1097</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>1767</v>
       </c>
-      <c r="G13" s="7">
-        <f>F13+E13</f>
+      <c r="H13" s="7">
+        <f>G13+F13</f>
         <v>2864</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1686,18 +2309,22 @@
       <c r="D14" s="3">
         <v>25432</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.524475524475527</v>
+      </c>
+      <c r="F14" s="3">
         <v>35254</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15081</v>
       </c>
-      <c r="G14" s="7">
-        <f>F14+E14</f>
+      <c r="H14" s="7">
+        <f>G14+F14</f>
         <v>50335</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1710,18 +2337,22 @@
       <c r="D15" s="3">
         <v>7133</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.101672747298132</v>
+      </c>
+      <c r="F15" s="3">
         <v>7860</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6666</v>
       </c>
-      <c r="G15" s="7">
-        <f>F15+E15</f>
+      <c r="H15" s="7">
+        <f>G15+F15</f>
         <v>14526</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1734,18 +2365,22 @@
       <c r="D16" s="4">
         <v>321</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.033386327503976</v>
+      </c>
+      <c r="F16" s="4">
         <v>107</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>522</v>
       </c>
-      <c r="G16" s="7">
-        <f>F16+E16</f>
+      <c r="H16" s="7">
+        <f>G16+F16</f>
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1758,18 +2393,22 @@
       <c r="D17" s="3">
         <v>33130</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.281527980245741</v>
+      </c>
+      <c r="F17" s="3">
         <v>36519</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30708</v>
       </c>
-      <c r="G17" s="7">
-        <f>F17+E17</f>
+      <c r="H17" s="7">
+        <f>G17+F17</f>
         <v>67227</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1782,18 +2421,22 @@
       <c r="D18" s="3">
         <v>1874</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.376344086021504</v>
+      </c>
+      <c r="F18" s="3">
         <v>3035</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>684</v>
       </c>
-      <c r="G18" s="7">
-        <f>F18+E18</f>
+      <c r="H18" s="7">
+        <f>G18+F18</f>
         <v>3719</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1806,18 +2449,22 @@
       <c r="D19" s="3">
         <v>30436</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.817497340207872</v>
+      </c>
+      <c r="F19" s="3">
         <v>50600</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>10495</v>
       </c>
-      <c r="G19" s="7">
-        <f>F19+E19</f>
+      <c r="H19" s="7">
+        <f>G19+F19</f>
         <v>61095</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1830,18 +2477,22 @@
       <c r="D20" s="4">
         <v>605</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.543024227234753</v>
+      </c>
+      <c r="F20" s="4">
         <v>549</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>648</v>
       </c>
-      <c r="G20" s="7">
-        <f>F20+E20</f>
+      <c r="H20" s="7">
+        <f>G20+F20</f>
         <v>1197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1854,18 +2505,22 @@
       <c r="D21" s="4">
         <v>641</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.552050473186121</v>
+      </c>
+      <c r="F21" s="4">
         <v>865</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>403</v>
       </c>
-      <c r="G21" s="7">
-        <f>F21+E21</f>
+      <c r="H21" s="7">
+        <f>G21+F21</f>
         <v>1268</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1878,18 +2533,22 @@
       <c r="D22" s="3">
         <v>9885</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.233763593861163</v>
+      </c>
+      <c r="F22" s="3">
         <v>12230</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7448</v>
       </c>
-      <c r="G22" s="7">
-        <f>F22+E22</f>
+      <c r="H22" s="7">
+        <f>G22+F22</f>
         <v>19678</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1902,18 +2561,22 @@
       <c r="D23" s="3">
         <v>3658</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.707840739230875</v>
+      </c>
+      <c r="F23" s="3">
         <v>5002</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2357</v>
       </c>
-      <c r="G23" s="7">
-        <f>F23+E23</f>
+      <c r="H23" s="7">
+        <f>G23+F23</f>
         <v>7359</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1926,18 +2589,22 @@
       <c r="D24" s="4">
         <v>224</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.678733031674206</v>
+      </c>
+      <c r="F24" s="4">
         <v>234</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>207</v>
       </c>
-      <c r="G24" s="7">
-        <f>F24+E24</f>
+      <c r="H24" s="7">
+        <f>G24+F24</f>
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1950,18 +2617,22 @@
       <c r="D25" s="4">
         <v>603</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.800336983993262</v>
+      </c>
+      <c r="F25" s="4">
         <v>910</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>277</v>
       </c>
-      <c r="G25" s="7">
-        <f>F25+E25</f>
+      <c r="H25" s="7">
+        <f>G25+F25</f>
         <v>1187</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1974,18 +2645,22 @@
       <c r="D26" s="3">
         <v>14744</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.896781616975197</v>
+      </c>
+      <c r="F26" s="3">
         <v>20050</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9499</v>
       </c>
-      <c r="G26" s="7">
-        <f>F26+E26</f>
+      <c r="H26" s="7">
+        <f>G26+F26</f>
         <v>29549</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1998,18 +2673,22 @@
       <c r="D27" s="3">
         <v>1070</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.759013282732447</v>
+      </c>
+      <c r="F27" s="3">
         <v>1536</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>571</v>
       </c>
-      <c r="G27" s="7">
-        <f>F27+E27</f>
+      <c r="H27" s="7">
+        <f>G27+F27</f>
         <v>2107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2022,18 +2701,22 @@
       <c r="D28" s="3">
         <v>1459</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.795221843003411</v>
+      </c>
+      <c r="F28" s="3">
         <v>1544</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>1386</v>
       </c>
-      <c r="G28" s="7">
-        <f>F28+E28</f>
+      <c r="H28" s="7">
+        <f>G28+F28</f>
         <v>2930</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2046,18 +2729,22 @@
       <c r="D29" s="3">
         <v>2635</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.171846435100548</v>
+      </c>
+      <c r="F29" s="4">
         <v>702</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>4769</v>
       </c>
-      <c r="G29" s="7">
-        <f>F29+E29</f>
+      <c r="H29" s="7">
+        <f>G29+F29</f>
         <v>5471</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2070,18 +2757,22 @@
       <c r="D30" s="3">
         <v>7804</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.361383582860093</v>
+      </c>
+      <c r="F30" s="3">
         <v>11024</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>4472</v>
       </c>
-      <c r="G30" s="7">
-        <f>F30+E30</f>
+      <c r="H30" s="7">
+        <f>G30+F30</f>
         <v>15496</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2094,18 +2785,22 @@
       <c r="D31" s="3">
         <v>5366</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.432330827067666</v>
+      </c>
+      <c r="F31" s="3">
         <v>9050</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>1591</v>
       </c>
-      <c r="G31" s="7">
-        <f>F31+E31</f>
+      <c r="H31" s="7">
+        <f>G31+F31</f>
         <v>10641</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2118,18 +2813,22 @@
       <c r="D32" s="3">
         <v>5551</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.647810218978101</v>
+      </c>
+      <c r="F32" s="3">
         <v>7741</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3219</v>
       </c>
-      <c r="G32" s="7">
-        <f>F32+E32</f>
+      <c r="H32" s="7">
+        <f>G32+F32</f>
         <v>10960</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2142,18 +2841,22 @@
       <c r="D33" s="3">
         <v>13920</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.953348166224075</v>
+      </c>
+      <c r="F33" s="3">
         <v>12649</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15218</v>
       </c>
-      <c r="G33" s="7">
-        <f>F33+E33</f>
+      <c r="H33" s="7">
+        <f>G33+F33</f>
         <v>27867</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2166,18 +2869,22 @@
       <c r="D34" s="4">
         <v>576</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.130548302872064</v>
+      </c>
+      <c r="F34" s="4">
         <v>677</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>473</v>
       </c>
-      <c r="G34" s="7">
-        <f>F34+E34</f>
+      <c r="H34" s="7">
+        <f>G34+F34</f>
         <v>1150</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2190,18 +2897,22 @@
       <c r="D35" s="3">
         <v>1310</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.423402617397997</v>
+      </c>
+      <c r="F35" s="3">
         <v>1134</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1464</v>
       </c>
-      <c r="G35" s="7">
-        <f>F35+E35</f>
+      <c r="H35" s="7">
+        <f>G35+F35</f>
         <v>2598</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2214,18 +2925,22 @@
       <c r="D36" s="3">
         <v>9761</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.611842787514256</v>
+      </c>
+      <c r="F36" s="3">
         <v>11792</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>7494</v>
       </c>
-      <c r="G36" s="7">
-        <f>F36+E36</f>
+      <c r="H36" s="7">
+        <f>G36+F36</f>
         <v>19286</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2238,18 +2953,22 @@
       <c r="D37" s="4">
         <v>850</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.147492625368734</v>
+      </c>
+      <c r="F37" s="3">
         <v>1020</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>675</v>
       </c>
-      <c r="G37" s="7">
-        <f>F37+E37</f>
+      <c r="H37" s="7">
+        <f>G37+F37</f>
         <v>1695</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2262,18 +2981,22 @@
       <c r="D38" s="3">
         <v>5256</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.53360253821748</v>
+      </c>
+      <c r="F38" s="3">
         <v>8313</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>2087</v>
       </c>
-      <c r="G38" s="7">
-        <f>F38+E38</f>
+      <c r="H38" s="7">
+        <f>G38+F38</f>
         <v>10400</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2286,18 +3009,22 @@
       <c r="D39" s="3">
         <v>54912</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.403414566983344</v>
+      </c>
+      <c r="F39" s="3">
         <v>62031</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>46914</v>
       </c>
-      <c r="G39" s="7">
-        <f>F39+E39</f>
+      <c r="H39" s="7">
+        <f>G39+F39</f>
         <v>108945</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2310,18 +3037,22 @@
       <c r="D40" s="4">
         <v>353</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.085383502170764</v>
+      </c>
+      <c r="F40" s="4">
         <v>206</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>485</v>
       </c>
-      <c r="G40" s="7">
-        <f>F40+E40</f>
+      <c r="H40" s="7">
+        <f>G40+F40</f>
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2334,18 +3065,22 @@
       <c r="D41" s="3">
         <v>3663</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.628887353144435</v>
+      </c>
+      <c r="F41" s="3">
         <v>6797</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>438</v>
       </c>
-      <c r="G41" s="7">
-        <f>F41+E41</f>
+      <c r="H41" s="7">
+        <f>G41+F41</f>
         <v>7235</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2358,18 +3093,22 @@
       <c r="D42" s="4">
         <v>143</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.352112676056336</v>
+      </c>
+      <c r="F42" s="4">
         <v>14</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>270</v>
       </c>
-      <c r="G42" s="7">
-        <f>F42+E42</f>
+      <c r="H42" s="7">
+        <f>G42+F42</f>
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2382,18 +3121,22 @@
       <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>4</v>
       </c>
-      <c r="G43" s="7">
-        <f>F43+E43</f>
+      <c r="H43" s="7">
+        <f>G43+F43</f>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2406,18 +3149,22 @@
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F44" s="4">
         <v>78</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>66</v>
       </c>
-      <c r="G44" s="7">
-        <f>F44+E44</f>
+      <c r="H44" s="7">
+        <f>G44+F44</f>
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2430,18 +3177,22 @@
       <c r="D45" s="3">
         <v>4632</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.129870129870127</v>
+      </c>
+      <c r="F45" s="3">
         <v>4960</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4279</v>
       </c>
-      <c r="G45" s="7">
-        <f>F45+E45</f>
+      <c r="H45" s="7">
+        <f>G45+F45</f>
         <v>9239</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2454,18 +3205,22 @@
       <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F46" s="4">
         <v>32</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="G46" s="7">
-        <f>F46+E46</f>
+      <c r="H46" s="7">
+        <f>G46+F46</f>
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2478,18 +3233,22 @@
       <c r="D47" s="3">
         <v>2402</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.922196311214755</v>
+      </c>
+      <c r="F47" s="3">
         <v>3022</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1695</v>
       </c>
-      <c r="G47" s="7">
-        <f>F47+E47</f>
+      <c r="H47" s="7">
+        <f>G47+F47</f>
         <v>4717</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2502,18 +3261,22 @@
       <c r="D48" s="3">
         <v>4871</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.361869313482217</v>
+      </c>
+      <c r="F48" s="3">
         <v>7050</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2622</v>
       </c>
-      <c r="G48" s="7">
-        <f>F48+E48</f>
+      <c r="H48" s="7">
+        <f>G48+F48</f>
         <v>9672</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2526,18 +3289,22 @@
       <c r="D49" s="3">
         <v>20303</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.884711779448622</v>
+      </c>
+      <c r="F49" s="3">
         <v>19892</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20008</v>
       </c>
-      <c r="G49" s="7">
-        <f>F49+E49</f>
+      <c r="H49" s="7">
+        <f>G49+F49</f>
         <v>39900</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2550,18 +3317,22 @@
       <c r="D50" s="3">
         <v>14402</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.864967800013851</v>
+      </c>
+      <c r="F50" s="3">
         <v>18742</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>10141</v>
       </c>
-      <c r="G50" s="7">
-        <f>F50+E50</f>
+      <c r="H50" s="7">
+        <f>G50+F50</f>
         <v>28883</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2574,18 +3345,22 @@
       <c r="D51" s="4">
         <v>508</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.836734693877553</v>
+      </c>
+      <c r="F51" s="4">
         <v>640</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>340</v>
       </c>
-      <c r="G51" s="7">
-        <f>F51+E51</f>
+      <c r="H51" s="7">
+        <f>G51+F51</f>
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2598,18 +3373,22 @@
       <c r="D52" s="3">
         <v>16541</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.442181019760916</v>
+      </c>
+      <c r="F52" s="3">
         <v>23914</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8878</v>
       </c>
-      <c r="G52" s="7">
-        <f>F52+E52</f>
+      <c r="H52" s="7">
+        <f>G52+F52</f>
         <v>32792</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2622,18 +3401,22 @@
       <c r="D53" s="3">
         <v>2275</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.421099290780141</v>
+      </c>
+      <c r="F53" s="3">
         <v>3035</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>1478</v>
       </c>
-      <c r="G53" s="7">
-        <f>F53+E53</f>
+      <c r="H53" s="7">
+        <f>G53+F53</f>
         <v>4513</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2646,18 +3429,22 @@
       <c r="D54" s="3">
         <v>4682</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.492600422832979</v>
+      </c>
+      <c r="F54" s="3">
         <v>3331</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6129</v>
       </c>
-      <c r="G54" s="7">
-        <f>F54+E54</f>
+      <c r="H54" s="7">
+        <f>G54+F54</f>
         <v>9460</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2670,18 +3457,22 @@
       <c r="D55" s="3">
         <v>10620</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.229390341957149</v>
+      </c>
+      <c r="F55" s="3">
         <v>18221</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>2922</v>
       </c>
-      <c r="G55" s="7">
-        <f>F55+E55</f>
+      <c r="H55" s="7">
+        <f>G55+F55</f>
         <v>21143</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2694,18 +3485,22 @@
       <c r="D56" s="3">
         <v>4537</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.54590017825312</v>
+      </c>
+      <c r="F56" s="3">
         <v>5006</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>3970</v>
       </c>
-      <c r="G56" s="7">
-        <f>F56+E56</f>
+      <c r="H56" s="7">
+        <f>G56+F56</f>
         <v>8976</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2718,18 +3513,22 @@
       <c r="D57" s="3">
         <v>5806</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.359961835371671</v>
+      </c>
+      <c r="F57" s="3">
         <v>7543</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3986</v>
       </c>
-      <c r="G57" s="7">
-        <f>F57+E57</f>
+      <c r="H57" s="7">
+        <f>G57+F57</f>
         <v>11529</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2742,18 +3541,22 @@
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F58" s="4">
         <v>7</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="7">
-        <f>F58+E58</f>
+      <c r="H58" s="7">
+        <f>G58+F58</f>
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2766,18 +3569,22 @@
       <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F59" s="4">
         <v>43</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>25</v>
       </c>
-      <c r="G59" s="7">
-        <f>F59+E59</f>
+      <c r="H59" s="7">
+        <f>G59+F59</f>
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2790,18 +3597,22 @@
       <c r="D60" s="4">
         <v>111</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.627906976744185</v>
+      </c>
+      <c r="F60" s="4">
         <v>65</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>150</v>
       </c>
-      <c r="G60" s="7">
-        <f>F60+E60</f>
+      <c r="H60" s="7">
+        <f>G60+F60</f>
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2814,18 +3625,22 @@
       <c r="D61" s="3">
         <v>18637</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.952784536730732</v>
+      </c>
+      <c r="F61" s="3">
         <v>3988</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32589</v>
       </c>
-      <c r="G61" s="7">
-        <f>F61+E61</f>
+      <c r="H61" s="7">
+        <f>G61+F61</f>
         <v>36577</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2838,18 +3653,22 @@
       <c r="D62" s="4">
         <v>153</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.830564784053159</v>
+      </c>
+      <c r="F62" s="4">
         <v>36</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>265</v>
       </c>
-      <c r="G62" s="7">
-        <f>F62+E62</f>
+      <c r="H62" s="7">
+        <f>G62+F62</f>
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2862,18 +3681,22 @@
       <c r="D63" s="4">
         <v>139</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.6728624535316</v>
+      </c>
+      <c r="F63" s="4">
         <v>136</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>133</v>
       </c>
-      <c r="G63" s="7">
-        <f>F63+E63</f>
+      <c r="H63" s="7">
+        <f>G63+F63</f>
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2886,18 +3709,22 @@
       <c r="D64" s="4">
         <v>116</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.361702127659576</v>
+      </c>
+      <c r="F64" s="4">
         <v>126</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>109</v>
       </c>
-      <c r="G64" s="7">
-        <f>F64+E64</f>
+      <c r="H64" s="7">
+        <f>G64+F64</f>
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2910,18 +3737,22 @@
       <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>64</v>
       </c>
-      <c r="G65" s="7">
-        <f>F65+E65</f>
+      <c r="H65" s="7">
+        <f>G65+F65</f>
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2934,18 +3765,22 @@
       <c r="D66" s="3">
         <v>4093</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.270203881110291</v>
+      </c>
+      <c r="F66" s="3">
         <v>2935</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5207</v>
       </c>
-      <c r="G66" s="7">
-        <f>F66+E66</f>
+      <c r="H66" s="7">
+        <f>G66+F66</f>
         <v>8142</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2958,18 +3793,22 @@
       <c r="D67" s="3">
         <v>84991</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.593494773436198</v>
+      </c>
+      <c r="F67" s="3">
         <v>32439</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>135549</v>
       </c>
-      <c r="G67" s="7">
-        <f>F67+E67</f>
+      <c r="H67" s="7">
+        <f>G67+F67</f>
         <v>167988</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2982,18 +3821,22 @@
       <c r="D68" s="4">
         <v>1</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>37</v>
       </c>
-      <c r="G68" s="7">
-        <f>F68+E68</f>
+      <c r="H68" s="7">
+        <f>G68+F68</f>
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3006,18 +3849,22 @@
       <c r="D69" s="3">
         <v>15583</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.500696762485013</v>
+      </c>
+      <c r="F69" s="3">
         <v>7099</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>23758</v>
       </c>
-      <c r="G69" s="7">
-        <f>F69+E69</f>
+      <c r="H69" s="7">
+        <f>G69+F69</f>
         <v>30857</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3030,18 +3877,22 @@
       <c r="D70" s="3">
         <v>7584</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.496038351421532</v>
+      </c>
+      <c r="F70" s="3">
         <v>2334</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>12684</v>
       </c>
-      <c r="G70" s="7">
-        <f>F70+E70</f>
+      <c r="H70" s="7">
+        <f>G70+F70</f>
         <v>15018</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3054,18 +3905,22 @@
       <c r="D71" s="3">
         <v>21026</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.587046482532962</v>
+      </c>
+      <c r="F71" s="3">
         <v>10612</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>30952</v>
       </c>
-      <c r="G71" s="7">
-        <f>F71+E71</f>
+      <c r="H71" s="7">
+        <f>G71+F71</f>
         <v>41564</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3078,18 +3933,22 @@
       <c r="D72" s="3">
         <v>1939</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.300788202390031</v>
+      </c>
+      <c r="F72" s="3">
         <v>1914</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2019</v>
       </c>
-      <c r="G72" s="7">
-        <f>F72+E72</f>
+      <c r="H72" s="7">
+        <f>G72+F72</f>
         <v>3933</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3102,18 +3961,22 @@
       <c r="D73" s="3">
         <v>5567</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.883512544802869</v>
+      </c>
+      <c r="F73" s="3">
         <v>2512</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <v>8648</v>
       </c>
-      <c r="G73" s="7">
-        <f>F73+E73</f>
+      <c r="H73" s="7">
+        <f>G73+F73</f>
         <v>11160</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3126,18 +3989,22 @@
       <c r="D74" s="4">
         <v>1</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F74" s="4">
         <v>21</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>50</v>
       </c>
-      <c r="G74" s="7">
-        <f>F74+E74</f>
+      <c r="H74" s="7">
+        <f>G74+F74</f>
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3150,18 +4017,22 @@
       <c r="D75" s="3">
         <v>4112</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.157202630005976</v>
+      </c>
+      <c r="F75" s="3">
         <v>2968</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>5396</v>
       </c>
-      <c r="G75" s="7">
-        <f>F75+E75</f>
+      <c r="H75" s="7">
+        <f>G75+F75</f>
         <v>8364</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3174,18 +4045,22 @@
       <c r="D76" s="3">
         <v>6178</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.778422367254855</v>
+      </c>
+      <c r="F76" s="3">
         <v>4754</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7656</v>
       </c>
-      <c r="G76" s="7">
-        <f>F76+E76</f>
+      <c r="H76" s="7">
+        <f>G76+F76</f>
         <v>12410</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3198,18 +4073,22 @@
       <c r="D77" s="3">
         <v>3135</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.942476438089045</v>
+      </c>
+      <c r="F77" s="3">
         <v>3304</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>2850</v>
       </c>
-      <c r="G77" s="7">
-        <f>F77+E77</f>
+      <c r="H77" s="7">
+        <f>G77+F77</f>
         <v>6154</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3222,18 +4101,22 @@
       <c r="D78" s="3">
         <v>140091</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.717365568624892</v>
+      </c>
+      <c r="F78" s="3">
         <v>63543</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>212675</v>
       </c>
-      <c r="G78" s="7">
-        <f>F78+E78</f>
+      <c r="H78" s="7">
+        <f>G78+F78</f>
         <v>276218</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3246,18 +4129,22 @@
       <c r="D79" s="4">
         <v>1</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F79" s="4">
         <v>58</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>35</v>
       </c>
-      <c r="G79" s="7">
-        <f>F79+E79</f>
+      <c r="H79" s="7">
+        <f>G79+F79</f>
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3270,18 +4157,22 @@
       <c r="D80" s="4">
         <v>1</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F80" s="4">
         <v>10</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>46</v>
       </c>
-      <c r="G80" s="7">
-        <f>F80+E80</f>
+      <c r="H80" s="7">
+        <f>G80+F80</f>
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3294,18 +4185,22 @@
       <c r="D81" s="4">
         <v>230</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.111111111111114</v>
+      </c>
+      <c r="F81" s="4">
         <v>1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>448</v>
       </c>
-      <c r="G81" s="7">
-        <f>F81+E81</f>
+      <c r="H81" s="7">
+        <f>G81+F81</f>
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3318,18 +4213,22 @@
       <c r="D82" s="3">
         <v>5497</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.567177637511271</v>
+      </c>
+      <c r="F82" s="3">
         <v>6648</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="3">
         <v>4442</v>
       </c>
-      <c r="G82" s="7">
-        <f>F82+E82</f>
+      <c r="H82" s="7">
+        <f>G82+F82</f>
         <v>11090</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3342,18 +4241,22 @@
       <c r="D83" s="4">
         <v>1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F83" s="4">
         <v>39</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>135</v>
       </c>
-      <c r="G83" s="7">
-        <f>F83+E83</f>
+      <c r="H83" s="7">
+        <f>G83+F83</f>
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3366,18 +4269,22 @@
       <c r="D84" s="4">
         <v>433</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.643274853801167</v>
+      </c>
+      <c r="F84" s="4">
         <v>533</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
         <v>322</v>
       </c>
-      <c r="G84" s="7">
-        <f>F84+E84</f>
+      <c r="H84" s="7">
+        <f>G84+F84</f>
         <v>855</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3390,18 +4297,22 @@
       <c r="D85" s="3">
         <v>4114</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.871769506615557</v>
+      </c>
+      <c r="F85" s="3">
         <v>5318</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>2769</v>
       </c>
-      <c r="G85" s="7">
-        <f>F85+E85</f>
+      <c r="H85" s="7">
+        <f>G85+F85</f>
         <v>8087</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3414,18 +4325,22 @@
       <c r="D86" s="3">
         <v>3132</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.596199524940616</v>
+      </c>
+      <c r="F86" s="3">
         <v>3394</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G86" s="3">
         <v>2922</v>
       </c>
-      <c r="G86" s="7">
-        <f>F86+E86</f>
+      <c r="H86" s="7">
+        <f>G86+F86</f>
         <v>6316</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3438,18 +4353,22 @@
       <c r="D87" s="3">
         <v>1291</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.409996095275282</v>
+      </c>
+      <c r="F87" s="3">
         <v>1137</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G87" s="3">
         <v>1424</v>
       </c>
-      <c r="G87" s="7">
-        <f>F87+E87</f>
+      <c r="H87" s="7">
+        <f>G87+F87</f>
         <v>2561</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3462,18 +4381,22 @@
       <c r="D88" s="4">
         <v>1</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F88" s="4">
         <v>0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="G88" s="4">
         <v>2</v>
       </c>
-      <c r="G88" s="7">
-        <f>F88+E88</f>
+      <c r="H88" s="7">
+        <f>G88+F88</f>
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3486,18 +4409,22 @@
       <c r="D89" s="4">
         <v>202</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.530612244897959</v>
+      </c>
+      <c r="F89" s="4">
         <v>21</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <v>371</v>
       </c>
-      <c r="G89" s="7">
-        <f>F89+E89</f>
+      <c r="H89" s="7">
+        <f>G89+F89</f>
         <v>392</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3510,18 +4437,22 @@
       <c r="D90" s="3">
         <v>49168</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.498120493806873</v>
+      </c>
+      <c r="F90" s="3">
         <v>25126</v>
       </c>
-      <c r="F90" s="3">
+      <c r="G90" s="3">
         <v>72239</v>
       </c>
-      <c r="G90" s="7">
-        <f>F90+E90</f>
+      <c r="H90" s="7">
+        <f>G90+F90</f>
         <v>97365</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3534,18 +4465,22 @@
       <c r="D91" s="4">
         <v>1</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F91" s="4">
         <v>9</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>2</v>
       </c>
-      <c r="G91" s="7">
-        <f>F91+E91</f>
+      <c r="H91" s="7">
+        <f>G91+F91</f>
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3558,18 +4493,22 @@
       <c r="D92" s="3">
         <v>2483</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.283515593357635</v>
+      </c>
+      <c r="F92" s="3">
         <v>1768</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G92" s="3">
         <v>3170</v>
       </c>
-      <c r="G92" s="7">
-        <f>F92+E92</f>
+      <c r="H92" s="7">
+        <f>G92+F92</f>
         <v>4938</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3582,18 +4521,22 @@
       <c r="D93" s="3">
         <v>1393</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.537695590327168</v>
+      </c>
+      <c r="F93" s="3">
         <v>1200</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>1611</v>
       </c>
-      <c r="G93" s="7">
-        <f>F93+E93</f>
+      <c r="H93" s="7">
+        <f>G93+F93</f>
         <v>2811</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3606,18 +4549,22 @@
       <c r="D94" s="3">
         <v>2657</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.580145549542827</v>
+      </c>
+      <c r="F94" s="3">
         <v>2398</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2961</v>
       </c>
-      <c r="G94" s="7">
-        <f>F94+E94</f>
+      <c r="H94" s="7">
+        <f>G94+F94</f>
         <v>5359</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3630,18 +4577,22 @@
       <c r="D95" s="3">
         <v>12716</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.400317082837894</v>
+      </c>
+      <c r="F95" s="3">
         <v>6967</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G95" s="3">
         <v>18262</v>
       </c>
-      <c r="G95" s="7">
-        <f>F95+E95</f>
+      <c r="H95" s="7">
+        <f>G95+F95</f>
         <v>25229</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3654,18 +4605,22 @@
       <c r="D96" s="3">
         <v>1988</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.784318833029438</v>
+      </c>
+      <c r="F96" s="4">
         <v>965</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>2874</v>
       </c>
-      <c r="G96" s="7">
-        <f>F96+E96</f>
+      <c r="H96" s="7">
+        <f>G96+F96</f>
         <v>3839</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3678,18 +4633,22 @@
       <c r="D97" s="4">
         <v>1</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F97" s="4">
         <v>26</v>
       </c>
-      <c r="F97" s="4">
+      <c r="G97" s="4">
         <v>13</v>
       </c>
-      <c r="G97" s="7">
-        <f>F97+E97</f>
+      <c r="H97" s="7">
+        <f>G97+F97</f>
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3702,18 +4661,22 @@
       <c r="D98" s="4">
         <v>1</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F98" s="4">
         <v>1</v>
       </c>
-      <c r="F98" s="4">
+      <c r="G98" s="4">
         <v>6</v>
       </c>
-      <c r="G98" s="7">
-        <f>F98+E98</f>
+      <c r="H98" s="7">
+        <f>G98+F98</f>
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3726,18 +4689,22 @@
       <c r="D99" s="4">
         <v>1</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F99" s="4">
         <v>53</v>
       </c>
-      <c r="F99" s="4">
+      <c r="G99" s="4">
         <v>60</v>
       </c>
-      <c r="G99" s="7">
-        <f>F99+E99</f>
+      <c r="H99" s="7">
+        <f>G99+F99</f>
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3750,18 +4717,22 @@
       <c r="D100" s="4">
         <v>1</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F100" s="4">
         <v>95</v>
       </c>
-      <c r="F100" s="4">
+      <c r="G100" s="4">
         <v>57</v>
       </c>
-      <c r="G100" s="7">
-        <f>F100+E100</f>
+      <c r="H100" s="7">
+        <f>G100+F100</f>
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3774,18 +4745,22 @@
       <c r="D101" s="4">
         <v>210</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.480769230769234</v>
+      </c>
+      <c r="F101" s="4">
         <v>201</v>
       </c>
-      <c r="F101" s="4">
+      <c r="G101" s="4">
         <v>214</v>
       </c>
-      <c r="G101" s="7">
-        <f>F101+E101</f>
+      <c r="H101" s="7">
+        <f>G101+F101</f>
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3798,18 +4773,22 @@
       <c r="D102" s="4">
         <v>647</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.232919254658384</v>
+      </c>
+      <c r="F102" s="4">
         <v>341</v>
       </c>
-      <c r="F102" s="4">
+      <c r="G102" s="4">
         <v>948</v>
       </c>
-      <c r="G102" s="7">
-        <f>F102+E102</f>
+      <c r="H102" s="7">
+        <f>G102+F102</f>
         <v>1289</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3822,18 +4801,22 @@
       <c r="D103" s="4">
         <v>1</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F103" s="4">
         <v>9</v>
       </c>
-      <c r="F103" s="4">
+      <c r="G103" s="4">
         <v>7</v>
       </c>
-      <c r="G103" s="7">
-        <f>F103+E103</f>
+      <c r="H103" s="7">
+        <f>G103+F103</f>
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3846,18 +4829,22 @@
       <c r="D104" s="3">
         <v>1706</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.494114095985509</v>
+      </c>
+      <c r="F104" s="4">
         <v>294</v>
       </c>
-      <c r="F104" s="3">
+      <c r="G104" s="3">
         <v>3019</v>
       </c>
-      <c r="G104" s="7">
-        <f>F104+E104</f>
+      <c r="H104" s="7">
+        <f>G104+F104</f>
         <v>3313</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3870,18 +4857,22 @@
       <c r="D105" s="3">
         <v>11776</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.675187716189996</v>
+      </c>
+      <c r="F105" s="3">
         <v>3071</v>
       </c>
-      <c r="F105" s="3">
+      <c r="G105" s="3">
         <v>20636</v>
       </c>
-      <c r="G105" s="7">
-        <f>F105+E105</f>
+      <c r="H105" s="7">
+        <f>G105+F105</f>
         <v>23707</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3894,18 +4885,22 @@
       <c r="D106" s="4">
         <v>1</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F106" s="4">
         <v>8</v>
       </c>
-      <c r="F106" s="4">
+      <c r="G106" s="4">
         <v>12</v>
       </c>
-      <c r="G106" s="7">
-        <f>F106+E106</f>
+      <c r="H106" s="7">
+        <f>G106+F106</f>
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3918,18 +4913,22 @@
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F107" s="4">
         <v>51</v>
       </c>
-      <c r="F107" s="4">
+      <c r="G107" s="4">
         <v>43</v>
       </c>
-      <c r="G107" s="7">
-        <f>F107+E107</f>
+      <c r="H107" s="7">
+        <f>G107+F107</f>
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3942,18 +4941,22 @@
       <c r="D108" s="3">
         <v>10672</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.679469050768596</v>
+      </c>
+      <c r="F108" s="3">
         <v>17217</v>
       </c>
-      <c r="F108" s="3">
+      <c r="G108" s="3">
         <v>4707</v>
       </c>
-      <c r="G108" s="7">
-        <f>F108+E108</f>
+      <c r="H108" s="7">
+        <f>G108+F108</f>
         <v>21924</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3966,18 +4969,22 @@
       <c r="D109" s="3">
         <v>9333</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>44.657639121489069</v>
+      </c>
+      <c r="F109" s="3">
         <v>3106</v>
       </c>
-      <c r="F109" s="3">
+      <c r="G109" s="3">
         <v>17793</v>
       </c>
-      <c r="G109" s="7">
-        <f>F109+E109</f>
+      <c r="H109" s="7">
+        <f>G109+F109</f>
         <v>20899</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3990,18 +4997,22 @@
       <c r="D110" s="3">
         <v>1811</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.375886524822697</v>
+      </c>
+      <c r="F110" s="3">
         <v>1069</v>
       </c>
-      <c r="F110" s="3">
+      <c r="G110" s="3">
         <v>2456</v>
       </c>
-      <c r="G110" s="7">
-        <f>F110+E110</f>
+      <c r="H110" s="7">
+        <f>G110+F110</f>
         <v>3525</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -4014,18 +5025,22 @@
       <c r="D111" s="3">
         <v>3927</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.019877874496558</v>
+      </c>
+      <c r="F111" s="3">
         <v>3314</v>
       </c>
-      <c r="F111" s="3">
+      <c r="G111" s="3">
         <v>4383</v>
       </c>
-      <c r="G111" s="7">
-        <f>F111+E111</f>
+      <c r="H111" s="7">
+        <f>G111+F111</f>
         <v>7697</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4038,18 +5053,22 @@
       <c r="D112" s="4">
         <v>261</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>42.998352553542013</v>
+      </c>
+      <c r="F112" s="4">
         <v>49</v>
       </c>
-      <c r="F112" s="4">
+      <c r="G112" s="4">
         <v>557</v>
       </c>
-      <c r="G112" s="7">
-        <f>F112+E112</f>
+      <c r="H112" s="7">
+        <f>G112+F112</f>
         <v>606</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4062,18 +5081,22 @@
       <c r="D113" s="3">
         <v>61947</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.79714528783439</v>
+      </c>
+      <c r="F113" s="3">
         <v>100839</v>
       </c>
-      <c r="F113" s="3">
+      <c r="G113" s="3">
         <v>26109</v>
       </c>
-      <c r="G113" s="7">
-        <f>F113+E113</f>
+      <c r="H113" s="7">
+        <f>G113+F113</f>
         <v>126948</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4086,18 +5109,22 @@
       <c r="D114" s="3">
         <v>1022</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.515503875968989</v>
+      </c>
+      <c r="F114" s="3">
         <v>1921</v>
       </c>
-      <c r="F114" s="4">
+      <c r="G114" s="4">
         <v>142</v>
       </c>
-      <c r="G114" s="7">
-        <f>F114+E114</f>
+      <c r="H114" s="7">
+        <f>G114+F114</f>
         <v>2063</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4110,18 +5137,22 @@
       <c r="D115" s="4">
         <v>153</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>47.663551401869157</v>
+      </c>
+      <c r="F115" s="4">
         <v>92</v>
       </c>
-      <c r="F115" s="4">
+      <c r="G115" s="4">
         <v>230</v>
       </c>
-      <c r="G115" s="7">
-        <f>F115+E115</f>
+      <c r="H115" s="7">
+        <f>G115+F115</f>
         <v>322</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4134,18 +5165,22 @@
       <c r="D116" s="3">
         <v>5641</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.534807235519821</v>
+      </c>
+      <c r="F116" s="3">
         <v>8447</v>
       </c>
-      <c r="F116" s="3">
+      <c r="G116" s="3">
         <v>2498</v>
       </c>
-      <c r="G116" s="7">
-        <f>F116+E116</f>
+      <c r="H116" s="7">
+        <f>G116+F116</f>
         <v>10945</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4158,18 +5193,22 @@
       <c r="D117" s="3">
         <v>618475</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.541841462294769</v>
+      </c>
+      <c r="F117" s="3">
         <v>843136</v>
       </c>
-      <c r="F117" s="3">
+      <c r="G117" s="3">
         <v>430971</v>
       </c>
-      <c r="G117" s="7">
-        <f>F117+E117</f>
+      <c r="H117" s="7">
+        <f>G117+F117</f>
         <v>1274107</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4182,18 +5221,22 @@
       <c r="D118" s="4">
         <v>390</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.064184852374837</v>
+      </c>
+      <c r="F118" s="4">
         <v>341</v>
       </c>
-      <c r="F118" s="4">
+      <c r="G118" s="4">
         <v>438</v>
       </c>
-      <c r="G118" s="7">
-        <f>F118+E118</f>
+      <c r="H118" s="7">
+        <f>G118+F118</f>
         <v>779</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4206,18 +5249,22 @@
       <c r="D119" s="4">
         <v>829</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.969861362266428</v>
+      </c>
+      <c r="F119" s="4">
         <v>438</v>
       </c>
-      <c r="F119" s="3">
+      <c r="G119" s="3">
         <v>1222</v>
       </c>
-      <c r="G119" s="7">
-        <f>F119+E119</f>
+      <c r="H119" s="7">
+        <f>G119+F119</f>
         <v>1660</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4230,18 +5277,22 @@
       <c r="D120" s="3">
         <v>11820</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.869209349421993</v>
+      </c>
+      <c r="F120" s="3">
         <v>8890</v>
       </c>
-      <c r="F120" s="3">
+      <c r="G120" s="3">
         <v>14812</v>
       </c>
-      <c r="G120" s="7">
-        <f>F120+E120</f>
+      <c r="H120" s="7">
+        <f>G120+F120</f>
         <v>23702</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4254,18 +5305,22 @@
       <c r="D121" s="3">
         <v>23042</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.575076916456894</v>
+      </c>
+      <c r="F121" s="3">
         <v>6897</v>
       </c>
-      <c r="F121" s="3">
+      <c r="G121" s="3">
         <v>39583</v>
       </c>
-      <c r="G121" s="7">
-        <f>F121+E121</f>
+      <c r="H121" s="7">
+        <f>G121+F121</f>
         <v>46480</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4278,18 +5333,22 @@
       <c r="D122" s="4">
         <v>876</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>36.545682102628284</v>
+      </c>
+      <c r="F122" s="4">
         <v>348</v>
       </c>
-      <c r="F122" s="3">
+      <c r="G122" s="3">
         <v>2049</v>
       </c>
-      <c r="G122" s="7">
-        <f>F122+E122</f>
+      <c r="H122" s="7">
+        <f>G122+F122</f>
         <v>2397</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4302,18 +5361,22 @@
       <c r="D123" s="3">
         <v>36896</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.555430198511836</v>
+      </c>
+      <c r="F123" s="3">
         <v>31514</v>
       </c>
-      <c r="F123" s="3">
+      <c r="G123" s="3">
         <v>42940</v>
       </c>
-      <c r="G123" s="7">
-        <f>F123+E123</f>
+      <c r="H123" s="7">
+        <f>G123+F123</f>
         <v>74454</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4326,18 +5389,22 @@
       <c r="D124" s="3">
         <v>2613</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>52.20779220779221</v>
+      </c>
+      <c r="F124" s="3">
         <v>1991</v>
       </c>
-      <c r="F124" s="3">
+      <c r="G124" s="3">
         <v>3015</v>
       </c>
-      <c r="G124" s="7">
-        <f>F124+E124</f>
+      <c r="H124" s="7">
+        <f>G124+F124</f>
         <v>5006</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4350,18 +5417,22 @@
       <c r="D125" s="3">
         <v>482801</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.374139326851399</v>
+      </c>
+      <c r="F125" s="3">
         <v>717585</v>
       </c>
-      <c r="F125" s="3">
+      <c r="G125" s="3">
         <v>280471</v>
       </c>
-      <c r="G125" s="7">
-        <f>F125+E125</f>
+      <c r="H125" s="7">
+        <f>G125+F125</f>
         <v>998056</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4374,18 +5445,22 @@
       <c r="D126" s="3">
         <v>104852</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.107285369525222</v>
+      </c>
+      <c r="F126" s="3">
         <v>127231</v>
       </c>
-      <c r="F126" s="3">
+      <c r="G126" s="3">
         <v>82024</v>
       </c>
-      <c r="G126" s="7">
-        <f>F126+E126</f>
+      <c r="H126" s="7">
+        <f>G126+F126</f>
         <v>209255</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4398,18 +5473,22 @@
       <c r="D127" s="3">
         <v>32910</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.269417330379063</v>
+      </c>
+      <c r="F127" s="3">
         <v>26001</v>
       </c>
-      <c r="F127" s="3">
+      <c r="G127" s="3">
         <v>40795</v>
       </c>
-      <c r="G127" s="7">
-        <f>F127+E127</f>
+      <c r="H127" s="7">
+        <f>G127+F127</f>
         <v>66796</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4422,18 +5501,22 @@
       <c r="D128" s="3">
         <v>11031</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.1358574610245</v>
+      </c>
+      <c r="F128" s="3">
         <v>5309</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G128" s="3">
         <v>17141</v>
       </c>
-      <c r="G128" s="7">
-        <f>F128+E128</f>
+      <c r="H128" s="7">
+        <f>G128+F128</f>
         <v>22450</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4446,18 +5529,22 @@
       <c r="D129" s="3">
         <v>3075</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.401573512538931</v>
+      </c>
+      <c r="F129" s="4">
         <v>544</v>
       </c>
-      <c r="F129" s="3">
+      <c r="G129" s="3">
         <v>5557</v>
       </c>
-      <c r="G129" s="7">
-        <f>F129+E129</f>
+      <c r="H129" s="7">
+        <f>G129+F129</f>
         <v>6101</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4470,18 +5557,22 @@
       <c r="D130" s="3">
         <v>64508</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.992450891269122</v>
+      </c>
+      <c r="F130" s="3">
         <v>26930</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G130" s="3">
         <v>99575</v>
       </c>
-      <c r="G130" s="7">
-        <f>F130+E130</f>
+      <c r="H130" s="7">
+        <f>G130+F130</f>
         <v>126505</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4494,18 +5585,22 @@
       <c r="D131" s="3">
         <v>2303</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>47.760265450020739</v>
+      </c>
+      <c r="F131" s="3">
         <v>1272</v>
       </c>
-      <c r="F131" s="3">
+      <c r="G131" s="3">
         <v>3551</v>
       </c>
-      <c r="G131" s="7">
-        <f>F131+E131</f>
+      <c r="H131" s="7">
+        <f>G131+F131</f>
         <v>4823</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4518,18 +5613,22 @@
       <c r="D132" s="3">
         <v>8352</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.336898395721924</v>
+      </c>
+      <c r="F132" s="3">
         <v>6303</v>
       </c>
-      <c r="F132" s="3">
+      <c r="G132" s="3">
         <v>9966</v>
       </c>
-      <c r="G132" s="7">
-        <f>F132+E132</f>
+      <c r="H132" s="7">
+        <f>G132+F132</f>
         <v>16269</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4542,18 +5641,22 @@
       <c r="D133" s="3">
         <v>2380</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.974512743628189</v>
+      </c>
+      <c r="F133" s="3">
         <v>2810</v>
       </c>
-      <c r="F133" s="3">
+      <c r="G133" s="3">
         <v>1859</v>
       </c>
-      <c r="G133" s="7">
-        <f>F133+E133</f>
+      <c r="H133" s="7">
+        <f>G133+F133</f>
         <v>4669</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4566,18 +5669,22 @@
       <c r="D134" s="4">
         <v>906</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>47.759620453347388</v>
+      </c>
+      <c r="F134" s="4">
         <v>48</v>
       </c>
-      <c r="F134" s="3">
+      <c r="G134" s="3">
         <v>1849</v>
       </c>
-      <c r="G134" s="7">
-        <f>F134+E134</f>
+      <c r="H134" s="7">
+        <f>G134+F134</f>
         <v>1897</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -4590,18 +5697,22 @@
       <c r="D135" s="3">
         <v>2629</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.631867094581835</v>
+      </c>
+      <c r="F135" s="3">
         <v>4085</v>
       </c>
-      <c r="F135" s="3">
+      <c r="G135" s="3">
         <v>1212</v>
       </c>
-      <c r="G135" s="7">
-        <f>F135+E135</f>
+      <c r="H135" s="7">
+        <f>G135+F135</f>
         <v>5297</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4614,18 +5725,22 @@
       <c r="D136" s="3">
         <v>1654</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.112484548825712</v>
+      </c>
+      <c r="F136" s="4">
         <v>347</v>
       </c>
-      <c r="F136" s="3">
+      <c r="G136" s="3">
         <v>2889</v>
       </c>
-      <c r="G136" s="7">
-        <f>F136+E136</f>
+      <c r="H136" s="7">
+        <f>G136+F136</f>
         <v>3236</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4638,18 +5753,22 @@
       <c r="D137" s="3">
         <v>10765</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.312872194228127</v>
+      </c>
+      <c r="F137" s="3">
         <v>9495</v>
       </c>
-      <c r="F137" s="3">
+      <c r="G137" s="3">
         <v>12335</v>
       </c>
-      <c r="G137" s="7">
-        <f>F137+E137</f>
+      <c r="H137" s="7">
+        <f>G137+F137</f>
         <v>21830</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4662,18 +5781,22 @@
       <c r="D138" s="4">
         <v>135</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.561151079136692</v>
+      </c>
+      <c r="F138" s="4">
         <v>200</v>
       </c>
-      <c r="F138" s="4">
+      <c r="G138" s="4">
         <v>78</v>
       </c>
-      <c r="G138" s="7">
-        <f>F138+E138</f>
+      <c r="H138" s="7">
+        <f>G138+F138</f>
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4686,18 +5809,22 @@
       <c r="D139" s="3">
         <v>1307</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.866463181991605</v>
+      </c>
+      <c r="F139" s="4">
         <v>970</v>
       </c>
-      <c r="F139" s="3">
+      <c r="G139" s="3">
         <v>1650</v>
       </c>
-      <c r="G139" s="7">
-        <f>F139+E139</f>
+      <c r="H139" s="7">
+        <f>G139+F139</f>
         <v>2620</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4710,18 +5837,22 @@
       <c r="D140" s="3">
         <v>22633</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.229698839299587</v>
+      </c>
+      <c r="F140" s="3">
         <v>32754</v>
       </c>
-      <c r="F140" s="3">
+      <c r="G140" s="3">
         <v>12305</v>
       </c>
-      <c r="G140" s="7">
-        <f>F140+E140</f>
+      <c r="H140" s="7">
+        <f>G140+F140</f>
         <v>45059</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -4734,18 +5865,22 @@
       <c r="D141" s="3">
         <v>11538</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.337210296758748</v>
+      </c>
+      <c r="F141" s="3">
         <v>20684</v>
       </c>
-      <c r="F141" s="3">
+      <c r="G141" s="3">
         <v>2701</v>
       </c>
-      <c r="G141" s="7">
-        <f>F141+E141</f>
+      <c r="H141" s="7">
+        <f>G141+F141</f>
         <v>23385</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4758,18 +5893,22 @@
       <c r="D142" s="3">
         <v>1155</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>46.951219512195124</v>
+      </c>
+      <c r="F142" s="4">
         <v>437</v>
       </c>
-      <c r="F142" s="3">
+      <c r="G142" s="3">
         <v>2023</v>
       </c>
-      <c r="G142" s="7">
-        <f>F142+E142</f>
+      <c r="H142" s="7">
+        <f>G142+F142</f>
         <v>2460</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -4782,18 +5921,22 @@
       <c r="D143" s="3">
         <v>73698</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.380489726252215</v>
+      </c>
+      <c r="F143" s="3">
         <v>96764</v>
       </c>
-      <c r="F143" s="3">
+      <c r="G143" s="3">
         <v>55567</v>
       </c>
-      <c r="G143" s="7">
-        <f>F143+E143</f>
+      <c r="H143" s="7">
+        <f>G143+F143</f>
         <v>152331</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4806,18 +5949,22 @@
       <c r="D144" s="4">
         <v>204</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>34.634974533106963</v>
+      </c>
+      <c r="F144" s="4">
         <v>46</v>
       </c>
-      <c r="F144" s="4">
+      <c r="G144" s="4">
         <v>544</v>
       </c>
-      <c r="G144" s="7">
-        <f>F144+E144</f>
+      <c r="H144" s="7">
+        <f>G144+F144</f>
         <v>590</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4830,18 +5977,22 @@
       <c r="D145" s="3">
         <v>1748</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.630891538898354</v>
+      </c>
+      <c r="F145" s="4">
         <v>0</v>
       </c>
-      <c r="F145" s="3">
+      <c r="G145" s="3">
         <v>3522</v>
       </c>
-      <c r="G145" s="7">
-        <f>F145+E145</f>
+      <c r="H145" s="7">
+        <f>G145+F145</f>
         <v>3522</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4854,18 +6005,22 @@
       <c r="D146" s="3">
         <v>7782</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.488076311605724</v>
+      </c>
+      <c r="F146" s="3">
         <v>7231</v>
       </c>
-      <c r="F146" s="3">
+      <c r="G146" s="3">
         <v>8494</v>
       </c>
-      <c r="G146" s="7">
-        <f>F146+E146</f>
+      <c r="H146" s="7">
+        <f>G146+F146</f>
         <v>15725</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4878,18 +6033,22 @@
       <c r="D147" s="3">
         <v>9412</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.496271259187722</v>
+      </c>
+      <c r="F147" s="3">
         <v>14305</v>
       </c>
-      <c r="F147" s="3">
+      <c r="G147" s="3">
         <v>4334</v>
       </c>
-      <c r="G147" s="7">
-        <f>F147+E147</f>
+      <c r="H147" s="7">
+        <f>G147+F147</f>
         <v>18639</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4902,18 +6061,22 @@
       <c r="D148" s="3">
         <v>30482</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.088734060733536</v>
+      </c>
+      <c r="F148" s="3">
         <v>47926</v>
       </c>
-      <c r="F148" s="3">
+      <c r="G148" s="3">
         <v>12930</v>
       </c>
-      <c r="G148" s="7">
-        <f>F148+E148</f>
+      <c r="H148" s="7">
+        <f>G148+F148</f>
         <v>60856</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4926,18 +6089,22 @@
       <c r="D149" s="3">
         <v>3064</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.196592398427264</v>
+      </c>
+      <c r="F149" s="3">
         <v>4107</v>
       </c>
-      <c r="F149" s="3">
+      <c r="G149" s="3">
         <v>1997</v>
       </c>
-      <c r="G149" s="7">
-        <f>F149+E149</f>
+      <c r="H149" s="7">
+        <f>G149+F149</f>
         <v>6104</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4950,18 +6117,22 @@
       <c r="D150" s="4">
         <v>423</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.56486796785304</v>
+      </c>
+      <c r="F150" s="4">
         <v>806</v>
       </c>
-      <c r="F150" s="4">
+      <c r="G150" s="4">
         <v>65</v>
       </c>
-      <c r="G150" s="7">
-        <f>F150+E150</f>
+      <c r="H150" s="7">
+        <f>G150+F150</f>
         <v>871</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4974,18 +6145,22 @@
       <c r="D151" s="3">
         <v>2215</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.524635036496349</v>
+      </c>
+      <c r="F151" s="3">
         <v>2395</v>
       </c>
-      <c r="F151" s="3">
+      <c r="G151" s="3">
         <v>1989</v>
       </c>
-      <c r="G151" s="7">
-        <f>F151+E151</f>
+      <c r="H151" s="7">
+        <f>G151+F151</f>
         <v>4384</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -4998,18 +6173,22 @@
       <c r="D152" s="3">
         <v>32436</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.485857260549842</v>
+      </c>
+      <c r="F152" s="3">
         <v>16994</v>
       </c>
-      <c r="F152" s="3">
+      <c r="G152" s="3">
         <v>48552</v>
       </c>
-      <c r="G152" s="7">
-        <f>F152+E152</f>
+      <c r="H152" s="7">
+        <f>G152+F152</f>
         <v>65546</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5022,18 +6201,22 @@
       <c r="D153" s="3">
         <v>12054</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.348774069587733</v>
+      </c>
+      <c r="F153" s="3">
         <v>13853</v>
       </c>
-      <c r="F153" s="3">
+      <c r="G153" s="3">
         <v>10089</v>
       </c>
-      <c r="G153" s="7">
-        <f>F153+E153</f>
+      <c r="H153" s="7">
+        <f>G153+F153</f>
         <v>23942</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5046,18 +6229,22 @@
       <c r="D154" s="3">
         <v>39858</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.642271774347243</v>
+      </c>
+      <c r="F154" s="3">
         <v>63223</v>
       </c>
-      <c r="F154" s="3">
+      <c r="G154" s="3">
         <v>15482</v>
       </c>
-      <c r="G154" s="7">
-        <f>F154+E154</f>
+      <c r="H154" s="7">
+        <f>G154+F154</f>
         <v>78705</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -5070,18 +6257,22 @@
       <c r="D155" s="3">
         <v>8679</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.628316559926809</v>
+      </c>
+      <c r="F155" s="3">
         <v>11007</v>
       </c>
-      <c r="F155" s="3">
+      <c r="G155" s="3">
         <v>6481</v>
       </c>
-      <c r="G155" s="7">
-        <f>F155+E155</f>
+      <c r="H155" s="7">
+        <f>G155+F155</f>
         <v>17488</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5094,18 +6285,22 @@
       <c r="D156" s="4">
         <v>533</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="12">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.489322191272052</v>
+      </c>
+      <c r="F156" s="4">
         <v>59</v>
       </c>
-      <c r="F156" s="3">
+      <c r="G156" s="3">
         <v>1018</v>
       </c>
-      <c r="G156" s="7">
-        <f>F156+E156</f>
+      <c r="H156" s="7">
+        <f>G156+F156</f>
         <v>1077</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5118,18 +6313,22 @@
       <c r="D157" s="6">
         <v>1</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F157" s="6">
         <v>26</v>
       </c>
-      <c r="F157" s="6">
+      <c r="G157" s="6">
         <v>7</v>
       </c>
-      <c r="G157" s="7">
-        <f>F157+E157</f>
+      <c r="H157" s="7">
+        <f>G157+F157</f>
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5142,18 +6341,22 @@
       <c r="D158" s="6">
         <v>1</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F158" s="6">
         <v>28</v>
       </c>
-      <c r="F158" s="6">
+      <c r="G158" s="6">
         <v>15</v>
       </c>
-      <c r="G158" s="7">
-        <f>F158+E158</f>
+      <c r="H158" s="7">
+        <f>G158+F158</f>
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5166,18 +6369,22 @@
       <c r="D159" s="6">
         <v>1</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F159" s="6">
         <v>0</v>
       </c>
-      <c r="F159" s="6">
+      <c r="G159" s="6">
         <v>25</v>
       </c>
-      <c r="G159" s="7">
-        <f>F159+E159</f>
+      <c r="H159" s="7">
+        <f>G159+F159</f>
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -5190,18 +6397,22 @@
       <c r="D160" s="6">
         <v>1</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F160" s="6">
         <v>1</v>
       </c>
-      <c r="F160" s="6">
+      <c r="G160" s="6">
         <v>25</v>
       </c>
-      <c r="G160" s="7">
-        <f>F160+E160</f>
+      <c r="H160" s="7">
+        <f>G160+F160</f>
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -5214,18 +6425,22 @@
       <c r="D161" s="6">
         <v>1</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F161" s="6">
         <v>0</v>
       </c>
-      <c r="F161" s="6">
+      <c r="G161" s="6">
         <v>33</v>
       </c>
-      <c r="G161" s="7">
-        <f>F161+E161</f>
+      <c r="H161" s="7">
+        <f>G161+F161</f>
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5238,18 +6453,22 @@
       <c r="D162" s="6">
         <v>1</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F162" s="6">
         <v>4</v>
       </c>
-      <c r="F162" s="6">
+      <c r="G162" s="6">
         <v>71</v>
       </c>
-      <c r="G162" s="7">
-        <f>F162+E162</f>
+      <c r="H162" s="7">
+        <f>G162+F162</f>
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -5262,18 +6481,22 @@
       <c r="D163" s="6">
         <v>139</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.820788530465947</v>
+      </c>
+      <c r="F163" s="6">
         <v>22</v>
       </c>
-      <c r="F163" s="6">
+      <c r="G163" s="6">
         <v>256</v>
       </c>
-      <c r="G163" s="7">
-        <f>F163+E163</f>
+      <c r="H163" s="7">
+        <f>G163+F163</f>
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5286,18 +6509,22 @@
       <c r="D164" s="6">
         <v>195</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.518134715025909</v>
+      </c>
+      <c r="F164" s="6">
         <v>38</v>
       </c>
-      <c r="F164" s="6">
+      <c r="G164" s="6">
         <v>348</v>
       </c>
-      <c r="G164" s="7">
-        <f>F164+E164</f>
+      <c r="H164" s="7">
+        <f>G164+F164</f>
         <v>386</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5310,18 +6537,22 @@
       <c r="D165" s="6">
         <v>217</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.938967136150232</v>
+      </c>
+      <c r="F165" s="6">
         <v>40</v>
       </c>
-      <c r="F165" s="6">
+      <c r="G165" s="6">
         <v>386</v>
       </c>
-      <c r="G165" s="7">
-        <f>F165+E165</f>
+      <c r="H165" s="7">
+        <f>G165+F165</f>
         <v>426</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5334,18 +6565,22 @@
       <c r="D166" s="5">
         <v>1023</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.432880844645553</v>
+      </c>
+      <c r="F166" s="6">
         <v>948</v>
       </c>
-      <c r="F166" s="5">
+      <c r="G166" s="5">
         <v>1041</v>
       </c>
-      <c r="G166" s="7">
-        <f>F166+E166</f>
+      <c r="H166" s="7">
+        <f>G166+F166</f>
         <v>1989</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -5358,18 +6593,22 @@
       <c r="D167" s="6">
         <v>748</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>52.974504249291783</v>
+      </c>
+      <c r="F167" s="6">
         <v>367</v>
       </c>
-      <c r="F167" s="5">
+      <c r="G167" s="5">
         <v>1045</v>
       </c>
-      <c r="G167" s="7">
-        <f>F167+E167</f>
+      <c r="H167" s="7">
+        <f>G167+F167</f>
         <v>1412</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5382,18 +6621,22 @@
       <c r="D168" s="5">
         <v>1521</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.859620944426595</v>
+      </c>
+      <c r="F168" s="5">
         <v>1907</v>
       </c>
-      <c r="F168" s="5">
+      <c r="G168" s="5">
         <v>1206</v>
       </c>
-      <c r="G168" s="7">
-        <f>F168+E168</f>
+      <c r="H168" s="7">
+        <f>G168+F168</f>
         <v>3113</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -5406,18 +6649,22 @@
       <c r="D169" s="5">
         <v>1006</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.024863252113377</v>
+      </c>
+      <c r="F169" s="6">
         <v>773</v>
       </c>
-      <c r="F169" s="5">
+      <c r="G169" s="5">
         <v>1238</v>
       </c>
-      <c r="G169" s="7">
-        <f>F169+E169</f>
+      <c r="H169" s="7">
+        <f>G169+F169</f>
         <v>2011</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -5430,18 +6677,22 @@
       <c r="D170" s="5">
         <v>1939</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.521104742053154</v>
+      </c>
+      <c r="F170" s="5">
         <v>2198</v>
       </c>
-      <c r="F170" s="5">
+      <c r="G170" s="5">
         <v>1640</v>
       </c>
-      <c r="G170" s="7">
-        <f>F170+E170</f>
+      <c r="H170" s="7">
+        <f>G170+F170</f>
         <v>3838</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5454,18 +6705,22 @@
       <c r="D171" s="5">
         <v>1303</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>54.541649225617412</v>
+      </c>
+      <c r="F171" s="6">
         <v>622</v>
       </c>
-      <c r="F171" s="5">
+      <c r="G171" s="5">
         <v>1768</v>
       </c>
-      <c r="G171" s="7">
-        <f>F171+E171</f>
+      <c r="H171" s="7">
+        <f>G171+F171</f>
         <v>2390</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -5478,18 +6733,22 @@
       <c r="D172" s="5">
         <v>1866</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.364372469635626</v>
+      </c>
+      <c r="F172" s="5">
         <v>1544</v>
       </c>
-      <c r="F172" s="5">
+      <c r="G172" s="5">
         <v>2161</v>
       </c>
-      <c r="G172" s="7">
-        <f>F172+E172</f>
+      <c r="H172" s="7">
+        <f>G172+F172</f>
         <v>3705</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -5502,18 +6761,22 @@
       <c r="D173" s="5">
         <v>2283</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>52.135190682804293</v>
+      </c>
+      <c r="F173" s="5">
         <v>1995</v>
       </c>
-      <c r="F173" s="5">
+      <c r="G173" s="5">
         <v>2384</v>
       </c>
-      <c r="G173" s="7">
-        <f>F173+E173</f>
+      <c r="H173" s="7">
+        <f>G173+F173</f>
         <v>4379</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5526,18 +6789,22 @@
       <c r="D174" s="5">
         <v>2313</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.664060754969846</v>
+      </c>
+      <c r="F174" s="5">
         <v>1910</v>
       </c>
-      <c r="F174" s="5">
+      <c r="G174" s="5">
         <v>2567</v>
       </c>
-      <c r="G174" s="7">
-        <f>F174+E174</f>
+      <c r="H174" s="7">
+        <f>G174+F174</f>
         <v>4477</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5550,18 +6817,22 @@
       <c r="D175" s="5">
         <v>1944</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>52.797392721347094</v>
+      </c>
+      <c r="F175" s="6">
         <v>953</v>
       </c>
-      <c r="F175" s="5">
+      <c r="G175" s="5">
         <v>2729</v>
       </c>
-      <c r="G175" s="7">
-        <f>F175+E175</f>
+      <c r="H175" s="7">
+        <f>G175+F175</f>
         <v>3682</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -5574,18 +6845,22 @@
       <c r="D176" s="5">
         <v>2759</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.272997584092174</v>
+      </c>
+      <c r="F176" s="5">
         <v>2118</v>
       </c>
-      <c r="F176" s="5">
+      <c r="G176" s="5">
         <v>3263</v>
       </c>
-      <c r="G176" s="7">
-        <f>F176+E176</f>
+      <c r="H176" s="7">
+        <f>G176+F176</f>
         <v>5381</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -5598,18 +6873,22 @@
       <c r="D177" s="5">
         <v>2241</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.450247636199911</v>
+      </c>
+      <c r="F177" s="5">
         <v>1156</v>
       </c>
-      <c r="F177" s="5">
+      <c r="G177" s="5">
         <v>3286</v>
       </c>
-      <c r="G177" s="7">
-        <f>F177+E177</f>
+      <c r="H177" s="7">
+        <f>G177+F177</f>
         <v>4442</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -5622,18 +6901,22 @@
       <c r="D178" s="5">
         <v>2647</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.248789932236207</v>
+      </c>
+      <c r="F178" s="5">
         <v>1827</v>
       </c>
-      <c r="F178" s="5">
+      <c r="G178" s="5">
         <v>3338</v>
       </c>
-      <c r="G178" s="7">
-        <f>F178+E178</f>
+      <c r="H178" s="7">
+        <f>G178+F178</f>
         <v>5165</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5646,18 +6929,22 @@
       <c r="D179" s="5">
         <v>5123</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.888990175225359</v>
+      </c>
+      <c r="F179" s="5">
         <v>6171</v>
       </c>
-      <c r="F179" s="5">
+      <c r="G179" s="5">
         <v>3703</v>
       </c>
-      <c r="G179" s="7">
-        <f>F179+E179</f>
+      <c r="H179" s="7">
+        <f>G179+F179</f>
         <v>9874</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -5670,18 +6957,22 @@
       <c r="D180" s="5">
         <v>2671</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.558394851410185</v>
+      </c>
+      <c r="F180" s="6">
         <v>759</v>
       </c>
-      <c r="F180" s="5">
+      <c r="G180" s="5">
         <v>4523</v>
       </c>
-      <c r="G180" s="7">
-        <f>F180+E180</f>
+      <c r="H180" s="7">
+        <f>G180+F180</f>
         <v>5282</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -5694,18 +6985,22 @@
       <c r="D181" s="5">
         <v>3714</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.565010211027911</v>
+      </c>
+      <c r="F181" s="5">
         <v>2772</v>
       </c>
-      <c r="F181" s="5">
+      <c r="G181" s="5">
         <v>4573</v>
       </c>
-      <c r="G181" s="7">
-        <f>F181+E181</f>
+      <c r="H181" s="7">
+        <f>G181+F181</f>
         <v>7345</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -5718,18 +7013,22 @@
       <c r="D182" s="5">
         <v>4148</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.727650727650726</v>
+      </c>
+      <c r="F182" s="5">
         <v>2895</v>
       </c>
-      <c r="F182" s="5">
+      <c r="G182" s="5">
         <v>5281</v>
       </c>
-      <c r="G182" s="7">
-        <f>F182+E182</f>
+      <c r="H182" s="7">
+        <f>G182+F182</f>
         <v>8176</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5742,18 +7041,22 @@
       <c r="D183" s="5">
         <v>4249</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.316425120772948</v>
+      </c>
+      <c r="F183" s="5">
         <v>2508</v>
       </c>
-      <c r="F183" s="5">
+      <c r="G183" s="5">
         <v>5771</v>
       </c>
-      <c r="G183" s="7">
-        <f>F183+E183</f>
+      <c r="H183" s="7">
+        <f>G183+F183</f>
         <v>8279</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -5766,18 +7069,22 @@
       <c r="D184" s="5">
         <v>5351</v>
       </c>
-      <c r="E184" s="5">
+      <c r="E184" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.305537275547614</v>
+      </c>
+      <c r="F184" s="5">
         <v>4341</v>
       </c>
-      <c r="F184" s="5">
+      <c r="G184" s="5">
         <v>6296</v>
       </c>
-      <c r="G184" s="7">
-        <f>F184+E184</f>
+      <c r="H184" s="7">
+        <f>G184+F184</f>
         <v>10637</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -5790,18 +7097,22 @@
       <c r="D185" s="5">
         <v>5396</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.781102955015996</v>
+      </c>
+      <c r="F185" s="5">
         <v>4259</v>
       </c>
-      <c r="F185" s="5">
+      <c r="G185" s="5">
         <v>6367</v>
       </c>
-      <c r="G185" s="7">
-        <f>F185+E185</f>
+      <c r="H185" s="7">
+        <f>G185+F185</f>
         <v>10626</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5814,18 +7125,22 @@
       <c r="D186" s="5">
         <v>5259</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>52.198511166253098</v>
+      </c>
+      <c r="F186" s="5">
         <v>3379</v>
       </c>
-      <c r="F186" s="5">
+      <c r="G186" s="5">
         <v>6696</v>
       </c>
-      <c r="G186" s="7">
-        <f>F186+E186</f>
+      <c r="H186" s="7">
+        <f>G186+F186</f>
         <v>10075</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -5838,18 +7153,22 @@
       <c r="D187" s="5">
         <v>5266</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.310532982558705</v>
+      </c>
+      <c r="F187" s="5">
         <v>3480</v>
       </c>
-      <c r="F187" s="5">
+      <c r="G187" s="5">
         <v>6782</v>
       </c>
-      <c r="G187" s="7">
-        <f>F187+E187</f>
+      <c r="H187" s="7">
+        <f>G187+F187</f>
         <v>10262</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -5862,18 +7181,22 @@
       <c r="D188" s="5">
         <v>4484</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.427350427350426</v>
+      </c>
+      <c r="F188" s="5">
         <v>1487</v>
       </c>
-      <c r="F188" s="5">
+      <c r="G188" s="5">
         <v>7405</v>
       </c>
-      <c r="G188" s="7">
-        <f>F188+E188</f>
+      <c r="H188" s="7">
+        <f>G188+F188</f>
         <v>8892</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5886,18 +7209,22 @@
       <c r="D189" s="5">
         <v>5449</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>53.031630170316305</v>
+      </c>
+      <c r="F189" s="5">
         <v>2698</v>
       </c>
-      <c r="F189" s="5">
+      <c r="G189" s="5">
         <v>7576</v>
       </c>
-      <c r="G189" s="7">
-        <f>F189+E189</f>
+      <c r="H189" s="7">
+        <f>G189+F189</f>
         <v>10274</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5910,18 +7237,22 @@
       <c r="D190" s="5">
         <v>5180</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.024428684003155</v>
+      </c>
+      <c r="F190" s="6">
         <v>276</v>
       </c>
-      <c r="F190" s="5">
+      <c r="G190" s="5">
         <v>9876</v>
       </c>
-      <c r="G190" s="7">
-        <f>F190+E190</f>
+      <c r="H190" s="7">
+        <f>G190+F190</f>
         <v>10152</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -5934,18 +7265,22 @@
       <c r="D191" s="5">
         <v>5398</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.025616787976176</v>
+      </c>
+      <c r="F191" s="6">
         <v>317</v>
       </c>
-      <c r="F191" s="5">
+      <c r="G191" s="5">
         <v>10262</v>
       </c>
-      <c r="G191" s="7">
-        <f>F191+E191</f>
+      <c r="H191" s="7">
+        <f>G191+F191</f>
         <v>10579</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -5958,18 +7293,22 @@
       <c r="D192" s="5">
         <v>11400</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.888313543433625</v>
+      </c>
+      <c r="F192" s="5">
         <v>9469</v>
       </c>
-      <c r="F192" s="5">
+      <c r="G192" s="5">
         <v>12933</v>
       </c>
-      <c r="G192" s="7">
-        <f>F192+E192</f>
+      <c r="H192" s="7">
+        <f>G192+F192</f>
         <v>22402</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -5982,18 +7321,22 @@
       <c r="D193" s="5">
         <v>7945</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.492532570702259</v>
+      </c>
+      <c r="F193" s="5">
         <v>1687</v>
       </c>
-      <c r="F193" s="5">
+      <c r="G193" s="5">
         <v>14048</v>
       </c>
-      <c r="G193" s="7">
-        <f>F193+E193</f>
+      <c r="H193" s="7">
+        <f>G193+F193</f>
         <v>15735</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6006,18 +7349,22 @@
       <c r="D194" s="5">
         <v>19909</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.390000258124466</v>
+      </c>
+      <c r="F194" s="5">
         <v>13492</v>
       </c>
-      <c r="F194" s="5">
+      <c r="G194" s="5">
         <v>25248</v>
       </c>
-      <c r="G194" s="7">
-        <f>F194+E194</f>
+      <c r="H194" s="7">
+        <f>G194+F194</f>
         <v>38740</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -6030,18 +7377,22 @@
       <c r="D195" s="5">
         <v>20250</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.093785481795472</v>
+      </c>
+      <c r="F195" s="5">
         <v>8962</v>
       </c>
-      <c r="F195" s="5">
+      <c r="G195" s="5">
         <v>30672</v>
       </c>
-      <c r="G195" s="7">
-        <f>F195+E195</f>
+      <c r="H195" s="7">
+        <f>G195+F195</f>
         <v>39634</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6054,18 +7405,22 @@
       <c r="D196" s="5">
         <v>27075</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>53.446642188795451</v>
+      </c>
+      <c r="F196" s="5">
         <v>14166</v>
       </c>
-      <c r="F196" s="5">
+      <c r="G196" s="5">
         <v>36492</v>
       </c>
-      <c r="G196" s="7">
-        <f>F196+E196</f>
+      <c r="H196" s="7">
+        <f>G196+F196</f>
         <v>50658</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -6078,18 +7433,22 @@
       <c r="D197" s="5">
         <v>29513</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.467485133320544</v>
+      </c>
+      <c r="F197" s="5">
         <v>18969</v>
       </c>
-      <c r="F197" s="5">
+      <c r="G197" s="5">
         <v>38374</v>
       </c>
-      <c r="G197" s="7">
-        <f>F197+E197</f>
+      <c r="H197" s="7">
+        <f>G197+F197</f>
         <v>57343</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -6102,18 +7461,22 @@
       <c r="D198" s="5">
         <v>30181</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.253269028291953</v>
+      </c>
+      <c r="F198" s="5">
         <v>14495</v>
       </c>
-      <c r="F198" s="5">
+      <c r="G198" s="5">
         <v>44391</v>
       </c>
-      <c r="G198" s="7">
-        <f>F198+E198</f>
+      <c r="H198" s="7">
+        <f>G198+F198</f>
         <v>58886</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6126,18 +7489,22 @@
       <c r="D199" s="5">
         <v>30027</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.915657747481944</v>
+      </c>
+      <c r="F199" s="5">
         <v>6335</v>
       </c>
-      <c r="F199" s="5">
+      <c r="G199" s="5">
         <v>52639</v>
       </c>
-      <c r="G199" s="7">
-        <f>F199+E199</f>
+      <c r="H199" s="7">
+        <f>G199+F199</f>
         <v>58974</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -6150,18 +7517,22 @@
       <c r="D200" s="5">
         <v>41980</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>51.084853426141137</v>
+      </c>
+      <c r="F200" s="5">
         <v>10411</v>
       </c>
-      <c r="F200" s="5">
+      <c r="G200" s="5">
         <v>71767</v>
       </c>
-      <c r="G200" s="7">
-        <f>F200+E200</f>
+      <c r="H200" s="7">
+        <f>G200+F200</f>
         <v>82178</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -6174,18 +7545,22 @@
       <c r="D201" s="5">
         <v>78368</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>53.240938890587316</v>
+      </c>
+      <c r="F201" s="5">
         <v>33375</v>
       </c>
-      <c r="F201" s="5">
+      <c r="G201" s="5">
         <v>113821</v>
       </c>
-      <c r="G201" s="7">
-        <f>F201+E201</f>
+      <c r="H201" s="7">
+        <f>G201+F201</f>
         <v>147196</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -6198,18 +7573,22 @@
       <c r="D202" s="5">
         <v>9413</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.334206726913003</v>
+      </c>
+      <c r="F202" s="5">
         <v>2863</v>
       </c>
-      <c r="F202" s="5">
+      <c r="G202" s="5">
         <v>15838</v>
       </c>
-      <c r="G202" s="7">
-        <f>F202+E202</f>
+      <c r="H202" s="7">
+        <f>G202+F202</f>
         <v>18701</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -6222,18 +7601,22 @@
       <c r="D203" s="6">
         <v>1</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F203" s="6">
         <v>7</v>
       </c>
-      <c r="F203" s="6">
+      <c r="G203" s="6">
         <v>13</v>
       </c>
-      <c r="G203" s="7">
-        <f>F203+E203</f>
+      <c r="H203" s="7">
+        <f>G203+F203</f>
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -6246,18 +7629,22 @@
       <c r="D204" s="6">
         <v>396</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>49.131513647642677</v>
+      </c>
+      <c r="F204" s="6">
         <v>468</v>
       </c>
-      <c r="F204" s="6">
+      <c r="G204" s="6">
         <v>338</v>
       </c>
-      <c r="G204" s="7">
-        <f>F204+E204</f>
+      <c r="H204" s="7">
+        <f>G204+F204</f>
         <v>806</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -6270,18 +7657,22 @@
       <c r="D205" s="6">
         <v>78</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>47.272727272727273</v>
+      </c>
+      <c r="F205" s="6">
         <v>100</v>
       </c>
-      <c r="F205" s="6">
+      <c r="G205" s="6">
         <v>65</v>
       </c>
-      <c r="G205" s="7">
-        <f>F205+E205</f>
+      <c r="H205" s="7">
+        <f>G205+F205</f>
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -6294,18 +7685,22 @@
       <c r="D206" s="6">
         <v>1</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F206" s="6">
         <v>52</v>
       </c>
-      <c r="F206" s="6">
+      <c r="G206" s="6">
         <v>30</v>
       </c>
-      <c r="G206" s="7">
-        <f>F206+E206</f>
+      <c r="H206" s="7">
+        <f>G206+F206</f>
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -6318,18 +7713,22 @@
       <c r="D207" s="6">
         <v>1</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F207" s="6">
         <v>34</v>
       </c>
-      <c r="F207" s="6">
+      <c r="G207" s="6">
         <v>40</v>
       </c>
-      <c r="G207" s="7">
-        <f>F207+E207</f>
+      <c r="H207" s="7">
+        <f>G207+F207</f>
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -6342,18 +7741,22 @@
       <c r="D208" s="6">
         <v>1</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F208" s="6">
         <v>18</v>
       </c>
-      <c r="F208" s="6">
+      <c r="G208" s="6">
         <v>45</v>
       </c>
-      <c r="G208" s="7">
-        <f>F208+E208</f>
+      <c r="H208" s="7">
+        <f>G208+F208</f>
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -6366,18 +7769,22 @@
       <c r="D209" s="6">
         <v>1</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F209" s="6">
         <v>82</v>
       </c>
-      <c r="F209" s="6">
+      <c r="G209" s="6">
         <v>34</v>
       </c>
-      <c r="G209" s="7">
-        <f>F209+E209</f>
+      <c r="H209" s="7">
+        <f>G209+F209</f>
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -6390,18 +7797,22 @@
       <c r="D210" s="6">
         <v>1</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F210" s="6">
         <v>0</v>
       </c>
-      <c r="F210" s="6">
+      <c r="G210" s="6">
         <v>11</v>
       </c>
-      <c r="G210" s="7">
-        <f>F210+E210</f>
+      <c r="H210" s="7">
+        <f>G210+F210</f>
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -6414,18 +7825,22 @@
       <c r="D211" s="6">
         <v>1</v>
       </c>
-      <c r="E211" s="6">
-        <v>1</v>
+      <c r="E211" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
       </c>
       <c r="F211" s="6">
         <v>1</v>
       </c>
-      <c r="G211" s="7">
-        <f>F211+E211</f>
+      <c r="G211" s="6">
+        <v>1</v>
+      </c>
+      <c r="H211" s="7">
+        <f>G211+F211</f>
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -6438,18 +7853,22 @@
       <c r="D212" s="6">
         <v>103</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.81516587677725</v>
+      </c>
+      <c r="F212" s="6">
         <v>76</v>
       </c>
-      <c r="F212" s="6">
+      <c r="G212" s="6">
         <v>134</v>
       </c>
-      <c r="G212" s="7">
-        <f>F212+E212</f>
+      <c r="H212" s="7">
+        <f>G212+F212</f>
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -6462,18 +7881,22 @@
       <c r="D213" s="5">
         <v>1942</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50.731452455590386</v>
+      </c>
+      <c r="F213" s="6">
         <v>509</v>
       </c>
-      <c r="F213" s="5">
+      <c r="G213" s="5">
         <v>3320</v>
       </c>
-      <c r="G213" s="7">
-        <f>F213+E213</f>
+      <c r="H213" s="7">
+        <f>G213+F213</f>
         <v>3829</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -6486,18 +7909,22 @@
       <c r="D214" s="6">
         <v>1</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F214" s="6">
         <v>5</v>
       </c>
-      <c r="F214" s="6">
+      <c r="G214" s="6">
         <v>14</v>
       </c>
-      <c r="G214" s="7">
-        <f>F214+E214</f>
+      <c r="H214" s="7">
+        <f>G214+F214</f>
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -6510,18 +7937,22 @@
       <c r="D215" s="5">
         <v>2279</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.468736707783918</v>
+      </c>
+      <c r="F215" s="5">
         <v>3897</v>
       </c>
-      <c r="F215" s="6">
+      <c r="G215" s="6">
         <v>806</v>
       </c>
-      <c r="G215" s="7">
-        <f>F215+E215</f>
+      <c r="H215" s="7">
+        <f>G215+F215</f>
         <v>4703</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -6534,18 +7965,22 @@
       <c r="D216" s="6">
         <v>112</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.484848484848484</v>
+      </c>
+      <c r="F216" s="6">
         <v>100</v>
       </c>
-      <c r="F216" s="6">
+      <c r="G216" s="6">
         <v>132</v>
       </c>
-      <c r="G216" s="7">
-        <f>F216+E216</f>
+      <c r="H216" s="7">
+        <f>G216+F216</f>
         <v>232</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -6558,18 +7993,22 @@
       <c r="D217" s="6">
         <v>209</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.604651162790695</v>
+      </c>
+      <c r="F217" s="6">
         <v>348</v>
       </c>
-      <c r="F217" s="6">
+      <c r="G217" s="6">
         <v>82</v>
       </c>
-      <c r="G217" s="7">
-        <f>F217+E217</f>
+      <c r="H217" s="7">
+        <f>G217+F217</f>
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -6582,18 +8021,22 @@
       <c r="D218" s="6">
         <v>85</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>48.022598870056498</v>
+      </c>
+      <c r="F218" s="6">
         <v>139</v>
       </c>
-      <c r="F218" s="6">
+      <c r="G218" s="6">
         <v>38</v>
       </c>
-      <c r="G218" s="7">
-        <f>F218+E218</f>
+      <c r="H218" s="7">
+        <f>G218+F218</f>
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -6606,18 +8049,22 @@
       <c r="D219" s="6">
         <v>1</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F219" s="6">
         <v>32</v>
       </c>
-      <c r="F219" s="6">
+      <c r="G219" s="6">
         <v>34</v>
       </c>
-      <c r="G219" s="7">
-        <f>F219+E219</f>
+      <c r="H219" s="7">
+        <f>G219+F219</f>
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -6630,18 +8077,22 @@
       <c r="D220" s="6">
         <v>1</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F220" s="6">
         <v>1</v>
       </c>
-      <c r="F220" s="6">
+      <c r="G220" s="6">
         <v>0</v>
       </c>
-      <c r="G220" s="7">
-        <f>F220+E220</f>
+      <c r="H220" s="7">
+        <f>G220+F220</f>
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -6654,18 +8105,22 @@
       <c r="D221" s="6">
         <v>1</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F221" s="6">
         <v>54</v>
       </c>
-      <c r="F221" s="6">
+      <c r="G221" s="6">
         <v>44</v>
       </c>
-      <c r="G221" s="7">
-        <f>F221+E221</f>
+      <c r="H221" s="7">
+        <f>G221+F221</f>
         <v>98</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -6678,18 +8133,22 @@
       <c r="D222" s="6">
         <v>1</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F222" s="6">
         <v>6</v>
       </c>
-      <c r="F222" s="6">
+      <c r="G222" s="6">
         <v>5</v>
       </c>
-      <c r="G222" s="7">
-        <f>F222+E222</f>
+      <c r="H222" s="7">
+        <f>G222+F222</f>
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -6702,18 +8161,22 @@
       <c r="D223" s="6">
         <v>93</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>50</v>
+      </c>
+      <c r="F223" s="6">
         <v>149</v>
       </c>
-      <c r="F223" s="6">
+      <c r="G223" s="6">
         <v>36</v>
       </c>
-      <c r="G223" s="7">
-        <f>F223+E223</f>
+      <c r="H223" s="7">
+        <f>G223+F223</f>
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -6726,18 +8189,22 @@
       <c r="D224" s="6">
         <v>1</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="13">
+        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>100</v>
+      </c>
+      <c r="F224" s="6">
         <v>14</v>
       </c>
-      <c r="F224" s="6">
+      <c r="G224" s="6">
         <v>0</v>
       </c>
-      <c r="G224" s="7">
-        <f>F224+E224</f>
+      <c r="H224" s="7">
+        <f>G224+F224</f>
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="10" t="s">
         <v>241</v>
       </c>
@@ -6747,13 +8214,14 @@
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
-      <c r="H226" s="10" t="s">
+      <c r="G226" s="10"/>
+      <c r="I226" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I226" s="10"/>
       <c r="J226" s="10"/>
-    </row>
-    <row r="227" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K226" s="10"/>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>235</v>
       </c>
@@ -6764,19 +8232,20 @@
       <c r="D227" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F227" s="9">
+      <c r="E227" s="8"/>
+      <c r="G227" s="9">
         <f>MAX(Poblacion[Mujeres])-MIN(Poblacion[Mujeres])</f>
         <v>618474</v>
       </c>
-      <c r="H227" s="8" t="s">
+      <c r="I227" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J227" s="11">
+      <c r="K227" s="11">
         <f>(AVERAGE(Poblacion[Total])-MODE(Poblacion[Total]))/_xlfn.STDEV.P(Poblacion[Total])</f>
         <v>0.23998237365523298</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>236</v>
       </c>
@@ -6787,19 +8256,20 @@
       <c r="D228" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F228" s="9">
+      <c r="E228" s="8"/>
+      <c r="G228" s="9">
         <f>QUARTILE(Poblacion[Mujeres],3)-QUARTILE(Poblacion[Mujeres],1)</f>
         <v>7583.5</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="I228" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J228" s="11">
+      <c r="K228" s="11">
         <f>(QUARTILE(Poblacion[Total],3)+QUARTILE(Poblacion[Total],1)-2*MEDIAN(Poblacion[Total]))/(QUARTILE(Poblacion[Total],3)-QUARTILE(Poblacion[Total],1))</f>
         <v>0.46130295947591926</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>237</v>
       </c>
@@ -6810,19 +8280,20 @@
       <c r="D229" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F229" s="9">
+      <c r="E229" s="8"/>
+      <c r="G229" s="9">
         <f>_xlfn.VAR.P(Poblacion[Mujeres])</f>
         <v>2961608666.7171268</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="I229" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J229" s="11">
+      <c r="K229" s="11">
         <f>SKEW(Poblacion[Total])</f>
         <v>9.308138992992891</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>238</v>
       </c>
@@ -6833,19 +8304,20 @@
       <c r="D230" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F230" s="9">
+      <c r="E230" s="8"/>
+      <c r="G230" s="9">
         <f>_xlfn.STDEV.P(Poblacion[Mujeres])</f>
         <v>54420.663967992223</v>
       </c>
-      <c r="H230" s="8" t="s">
+      <c r="I230" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="J230" s="11">
+      <c r="K230" s="11">
         <f>KURT(Poblacion[Total])</f>
         <v>94.087876378324253</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>239</v>
       </c>
@@ -6856,12 +8328,13 @@
       <c r="D231" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F231" s="9">
+      <c r="E231" s="8"/>
+      <c r="G231" s="9">
         <f>STDEVP(Poblacion[Mujeres])/AVERAGE(Poblacion[Mujeres])</f>
         <v>4.0834276249668617</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>240</v>
       </c>
@@ -6870,7 +8343,7 @@
         <v>2536.2699728417242</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>242</v>
       </c>
@@ -6879,7 +8352,7 @@
         <v>63.023467423566082</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>243</v>
       </c>
@@ -6888,7 +8361,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>244</v>
       </c>
@@ -6897,7 +8370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>245</v>
       </c>
@@ -6912,8 +8385,8 @@
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A226:B226"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="I226:K226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04/PoblacionMundial.xlsx
+++ b/04/PoblacionMundial.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estadística descriptiva" sheetId="2" r:id="rId1"/>
-    <sheet name="PoblaciónMundial" sheetId="1" r:id="rId2"/>
+    <sheet name="Histograma" sheetId="5" r:id="rId2"/>
+    <sheet name="PoblaciónMundial" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
   <si>
     <t>Continente</t>
   </si>
@@ -835,17 +836,30 @@
   </si>
   <si>
     <t>Nivel de confianza(95,0%)</t>
+  </si>
+  <si>
+    <t>Clases histograma</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>y mayor...</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +902,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -917,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -931,6 +953,15 @@
       <top/>
       <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,7 +1107,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,36 +1134,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
@@ -1157,7 +1196,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1260,6 +1299,244 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histograma!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49,0%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49,5%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50,0%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50,5%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51,0%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histograma!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-027A-4D5D-A89A-68844F306CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="483037768"/>
+        <c:axId val="483039736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483037768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483039736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483039736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483037768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Poblacion" displayName="Poblacion" ref="A1:H224" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:H224"/>
@@ -1272,7 +1549,7 @@
     <tableColumn id="3" name="Hombres" dataDxfId="5"/>
     <tableColumn id="4" name="Mujeres" dataDxfId="2"/>
     <tableColumn id="8" name="% Femenino" dataDxfId="0">
-      <calculatedColumnFormula>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</calculatedColumnFormula>
+      <calculatedColumnFormula>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Rural" dataDxfId="1"/>
     <tableColumn id="6" name="Urbana" dataDxfId="4"/>
@@ -1549,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1564,344 +1841,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>13519.645739910315</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>13327.201793721973</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <v>58.840689868460927</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>3856.1152219817864</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <v>3652.475815088565</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="21">
         <v>1.2776763246106009</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>2237</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>2283</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <v>50.552050473186121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>57584.080152065639</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <v>54543.095312761026</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="19">
         <v>19.079776316165532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <v>3315926286.9595199</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <v>2974949246.2969337</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>364.03786427491116</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>95.33835253048251</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <v>92.69981727428808</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="19">
         <v>0.9281006036206163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>9.3929728260954928</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <v>9.2144021388947674</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>1.6825885044405495</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>655632</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>618474</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>65.36502546689303</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <v>0</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>34.634974533106963</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>655632</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>618475</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="19">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>3014881</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>2971966</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="21">
         <v>13121.473840666788</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <v>223</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>223</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>655632</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <v>618475</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>34.634974533106963</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>7599.2747851670738</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>7197.961100023942</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>2.5179261817358998</v>
       </c>
     </row>
@@ -1917,10 +2194,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="B2" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>0.495</v>
+      </c>
+      <c r="B3" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>0.505</v>
+      </c>
+      <c r="B5" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="B6" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="13">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A6">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K244"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240:A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,9 +2325,9 @@
       <c r="D2" s="3">
         <v>6310</v>
       </c>
-      <c r="E2" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.56900144253887</v>
+      <c r="E2" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50569001442538863</v>
       </c>
       <c r="F2" s="3">
         <v>8295</v>
@@ -2001,9 +2353,9 @@
       <c r="D3" s="3">
         <v>15199</v>
       </c>
-      <c r="E3" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.389094690322999</v>
+      <c r="E3" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49389094690322999</v>
       </c>
       <c r="F3" s="3">
         <v>12763</v>
@@ -2029,9 +2381,9 @@
       <c r="D4" s="3">
         <v>3011</v>
       </c>
-      <c r="E4" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.715849755768907</v>
+      <c r="E4" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50715849755768905</v>
       </c>
       <c r="F4" s="3">
         <v>3475</v>
@@ -2057,9 +2409,9 @@
       <c r="D5" s="4">
         <v>813</v>
       </c>
-      <c r="E5" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.907952410770193</v>
+      <c r="E5" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50907952410770196</v>
       </c>
       <c r="F5" s="4">
         <v>469</v>
@@ -2085,9 +2437,9 @@
       <c r="D6" s="3">
         <v>5819</v>
       </c>
-      <c r="E6" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.094696969696969</v>
+      <c r="E6" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50094696969696972</v>
       </c>
       <c r="F6" s="3">
         <v>9535</v>
@@ -2113,9 +2465,9 @@
       <c r="D7" s="3">
         <v>3353</v>
       </c>
-      <c r="E7" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.073876618431072</v>
+      <c r="E7" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51073876618431069</v>
       </c>
       <c r="F7" s="3">
         <v>5997</v>
@@ -2141,9 +2493,9 @@
       <c r="D8" s="4">
         <v>223</v>
       </c>
-      <c r="E8" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>53.349282296650721</v>
+      <c r="E8" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.53349282296650713</v>
       </c>
       <c r="F8" s="4">
         <v>165</v>
@@ -2169,9 +2521,9 @@
       <c r="D9" s="3">
         <v>7390</v>
       </c>
-      <c r="E9" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.299482711679829</v>
+      <c r="E9" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50299482711679822</v>
       </c>
       <c r="F9" s="3">
         <v>7633</v>
@@ -2197,9 +2549,9 @@
       <c r="D10" s="3">
         <v>1824</v>
       </c>
-      <c r="E10" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.394759087066781</v>
+      <c r="E10" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51394759087066777</v>
       </c>
       <c r="F10" s="3">
         <v>2103</v>
@@ -2225,9 +2577,9 @@
       <c r="D11" s="3">
         <v>3771</v>
       </c>
-      <c r="E11" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.563153660498791</v>
+      <c r="E11" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50563153660498794</v>
       </c>
       <c r="F11" s="3">
         <v>5708</v>
@@ -2253,9 +2605,9 @@
       <c r="D12" s="4">
         <v>338</v>
       </c>
-      <c r="E12" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50</v>
+      <c r="E12" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5</v>
       </c>
       <c r="F12" s="4">
         <v>455</v>
@@ -2281,9 +2633,9 @@
       <c r="D13" s="3">
         <v>1464</v>
       </c>
-      <c r="E13" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.117318435754193</v>
+      <c r="E13" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51117318435754189</v>
       </c>
       <c r="F13" s="3">
         <v>1097</v>
@@ -2309,9 +2661,9 @@
       <c r="D14" s="3">
         <v>25432</v>
       </c>
-      <c r="E14" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.524475524475527</v>
+      <c r="E14" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50524475524475521</v>
       </c>
       <c r="F14" s="3">
         <v>35254</v>
@@ -2337,9 +2689,9 @@
       <c r="D15" s="3">
         <v>7133</v>
       </c>
-      <c r="E15" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.101672747298132</v>
+      <c r="E15" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49101672747298136</v>
       </c>
       <c r="F15" s="3">
         <v>7860</v>
@@ -2365,9 +2717,9 @@
       <c r="D16" s="4">
         <v>321</v>
       </c>
-      <c r="E16" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.033386327503976</v>
+      <c r="E16" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51033386327503971</v>
       </c>
       <c r="F16" s="4">
         <v>107</v>
@@ -2393,9 +2745,9 @@
       <c r="D17" s="3">
         <v>33130</v>
       </c>
-      <c r="E17" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.281527980245741</v>
+      <c r="E17" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49281527980245737</v>
       </c>
       <c r="F17" s="3">
         <v>36519</v>
@@ -2421,9 +2773,9 @@
       <c r="D18" s="3">
         <v>1874</v>
       </c>
-      <c r="E18" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.376344086021504</v>
+      <c r="E18" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50376344086021507</v>
       </c>
       <c r="F18" s="3">
         <v>3035</v>
@@ -2449,9 +2801,9 @@
       <c r="D19" s="3">
         <v>30436</v>
       </c>
-      <c r="E19" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.817497340207872</v>
+      <c r="E19" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49817497340207872</v>
       </c>
       <c r="F19" s="3">
         <v>50600</v>
@@ -2477,9 +2829,9 @@
       <c r="D20" s="4">
         <v>605</v>
       </c>
-      <c r="E20" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.543024227234753</v>
+      <c r="E20" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50543024227234756</v>
       </c>
       <c r="F20" s="4">
         <v>549</v>
@@ -2505,9 +2857,9 @@
       <c r="D21" s="4">
         <v>641</v>
       </c>
-      <c r="E21" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.552050473186121</v>
+      <c r="E21" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50552050473186116</v>
       </c>
       <c r="F21" s="4">
         <v>865</v>
@@ -2533,9 +2885,9 @@
       <c r="D22" s="3">
         <v>9885</v>
       </c>
-      <c r="E22" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.233763593861163</v>
+      <c r="E22" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50233763593861169</v>
       </c>
       <c r="F22" s="3">
         <v>12230</v>
@@ -2561,9 +2913,9 @@
       <c r="D23" s="3">
         <v>3658</v>
       </c>
-      <c r="E23" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.707840739230875</v>
+      <c r="E23" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49707840739230874</v>
       </c>
       <c r="F23" s="3">
         <v>5002</v>
@@ -2589,9 +2941,9 @@
       <c r="D24" s="4">
         <v>224</v>
       </c>
-      <c r="E24" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.678733031674206</v>
+      <c r="E24" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50678733031674206</v>
       </c>
       <c r="F24" s="4">
         <v>234</v>
@@ -2617,9 +2969,9 @@
       <c r="D25" s="4">
         <v>603</v>
       </c>
-      <c r="E25" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.800336983993262</v>
+      <c r="E25" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50800336983993255</v>
       </c>
       <c r="F25" s="4">
         <v>910</v>
@@ -2645,9 +2997,9 @@
       <c r="D26" s="3">
         <v>14744</v>
       </c>
-      <c r="E26" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.896781616975197</v>
+      <c r="E26" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49896781616975194</v>
       </c>
       <c r="F26" s="3">
         <v>20050</v>
@@ -2673,9 +3025,9 @@
       <c r="D27" s="3">
         <v>1070</v>
       </c>
-      <c r="E27" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.759013282732447</v>
+      <c r="E27" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50759013282732446</v>
       </c>
       <c r="F27" s="3">
         <v>1536</v>
@@ -2701,9 +3053,9 @@
       <c r="D28" s="3">
         <v>1459</v>
       </c>
-      <c r="E28" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.795221843003411</v>
+      <c r="E28" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49795221843003412</v>
       </c>
       <c r="F28" s="3">
         <v>1544</v>
@@ -2729,9 +3081,9 @@
       <c r="D29" s="3">
         <v>2635</v>
       </c>
-      <c r="E29" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.171846435100548</v>
+      <c r="E29" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48171846435100546</v>
       </c>
       <c r="F29" s="4">
         <v>702</v>
@@ -2757,9 +3109,9 @@
       <c r="D30" s="3">
         <v>7804</v>
       </c>
-      <c r="E30" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.361383582860093</v>
+      <c r="E30" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50361383582860098</v>
       </c>
       <c r="F30" s="3">
         <v>11024</v>
@@ -2785,9 +3137,9 @@
       <c r="D31" s="3">
         <v>5366</v>
       </c>
-      <c r="E31" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.432330827067666</v>
+      <c r="E31" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50432330827067673</v>
       </c>
       <c r="F31" s="3">
         <v>9050</v>
@@ -2813,9 +3165,9 @@
       <c r="D32" s="3">
         <v>5551</v>
       </c>
-      <c r="E32" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.647810218978101</v>
+      <c r="E32" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50647810218978107</v>
       </c>
       <c r="F32" s="3">
         <v>7741</v>
@@ -2841,9 +3193,9 @@
       <c r="D33" s="3">
         <v>13920</v>
       </c>
-      <c r="E33" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.953348166224075</v>
+      <c r="E33" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49953348166224071</v>
       </c>
       <c r="F33" s="3">
         <v>12649</v>
@@ -2869,9 +3221,9 @@
       <c r="D34" s="4">
         <v>576</v>
       </c>
-      <c r="E34" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.130548302872064</v>
+      <c r="E34" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50130548302872058</v>
       </c>
       <c r="F34" s="4">
         <v>677</v>
@@ -2897,9 +3249,9 @@
       <c r="D35" s="3">
         <v>1310</v>
       </c>
-      <c r="E35" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.423402617397997</v>
+      <c r="E35" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50423402617397994</v>
       </c>
       <c r="F35" s="3">
         <v>1134</v>
@@ -2925,9 +3277,9 @@
       <c r="D36" s="3">
         <v>9761</v>
       </c>
-      <c r="E36" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.611842787514256</v>
+      <c r="E36" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50611842787514261</v>
       </c>
       <c r="F36" s="3">
         <v>11792</v>
@@ -2953,9 +3305,9 @@
       <c r="D37" s="4">
         <v>850</v>
       </c>
-      <c r="E37" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.147492625368734</v>
+      <c r="E37" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50147492625368728</v>
       </c>
       <c r="F37" s="3">
         <v>1020</v>
@@ -2981,9 +3333,9 @@
       <c r="D38" s="3">
         <v>5256</v>
       </c>
-      <c r="E38" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.53360253821748</v>
+      <c r="E38" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50533602538217481</v>
       </c>
       <c r="F38" s="3">
         <v>8313</v>
@@ -3009,9 +3361,9 @@
       <c r="D39" s="3">
         <v>54912</v>
       </c>
-      <c r="E39" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.403414566983344</v>
+      <c r="E39" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5040341456698334</v>
       </c>
       <c r="F39" s="3">
         <v>62031</v>
@@ -3037,9 +3389,9 @@
       <c r="D40" s="4">
         <v>353</v>
       </c>
-      <c r="E40" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.085383502170764</v>
+      <c r="E40" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51085383502170767</v>
       </c>
       <c r="F40" s="4">
         <v>206</v>
@@ -3065,9 +3417,9 @@
       <c r="D41" s="3">
         <v>3663</v>
       </c>
-      <c r="E41" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.628887353144435</v>
+      <c r="E41" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50628887353144436</v>
       </c>
       <c r="F41" s="3">
         <v>6797</v>
@@ -3093,9 +3445,9 @@
       <c r="D42" s="4">
         <v>143</v>
       </c>
-      <c r="E42" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.352112676056336</v>
+      <c r="E42" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50352112676056338</v>
       </c>
       <c r="F42" s="4">
         <v>14</v>
@@ -3121,9 +3473,9 @@
       <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E43" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E43" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -3149,9 +3501,9 @@
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E44" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F44" s="4">
         <v>78</v>
@@ -3177,9 +3529,9 @@
       <c r="D45" s="3">
         <v>4632</v>
       </c>
-      <c r="E45" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.129870129870127</v>
+      <c r="E45" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50129870129870124</v>
       </c>
       <c r="F45" s="3">
         <v>4960</v>
@@ -3205,9 +3557,9 @@
       <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E46" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F46" s="4">
         <v>32</v>
@@ -3233,9 +3585,9 @@
       <c r="D47" s="3">
         <v>2402</v>
       </c>
-      <c r="E47" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.922196311214755</v>
+      <c r="E47" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50922196311214751</v>
       </c>
       <c r="F47" s="3">
         <v>3022</v>
@@ -3261,9 +3613,9 @@
       <c r="D48" s="3">
         <v>4871</v>
       </c>
-      <c r="E48" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.361869313482217</v>
+      <c r="E48" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50361869313482222</v>
       </c>
       <c r="F48" s="3">
         <v>7050</v>
@@ -3289,9 +3641,9 @@
       <c r="D49" s="3">
         <v>20303</v>
       </c>
-      <c r="E49" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.884711779448622</v>
+      <c r="E49" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50884711779448621</v>
       </c>
       <c r="F49" s="3">
         <v>19892</v>
@@ -3317,9 +3669,9 @@
       <c r="D50" s="3">
         <v>14402</v>
       </c>
-      <c r="E50" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.864967800013851</v>
+      <c r="E50" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49864967800013849</v>
       </c>
       <c r="F50" s="3">
         <v>18742</v>
@@ -3345,9 +3697,9 @@
       <c r="D51" s="4">
         <v>508</v>
       </c>
-      <c r="E51" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.836734693877553</v>
+      <c r="E51" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51836734693877551</v>
       </c>
       <c r="F51" s="4">
         <v>640</v>
@@ -3373,9 +3725,9 @@
       <c r="D52" s="3">
         <v>16541</v>
       </c>
-      <c r="E52" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.442181019760916</v>
+      <c r="E52" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50442181019760912</v>
       </c>
       <c r="F52" s="3">
         <v>23914</v>
@@ -3401,9 +3753,9 @@
       <c r="D53" s="3">
         <v>2275</v>
       </c>
-      <c r="E53" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.421099290780141</v>
+      <c r="E53" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50421099290780147</v>
       </c>
       <c r="F53" s="3">
         <v>3035</v>
@@ -3429,9 +3781,9 @@
       <c r="D54" s="3">
         <v>4682</v>
       </c>
-      <c r="E54" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.492600422832979</v>
+      <c r="E54" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49492600422832983</v>
       </c>
       <c r="F54" s="3">
         <v>3331</v>
@@ -3457,9 +3809,9 @@
       <c r="D55" s="3">
         <v>10620</v>
       </c>
-      <c r="E55" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.229390341957149</v>
+      <c r="E55" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50229390341957147</v>
       </c>
       <c r="F55" s="3">
         <v>18221</v>
@@ -3485,9 +3837,9 @@
       <c r="D56" s="3">
         <v>4537</v>
       </c>
-      <c r="E56" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.54590017825312</v>
+      <c r="E56" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50545900178253123</v>
       </c>
       <c r="F56" s="3">
         <v>5006</v>
@@ -3513,9 +3865,9 @@
       <c r="D57" s="3">
         <v>5806</v>
       </c>
-      <c r="E57" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.359961835371671</v>
+      <c r="E57" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50359961835371669</v>
       </c>
       <c r="F57" s="3">
         <v>7543</v>
@@ -3541,9 +3893,9 @@
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E58" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
         <v>7</v>
@@ -3569,9 +3921,9 @@
       <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E59" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
         <v>43</v>
@@ -3597,9 +3949,9 @@
       <c r="D60" s="4">
         <v>111</v>
       </c>
-      <c r="E60" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.627906976744185</v>
+      <c r="E60" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51627906976744187</v>
       </c>
       <c r="F60" s="4">
         <v>65</v>
@@ -3625,9 +3977,9 @@
       <c r="D61" s="3">
         <v>18637</v>
       </c>
-      <c r="E61" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.952784536730732</v>
+      <c r="E61" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50952784536730733</v>
       </c>
       <c r="F61" s="3">
         <v>3988</v>
@@ -3653,9 +4005,9 @@
       <c r="D62" s="4">
         <v>153</v>
       </c>
-      <c r="E62" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.830564784053159</v>
+      <c r="E62" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50830564784053156</v>
       </c>
       <c r="F62" s="4">
         <v>36</v>
@@ -3681,9 +4033,9 @@
       <c r="D63" s="4">
         <v>139</v>
       </c>
-      <c r="E63" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.6728624535316</v>
+      <c r="E63" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51672862453531598</v>
       </c>
       <c r="F63" s="4">
         <v>136</v>
@@ -3709,9 +4061,9 @@
       <c r="D64" s="4">
         <v>116</v>
       </c>
-      <c r="E64" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.361702127659576</v>
+      <c r="E64" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49361702127659574</v>
       </c>
       <c r="F64" s="4">
         <v>126</v>
@@ -3737,9 +4089,9 @@
       <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="E65" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E65" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -3765,9 +4117,9 @@
       <c r="D66" s="3">
         <v>4093</v>
       </c>
-      <c r="E66" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.270203881110291</v>
+      <c r="E66" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50270203881110287</v>
       </c>
       <c r="F66" s="3">
         <v>2935</v>
@@ -3793,9 +4145,9 @@
       <c r="D67" s="3">
         <v>84991</v>
       </c>
-      <c r="E67" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.593494773436198</v>
+      <c r="E67" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50593494773436198</v>
       </c>
       <c r="F67" s="3">
         <v>32439</v>
@@ -3821,9 +4173,9 @@
       <c r="D68" s="4">
         <v>1</v>
       </c>
-      <c r="E68" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E68" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -3849,9 +4201,9 @@
       <c r="D69" s="3">
         <v>15583</v>
       </c>
-      <c r="E69" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.500696762485013</v>
+      <c r="E69" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50500696762485009</v>
       </c>
       <c r="F69" s="3">
         <v>7099</v>
@@ -3877,9 +4229,9 @@
       <c r="D70" s="3">
         <v>7584</v>
       </c>
-      <c r="E70" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.496038351421532</v>
+      <c r="E70" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50496038351421535</v>
       </c>
       <c r="F70" s="3">
         <v>2334</v>
@@ -3905,9 +4257,9 @@
       <c r="D71" s="3">
         <v>21026</v>
       </c>
-      <c r="E71" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.587046482532962</v>
+      <c r="E71" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5058704648253296</v>
       </c>
       <c r="F71" s="3">
         <v>10612</v>
@@ -3933,9 +4285,9 @@
       <c r="D72" s="3">
         <v>1939</v>
       </c>
-      <c r="E72" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.300788202390031</v>
+      <c r="E72" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49300788202390033</v>
       </c>
       <c r="F72" s="3">
         <v>1914</v>
@@ -3961,9 +4313,9 @@
       <c r="D73" s="3">
         <v>5567</v>
       </c>
-      <c r="E73" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.883512544802869</v>
+      <c r="E73" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49883512544802866</v>
       </c>
       <c r="F73" s="3">
         <v>2512</v>
@@ -3989,9 +4341,9 @@
       <c r="D74" s="4">
         <v>1</v>
       </c>
-      <c r="E74" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E74" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F74" s="4">
         <v>21</v>
@@ -4017,9 +4369,9 @@
       <c r="D75" s="3">
         <v>4112</v>
       </c>
-      <c r="E75" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.157202630005976</v>
+      <c r="E75" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49157202630005975</v>
       </c>
       <c r="F75" s="3">
         <v>2968</v>
@@ -4045,9 +4397,9 @@
       <c r="D76" s="3">
         <v>6178</v>
       </c>
-      <c r="E76" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.778422367254855</v>
+      <c r="E76" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49778422367254854</v>
       </c>
       <c r="F76" s="3">
         <v>4754</v>
@@ -4073,9 +4425,9 @@
       <c r="D77" s="3">
         <v>3135</v>
       </c>
-      <c r="E77" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.942476438089045</v>
+      <c r="E77" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50942476438089046</v>
       </c>
       <c r="F77" s="3">
         <v>3304</v>
@@ -4101,9 +4453,9 @@
       <c r="D78" s="3">
         <v>140091</v>
       </c>
-      <c r="E78" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.717365568624892</v>
+      <c r="E78" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50717365568624895</v>
       </c>
       <c r="F78" s="3">
         <v>63543</v>
@@ -4129,9 +4481,9 @@
       <c r="D79" s="4">
         <v>1</v>
       </c>
-      <c r="E79" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E79" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F79" s="4">
         <v>58</v>
@@ -4157,9 +4509,9 @@
       <c r="D80" s="4">
         <v>1</v>
       </c>
-      <c r="E80" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E80" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F80" s="4">
         <v>10</v>
@@ -4185,9 +4537,9 @@
       <c r="D81" s="4">
         <v>230</v>
       </c>
-      <c r="E81" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.111111111111114</v>
+      <c r="E81" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51111111111111107</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -4213,9 +4565,9 @@
       <c r="D82" s="3">
         <v>5497</v>
       </c>
-      <c r="E82" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.567177637511271</v>
+      <c r="E82" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49567177637511273</v>
       </c>
       <c r="F82" s="3">
         <v>6648</v>
@@ -4241,9 +4593,9 @@
       <c r="D83" s="4">
         <v>1</v>
       </c>
-      <c r="E83" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E83" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F83" s="4">
         <v>39</v>
@@ -4269,9 +4621,9 @@
       <c r="D84" s="4">
         <v>433</v>
       </c>
-      <c r="E84" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.643274853801167</v>
+      <c r="E84" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50643274853801168</v>
       </c>
       <c r="F84" s="4">
         <v>533</v>
@@ -4297,9 +4649,9 @@
       <c r="D85" s="3">
         <v>4114</v>
       </c>
-      <c r="E85" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.871769506615557</v>
+      <c r="E85" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50871769506615561</v>
       </c>
       <c r="F85" s="3">
         <v>5318</v>
@@ -4325,9 +4677,9 @@
       <c r="D86" s="3">
         <v>3132</v>
       </c>
-      <c r="E86" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.596199524940616</v>
+      <c r="E86" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49596199524940615</v>
       </c>
       <c r="F86" s="3">
         <v>3394</v>
@@ -4353,9 +4705,9 @@
       <c r="D87" s="3">
         <v>1291</v>
       </c>
-      <c r="E87" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.409996095275282</v>
+      <c r="E87" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50409996095275278</v>
       </c>
       <c r="F87" s="3">
         <v>1137</v>
@@ -4381,9 +4733,9 @@
       <c r="D88" s="4">
         <v>1</v>
       </c>
-      <c r="E88" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E88" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -4409,9 +4761,9 @@
       <c r="D89" s="4">
         <v>202</v>
       </c>
-      <c r="E89" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.530612244897959</v>
+      <c r="E89" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51530612244897955</v>
       </c>
       <c r="F89" s="4">
         <v>21</v>
@@ -4437,9 +4789,9 @@
       <c r="D90" s="3">
         <v>49168</v>
       </c>
-      <c r="E90" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.498120493806873</v>
+      <c r="E90" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50498120493806875</v>
       </c>
       <c r="F90" s="3">
         <v>25126</v>
@@ -4465,9 +4817,9 @@
       <c r="D91" s="4">
         <v>1</v>
       </c>
-      <c r="E91" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E91" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F91" s="4">
         <v>9</v>
@@ -4493,9 +4845,9 @@
       <c r="D92" s="3">
         <v>2483</v>
       </c>
-      <c r="E92" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.283515593357635</v>
+      <c r="E92" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50283515593357631</v>
       </c>
       <c r="F92" s="3">
         <v>1768</v>
@@ -4521,9 +4873,9 @@
       <c r="D93" s="3">
         <v>1393</v>
       </c>
-      <c r="E93" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.537695590327168</v>
+      <c r="E93" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49537695590327169</v>
       </c>
       <c r="F93" s="3">
         <v>1200</v>
@@ -4549,9 +4901,9 @@
       <c r="D94" s="3">
         <v>2657</v>
       </c>
-      <c r="E94" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.580145549542827</v>
+      <c r="E94" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49580145549542826</v>
       </c>
       <c r="F94" s="3">
         <v>2398</v>
@@ -4577,9 +4929,9 @@
       <c r="D95" s="3">
         <v>12716</v>
       </c>
-      <c r="E95" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.400317082837894</v>
+      <c r="E95" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50400317082837887</v>
       </c>
       <c r="F95" s="3">
         <v>6967</v>
@@ -4605,9 +4957,9 @@
       <c r="D96" s="3">
         <v>1988</v>
       </c>
-      <c r="E96" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.784318833029438</v>
+      <c r="E96" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5178431883302943</v>
       </c>
       <c r="F96" s="4">
         <v>965</v>
@@ -4633,9 +4985,9 @@
       <c r="D97" s="4">
         <v>1</v>
       </c>
-      <c r="E97" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E97" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F97" s="4">
         <v>26</v>
@@ -4661,9 +5013,9 @@
       <c r="D98" s="4">
         <v>1</v>
       </c>
-      <c r="E98" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E98" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -4689,9 +5041,9 @@
       <c r="D99" s="4">
         <v>1</v>
       </c>
-      <c r="E99" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E99" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F99" s="4">
         <v>53</v>
@@ -4717,9 +5069,9 @@
       <c r="D100" s="4">
         <v>1</v>
       </c>
-      <c r="E100" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E100" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F100" s="4">
         <v>95</v>
@@ -4745,9 +5097,9 @@
       <c r="D101" s="4">
         <v>210</v>
       </c>
-      <c r="E101" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.480769230769234</v>
+      <c r="E101" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50480769230769229</v>
       </c>
       <c r="F101" s="4">
         <v>201</v>
@@ -4773,9 +5125,9 @@
       <c r="D102" s="4">
         <v>647</v>
       </c>
-      <c r="E102" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.232919254658384</v>
+      <c r="E102" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50232919254658381</v>
       </c>
       <c r="F102" s="4">
         <v>341</v>
@@ -4801,9 +5153,9 @@
       <c r="D103" s="4">
         <v>1</v>
       </c>
-      <c r="E103" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E103" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F103" s="4">
         <v>9</v>
@@ -4829,9 +5181,9 @@
       <c r="D104" s="3">
         <v>1706</v>
       </c>
-      <c r="E104" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.494114095985509</v>
+      <c r="E104" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5149411409598551</v>
       </c>
       <c r="F104" s="4">
         <v>294</v>
@@ -4857,9 +5209,9 @@
       <c r="D105" s="3">
         <v>11776</v>
       </c>
-      <c r="E105" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.675187716189996</v>
+      <c r="E105" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49675187716189995</v>
       </c>
       <c r="F105" s="3">
         <v>3071</v>
@@ -4885,9 +5237,9 @@
       <c r="D106" s="4">
         <v>1</v>
       </c>
-      <c r="E106" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E106" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F106" s="4">
         <v>8</v>
@@ -4913,9 +5265,9 @@
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E107" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F107" s="4">
         <v>51</v>
@@ -4941,9 +5293,9 @@
       <c r="D108" s="3">
         <v>10672</v>
       </c>
-      <c r="E108" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.679469050768596</v>
+      <c r="E108" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48679469050768598</v>
       </c>
       <c r="F108" s="3">
         <v>17217</v>
@@ -4969,9 +5321,9 @@
       <c r="D109" s="3">
         <v>9333</v>
       </c>
-      <c r="E109" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>44.657639121489069</v>
+      <c r="E109" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.44657639121489068</v>
       </c>
       <c r="F109" s="3">
         <v>3106</v>
@@ -4997,9 +5349,9 @@
       <c r="D110" s="3">
         <v>1811</v>
       </c>
-      <c r="E110" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.375886524822697</v>
+      <c r="E110" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.513758865248227</v>
       </c>
       <c r="F110" s="3">
         <v>1069</v>
@@ -5025,9 +5377,9 @@
       <c r="D111" s="3">
         <v>3927</v>
       </c>
-      <c r="E111" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.019877874496558</v>
+      <c r="E111" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51019877874496555</v>
       </c>
       <c r="F111" s="3">
         <v>3314</v>
@@ -5053,9 +5405,9 @@
       <c r="D112" s="4">
         <v>261</v>
       </c>
-      <c r="E112" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>42.998352553542013</v>
+      <c r="E112" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.42998352553542007</v>
       </c>
       <c r="F112" s="4">
         <v>49</v>
@@ -5081,9 +5433,9 @@
       <c r="D113" s="3">
         <v>61947</v>
       </c>
-      <c r="E113" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.79714528783439</v>
+      <c r="E113" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48797145287834387</v>
       </c>
       <c r="F113" s="3">
         <v>100839</v>
@@ -5109,9 +5461,9 @@
       <c r="D114" s="3">
         <v>1022</v>
       </c>
-      <c r="E114" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.515503875968989</v>
+      <c r="E114" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49515503875968991</v>
       </c>
       <c r="F114" s="3">
         <v>1921</v>
@@ -5137,9 +5489,9 @@
       <c r="D115" s="4">
         <v>153</v>
       </c>
-      <c r="E115" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>47.663551401869157</v>
+      <c r="E115" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.47663551401869159</v>
       </c>
       <c r="F115" s="4">
         <v>92</v>
@@ -5165,9 +5517,9 @@
       <c r="D116" s="3">
         <v>5641</v>
       </c>
-      <c r="E116" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.534807235519821</v>
+      <c r="E116" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51534807235519819</v>
       </c>
       <c r="F116" s="3">
         <v>8447</v>
@@ -5193,9 +5545,9 @@
       <c r="D117" s="3">
         <v>618475</v>
       </c>
-      <c r="E117" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.541841462294769</v>
+      <c r="E117" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48541841462294766</v>
       </c>
       <c r="F117" s="3">
         <v>843136</v>
@@ -5221,9 +5573,9 @@
       <c r="D118" s="4">
         <v>390</v>
       </c>
-      <c r="E118" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.064184852374837</v>
+      <c r="E118" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50064184852374838</v>
       </c>
       <c r="F118" s="4">
         <v>341</v>
@@ -5249,9 +5601,9 @@
       <c r="D119" s="4">
         <v>829</v>
       </c>
-      <c r="E119" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.969861362266428</v>
+      <c r="E119" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49969861362266427</v>
       </c>
       <c r="F119" s="4">
         <v>438</v>
@@ -5277,9 +5629,9 @@
       <c r="D120" s="3">
         <v>11820</v>
       </c>
-      <c r="E120" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.869209349421993</v>
+      <c r="E120" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49869209349421989</v>
       </c>
       <c r="F120" s="3">
         <v>8890</v>
@@ -5305,9 +5657,9 @@
       <c r="D121" s="3">
         <v>23042</v>
       </c>
-      <c r="E121" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.575076916456894</v>
+      <c r="E121" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49575076916456895</v>
       </c>
       <c r="F121" s="3">
         <v>6897</v>
@@ -5333,9 +5685,9 @@
       <c r="D122" s="4">
         <v>876</v>
       </c>
-      <c r="E122" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>36.545682102628284</v>
+      <c r="E122" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.36545682102628285</v>
       </c>
       <c r="F122" s="4">
         <v>348</v>
@@ -5361,9 +5713,9 @@
       <c r="D123" s="3">
         <v>36896</v>
       </c>
-      <c r="E123" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.555430198511836</v>
+      <c r="E123" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49555430198511835</v>
       </c>
       <c r="F123" s="3">
         <v>31514</v>
@@ -5389,9 +5741,9 @@
       <c r="D124" s="3">
         <v>2613</v>
       </c>
-      <c r="E124" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>52.20779220779221</v>
+      <c r="E124" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.52207792207792203</v>
       </c>
       <c r="F124" s="3">
         <v>1991</v>
@@ -5417,9 +5769,9 @@
       <c r="D125" s="3">
         <v>482801</v>
       </c>
-      <c r="E125" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.374139326851399</v>
+      <c r="E125" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48374139326851401</v>
       </c>
       <c r="F125" s="3">
         <v>717585</v>
@@ -5445,9 +5797,9 @@
       <c r="D126" s="3">
         <v>104852</v>
       </c>
-      <c r="E126" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.107285369525222</v>
+      <c r="E126" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50107285369525223</v>
       </c>
       <c r="F126" s="3">
         <v>127231</v>
@@ -5473,9 +5825,9 @@
       <c r="D127" s="3">
         <v>32910</v>
       </c>
-      <c r="E127" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.269417330379063</v>
+      <c r="E127" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49269417330379067</v>
       </c>
       <c r="F127" s="3">
         <v>26001</v>
@@ -5501,9 +5853,9 @@
       <c r="D128" s="3">
         <v>11031</v>
       </c>
-      <c r="E128" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.1358574610245</v>
+      <c r="E128" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49135857461024501</v>
       </c>
       <c r="F128" s="3">
         <v>5309</v>
@@ -5529,9 +5881,9 @@
       <c r="D129" s="3">
         <v>3075</v>
       </c>
-      <c r="E129" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.401573512538931</v>
+      <c r="E129" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50401573512538933</v>
       </c>
       <c r="F129" s="4">
         <v>544</v>
@@ -5557,9 +5909,9 @@
       <c r="D130" s="3">
         <v>64508</v>
       </c>
-      <c r="E130" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.992450891269122</v>
+      <c r="E130" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50992450891269114</v>
       </c>
       <c r="F130" s="3">
         <v>26930</v>
@@ -5585,9 +5937,9 @@
       <c r="D131" s="3">
         <v>2303</v>
       </c>
-      <c r="E131" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>47.760265450020739</v>
+      <c r="E131" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.47760265450020739</v>
       </c>
       <c r="F131" s="3">
         <v>1272</v>
@@ -5613,9 +5965,9 @@
       <c r="D132" s="3">
         <v>8352</v>
       </c>
-      <c r="E132" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.336898395721924</v>
+      <c r="E132" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5133689839572193</v>
       </c>
       <c r="F132" s="3">
         <v>6303</v>
@@ -5641,9 +5993,9 @@
       <c r="D133" s="3">
         <v>2380</v>
       </c>
-      <c r="E133" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.974512743628189</v>
+      <c r="E133" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50974512743628186</v>
       </c>
       <c r="F133" s="3">
         <v>2810</v>
@@ -5669,9 +6021,9 @@
       <c r="D134" s="4">
         <v>906</v>
       </c>
-      <c r="E134" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>47.759620453347388</v>
+      <c r="E134" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.4775962045334739</v>
       </c>
       <c r="F134" s="4">
         <v>48</v>
@@ -5697,9 +6049,9 @@
       <c r="D135" s="3">
         <v>2629</v>
       </c>
-      <c r="E135" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.631867094581835</v>
+      <c r="E135" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49631867094581839</v>
       </c>
       <c r="F135" s="3">
         <v>4085</v>
@@ -5725,9 +6077,9 @@
       <c r="D136" s="3">
         <v>1654</v>
       </c>
-      <c r="E136" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.112484548825712</v>
+      <c r="E136" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5111248454882571</v>
       </c>
       <c r="F136" s="4">
         <v>347</v>
@@ -5753,9 +6105,9 @@
       <c r="D137" s="3">
         <v>10765</v>
       </c>
-      <c r="E137" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.312872194228127</v>
+      <c r="E137" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49312872194228125</v>
       </c>
       <c r="F137" s="3">
         <v>9495</v>
@@ -5781,9 +6133,9 @@
       <c r="D138" s="4">
         <v>135</v>
       </c>
-      <c r="E138" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.561151079136692</v>
+      <c r="E138" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48561151079136688</v>
       </c>
       <c r="F138" s="4">
         <v>200</v>
@@ -5809,9 +6161,9 @@
       <c r="D139" s="3">
         <v>1307</v>
       </c>
-      <c r="E139" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.866463181991605</v>
+      <c r="E139" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49866463181991605</v>
       </c>
       <c r="F139" s="4">
         <v>970</v>
@@ -5837,9 +6189,9 @@
       <c r="D140" s="3">
         <v>22633</v>
       </c>
-      <c r="E140" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.229698839299587</v>
+      <c r="E140" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50229698839299586</v>
       </c>
       <c r="F140" s="3">
         <v>32754</v>
@@ -5865,9 +6217,9 @@
       <c r="D141" s="3">
         <v>11538</v>
       </c>
-      <c r="E141" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.337210296758748</v>
+      <c r="E141" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49337210296758743</v>
       </c>
       <c r="F141" s="3">
         <v>20684</v>
@@ -5893,9 +6245,9 @@
       <c r="D142" s="3">
         <v>1155</v>
       </c>
-      <c r="E142" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>46.951219512195124</v>
+      <c r="E142" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.46951219512195119</v>
       </c>
       <c r="F142" s="4">
         <v>437</v>
@@ -5921,9 +6273,9 @@
       <c r="D143" s="3">
         <v>73698</v>
       </c>
-      <c r="E143" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.380489726252215</v>
+      <c r="E143" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48380489726252218</v>
       </c>
       <c r="F143" s="3">
         <v>96764</v>
@@ -5949,9 +6301,9 @@
       <c r="D144" s="4">
         <v>204</v>
       </c>
-      <c r="E144" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>34.634974533106963</v>
+      <c r="E144" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.3463497453310696</v>
       </c>
       <c r="F144" s="4">
         <v>46</v>
@@ -5977,9 +6329,9 @@
       <c r="D145" s="3">
         <v>1748</v>
       </c>
-      <c r="E145" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.630891538898354</v>
+      <c r="E145" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49630891538898353</v>
       </c>
       <c r="F145" s="4">
         <v>0</v>
@@ -6005,9 +6357,9 @@
       <c r="D146" s="3">
         <v>7782</v>
       </c>
-      <c r="E146" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.488076311605724</v>
+      <c r="E146" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49488076311605722</v>
       </c>
       <c r="F146" s="3">
         <v>7231</v>
@@ -6033,9 +6385,9 @@
       <c r="D147" s="3">
         <v>9412</v>
       </c>
-      <c r="E147" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.496271259187722</v>
+      <c r="E147" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50496271259187719</v>
       </c>
       <c r="F147" s="3">
         <v>14305</v>
@@ -6061,9 +6413,9 @@
       <c r="D148" s="3">
         <v>30482</v>
       </c>
-      <c r="E148" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.088734060733536</v>
+      <c r="E148" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50088734060733531</v>
       </c>
       <c r="F148" s="3">
         <v>47926</v>
@@ -6089,9 +6441,9 @@
       <c r="D149" s="3">
         <v>3064</v>
       </c>
-      <c r="E149" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.196592398427264</v>
+      <c r="E149" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50196592398427264</v>
       </c>
       <c r="F149" s="3">
         <v>4107</v>
@@ -6117,9 +6469,9 @@
       <c r="D150" s="4">
         <v>423</v>
       </c>
-      <c r="E150" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.56486796785304</v>
+      <c r="E150" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48564867967853043</v>
       </c>
       <c r="F150" s="4">
         <v>806</v>
@@ -6145,9 +6497,9 @@
       <c r="D151" s="3">
         <v>2215</v>
       </c>
-      <c r="E151" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.524635036496349</v>
+      <c r="E151" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50524635036496346</v>
       </c>
       <c r="F151" s="3">
         <v>2395</v>
@@ -6173,9 +6525,9 @@
       <c r="D152" s="3">
         <v>32436</v>
       </c>
-      <c r="E152" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.485857260549842</v>
+      <c r="E152" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49485857260549843</v>
       </c>
       <c r="F152" s="3">
         <v>16994</v>
@@ -6201,9 +6553,9 @@
       <c r="D153" s="3">
         <v>12054</v>
       </c>
-      <c r="E153" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.348774069587733</v>
+      <c r="E153" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50348774069587732</v>
       </c>
       <c r="F153" s="3">
         <v>13853</v>
@@ -6229,9 +6581,9 @@
       <c r="D154" s="3">
         <v>39858</v>
       </c>
-      <c r="E154" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.642271774347243</v>
+      <c r="E154" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50642271774347247</v>
       </c>
       <c r="F154" s="3">
         <v>63223</v>
@@ -6257,9 +6609,9 @@
       <c r="D155" s="3">
         <v>8679</v>
       </c>
-      <c r="E155" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.628316559926809</v>
+      <c r="E155" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49628316559926805</v>
       </c>
       <c r="F155" s="3">
         <v>11007</v>
@@ -6285,9 +6637,9 @@
       <c r="D156" s="4">
         <v>533</v>
       </c>
-      <c r="E156" s="12">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.489322191272052</v>
+      <c r="E156" s="33">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.4948932219127205</v>
       </c>
       <c r="F156" s="4">
         <v>59</v>
@@ -6313,9 +6665,9 @@
       <c r="D157" s="6">
         <v>1</v>
       </c>
-      <c r="E157" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E157" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F157" s="6">
         <v>26</v>
@@ -6341,9 +6693,9 @@
       <c r="D158" s="6">
         <v>1</v>
       </c>
-      <c r="E158" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E158" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F158" s="6">
         <v>28</v>
@@ -6369,9 +6721,9 @@
       <c r="D159" s="6">
         <v>1</v>
       </c>
-      <c r="E159" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E159" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F159" s="6">
         <v>0</v>
@@ -6397,9 +6749,9 @@
       <c r="D160" s="6">
         <v>1</v>
       </c>
-      <c r="E160" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E160" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F160" s="6">
         <v>1</v>
@@ -6425,9 +6777,9 @@
       <c r="D161" s="6">
         <v>1</v>
       </c>
-      <c r="E161" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E161" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
@@ -6453,9 +6805,9 @@
       <c r="D162" s="6">
         <v>1</v>
       </c>
-      <c r="E162" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E162" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F162" s="6">
         <v>4</v>
@@ -6481,9 +6833,9 @@
       <c r="D163" s="6">
         <v>139</v>
       </c>
-      <c r="E163" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.820788530465947</v>
+      <c r="E163" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49820788530465948</v>
       </c>
       <c r="F163" s="6">
         <v>22</v>
@@ -6509,9 +6861,9 @@
       <c r="D164" s="6">
         <v>195</v>
       </c>
-      <c r="E164" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.518134715025909</v>
+      <c r="E164" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50518134715025909</v>
       </c>
       <c r="F164" s="6">
         <v>38</v>
@@ -6537,9 +6889,9 @@
       <c r="D165" s="6">
         <v>217</v>
       </c>
-      <c r="E165" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.938967136150232</v>
+      <c r="E165" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50938967136150237</v>
       </c>
       <c r="F165" s="6">
         <v>40</v>
@@ -6565,9 +6917,9 @@
       <c r="D166" s="5">
         <v>1023</v>
       </c>
-      <c r="E166" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.432880844645553</v>
+      <c r="E166" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51432880844645545</v>
       </c>
       <c r="F166" s="6">
         <v>948</v>
@@ -6593,9 +6945,9 @@
       <c r="D167" s="6">
         <v>748</v>
       </c>
-      <c r="E167" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>52.974504249291783</v>
+      <c r="E167" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.52974504249291787</v>
       </c>
       <c r="F167" s="6">
         <v>367</v>
@@ -6621,9 +6973,9 @@
       <c r="D168" s="5">
         <v>1521</v>
       </c>
-      <c r="E168" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.859620944426595</v>
+      <c r="E168" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48859620944426596</v>
       </c>
       <c r="F168" s="5">
         <v>1907</v>
@@ -6649,9 +7001,9 @@
       <c r="D169" s="5">
         <v>1006</v>
       </c>
-      <c r="E169" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.024863252113377</v>
+      <c r="E169" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50024863252113372</v>
       </c>
       <c r="F169" s="6">
         <v>773</v>
@@ -6677,9 +7029,9 @@
       <c r="D170" s="5">
         <v>1939</v>
       </c>
-      <c r="E170" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.521104742053154</v>
+      <c r="E170" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50521104742053158</v>
       </c>
       <c r="F170" s="5">
         <v>2198</v>
@@ -6705,9 +7057,9 @@
       <c r="D171" s="5">
         <v>1303</v>
       </c>
-      <c r="E171" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>54.541649225617412</v>
+      <c r="E171" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.54541649225617417</v>
       </c>
       <c r="F171" s="6">
         <v>622</v>
@@ -6733,9 +7085,9 @@
       <c r="D172" s="5">
         <v>1866</v>
       </c>
-      <c r="E172" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.364372469635626</v>
+      <c r="E172" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50364372469635632</v>
       </c>
       <c r="F172" s="5">
         <v>1544</v>
@@ -6761,9 +7113,9 @@
       <c r="D173" s="5">
         <v>2283</v>
       </c>
-      <c r="E173" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>52.135190682804293</v>
+      <c r="E173" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.52135190682804289</v>
       </c>
       <c r="F173" s="5">
         <v>1995</v>
@@ -6789,9 +7141,9 @@
       <c r="D174" s="5">
         <v>2313</v>
       </c>
-      <c r="E174" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.664060754969846</v>
+      <c r="E174" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51664060754969843</v>
       </c>
       <c r="F174" s="5">
         <v>1910</v>
@@ -6817,9 +7169,9 @@
       <c r="D175" s="5">
         <v>1944</v>
       </c>
-      <c r="E175" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>52.797392721347094</v>
+      <c r="E175" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.52797392721347092</v>
       </c>
       <c r="F175" s="6">
         <v>953</v>
@@ -6845,9 +7197,9 @@
       <c r="D176" s="5">
         <v>2759</v>
       </c>
-      <c r="E176" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.272997584092174</v>
+      <c r="E176" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51272997584092173</v>
       </c>
       <c r="F176" s="5">
         <v>2118</v>
@@ -6873,9 +7225,9 @@
       <c r="D177" s="5">
         <v>2241</v>
       </c>
-      <c r="E177" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.450247636199911</v>
+      <c r="E177" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50450247636199907</v>
       </c>
       <c r="F177" s="5">
         <v>1156</v>
@@ -6901,9 +7253,9 @@
       <c r="D178" s="5">
         <v>2647</v>
       </c>
-      <c r="E178" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.248789932236207</v>
+      <c r="E178" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51248789932236205</v>
       </c>
       <c r="F178" s="5">
         <v>1827</v>
@@ -6929,9 +7281,9 @@
       <c r="D179" s="5">
         <v>5123</v>
       </c>
-      <c r="E179" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.888990175225359</v>
+      <c r="E179" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51888990175225358</v>
       </c>
       <c r="F179" s="5">
         <v>6171</v>
@@ -6957,9 +7309,9 @@
       <c r="D180" s="5">
         <v>2671</v>
       </c>
-      <c r="E180" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.558394851410185</v>
+      <c r="E180" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50558394851410182</v>
       </c>
       <c r="F180" s="6">
         <v>759</v>
@@ -6985,9 +7337,9 @@
       <c r="D181" s="5">
         <v>3714</v>
       </c>
-      <c r="E181" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.565010211027911</v>
+      <c r="E181" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50565010211027905</v>
       </c>
       <c r="F181" s="5">
         <v>2772</v>
@@ -7013,9 +7365,9 @@
       <c r="D182" s="5">
         <v>4148</v>
       </c>
-      <c r="E182" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.727650727650726</v>
+      <c r="E182" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5072765072765073</v>
       </c>
       <c r="F182" s="5">
         <v>2895</v>
@@ -7041,9 +7393,9 @@
       <c r="D183" s="5">
         <v>4249</v>
       </c>
-      <c r="E183" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.316425120772948</v>
+      <c r="E183" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51316425120772946</v>
       </c>
       <c r="F183" s="5">
         <v>2508</v>
@@ -7069,9 +7421,9 @@
       <c r="D184" s="5">
         <v>5351</v>
       </c>
-      <c r="E184" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.305537275547614</v>
+      <c r="E184" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50305537275547618</v>
       </c>
       <c r="F184" s="5">
         <v>4341</v>
@@ -7097,9 +7449,9 @@
       <c r="D185" s="5">
         <v>5396</v>
       </c>
-      <c r="E185" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.781102955015996</v>
+      <c r="E185" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50781102955016</v>
       </c>
       <c r="F185" s="5">
         <v>4259</v>
@@ -7125,9 +7477,9 @@
       <c r="D186" s="5">
         <v>5259</v>
       </c>
-      <c r="E186" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>52.198511166253098</v>
+      <c r="E186" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.52198511166253103</v>
       </c>
       <c r="F186" s="5">
         <v>3379</v>
@@ -7153,9 +7505,9 @@
       <c r="D187" s="5">
         <v>5266</v>
       </c>
-      <c r="E187" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.310532982558705</v>
+      <c r="E187" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5131053298255871</v>
       </c>
       <c r="F187" s="5">
         <v>3480</v>
@@ -7181,9 +7533,9 @@
       <c r="D188" s="5">
         <v>4484</v>
       </c>
-      <c r="E188" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.427350427350426</v>
+      <c r="E188" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50427350427350426</v>
       </c>
       <c r="F188" s="5">
         <v>1487</v>
@@ -7209,9 +7561,9 @@
       <c r="D189" s="5">
         <v>5449</v>
       </c>
-      <c r="E189" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>53.031630170316305</v>
+      <c r="E189" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.53031630170316302</v>
       </c>
       <c r="F189" s="5">
         <v>2698</v>
@@ -7237,9 +7589,9 @@
       <c r="D190" s="5">
         <v>5180</v>
       </c>
-      <c r="E190" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.024428684003155</v>
+      <c r="E190" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51024428684003154</v>
       </c>
       <c r="F190" s="6">
         <v>276</v>
@@ -7265,9 +7617,9 @@
       <c r="D191" s="5">
         <v>5398</v>
       </c>
-      <c r="E191" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.025616787976176</v>
+      <c r="E191" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5102561678797618</v>
       </c>
       <c r="F191" s="6">
         <v>317</v>
@@ -7293,9 +7645,9 @@
       <c r="D192" s="5">
         <v>11400</v>
       </c>
-      <c r="E192" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.888313543433625</v>
+      <c r="E192" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50888313543433616</v>
       </c>
       <c r="F192" s="5">
         <v>9469</v>
@@ -7321,9 +7673,9 @@
       <c r="D193" s="5">
         <v>7945</v>
       </c>
-      <c r="E193" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.492532570702259</v>
+      <c r="E193" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50492532570702253</v>
       </c>
       <c r="F193" s="5">
         <v>1687</v>
@@ -7349,9 +7701,9 @@
       <c r="D194" s="5">
         <v>19909</v>
       </c>
-      <c r="E194" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.390000258124466</v>
+      <c r="E194" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51390000258124469</v>
       </c>
       <c r="F194" s="5">
         <v>13492</v>
@@ -7377,9 +7729,9 @@
       <c r="D195" s="5">
         <v>20250</v>
       </c>
-      <c r="E195" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.093785481795472</v>
+      <c r="E195" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51093785481795473</v>
       </c>
       <c r="F195" s="5">
         <v>8962</v>
@@ -7405,9 +7757,9 @@
       <c r="D196" s="5">
         <v>27075</v>
       </c>
-      <c r="E196" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>53.446642188795451</v>
+      <c r="E196" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.53446642188795457</v>
       </c>
       <c r="F196" s="5">
         <v>14166</v>
@@ -7433,9 +7785,9 @@
       <c r="D197" s="5">
         <v>29513</v>
       </c>
-      <c r="E197" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.467485133320544</v>
+      <c r="E197" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51467485133320545</v>
       </c>
       <c r="F197" s="5">
         <v>18969</v>
@@ -7461,9 +7813,9 @@
       <c r="D198" s="5">
         <v>30181</v>
       </c>
-      <c r="E198" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.253269028291953</v>
+      <c r="E198" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.51253269028291959</v>
       </c>
       <c r="F198" s="5">
         <v>14495</v>
@@ -7489,9 +7841,9 @@
       <c r="D199" s="5">
         <v>30027</v>
       </c>
-      <c r="E199" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.915657747481944</v>
+      <c r="E199" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50915657747481946</v>
       </c>
       <c r="F199" s="5">
         <v>6335</v>
@@ -7517,9 +7869,9 @@
       <c r="D200" s="5">
         <v>41980</v>
       </c>
-      <c r="E200" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>51.084853426141137</v>
+      <c r="E200" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5108485342614113</v>
       </c>
       <c r="F200" s="5">
         <v>10411</v>
@@ -7545,9 +7897,9 @@
       <c r="D201" s="5">
         <v>78368</v>
       </c>
-      <c r="E201" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>53.240938890587316</v>
+      <c r="E201" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.53240938890587319</v>
       </c>
       <c r="F201" s="5">
         <v>33375</v>
@@ -7573,9 +7925,9 @@
       <c r="D202" s="5">
         <v>9413</v>
       </c>
-      <c r="E202" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.334206726913003</v>
+      <c r="E202" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50334206726913</v>
       </c>
       <c r="F202" s="5">
         <v>2863</v>
@@ -7601,9 +7953,9 @@
       <c r="D203" s="6">
         <v>1</v>
       </c>
-      <c r="E203" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E203" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F203" s="6">
         <v>7</v>
@@ -7629,9 +7981,9 @@
       <c r="D204" s="6">
         <v>396</v>
       </c>
-      <c r="E204" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>49.131513647642677</v>
+      <c r="E204" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.49131513647642677</v>
       </c>
       <c r="F204" s="6">
         <v>468</v>
@@ -7657,9 +8009,9 @@
       <c r="D205" s="6">
         <v>78</v>
       </c>
-      <c r="E205" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>47.272727272727273</v>
+      <c r="E205" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.47272727272727272</v>
       </c>
       <c r="F205" s="6">
         <v>100</v>
@@ -7685,9 +8037,9 @@
       <c r="D206" s="6">
         <v>1</v>
       </c>
-      <c r="E206" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E206" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F206" s="6">
         <v>52</v>
@@ -7713,9 +8065,9 @@
       <c r="D207" s="6">
         <v>1</v>
       </c>
-      <c r="E207" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E207" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F207" s="6">
         <v>34</v>
@@ -7741,9 +8093,9 @@
       <c r="D208" s="6">
         <v>1</v>
       </c>
-      <c r="E208" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E208" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F208" s="6">
         <v>18</v>
@@ -7769,9 +8121,9 @@
       <c r="D209" s="6">
         <v>1</v>
       </c>
-      <c r="E209" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E209" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F209" s="6">
         <v>82</v>
@@ -7797,9 +8149,9 @@
       <c r="D210" s="6">
         <v>1</v>
       </c>
-      <c r="E210" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E210" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -7825,9 +8177,9 @@
       <c r="D211" s="6">
         <v>1</v>
       </c>
-      <c r="E211" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E211" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F211" s="6">
         <v>1</v>
@@ -7853,9 +8205,9 @@
       <c r="D212" s="6">
         <v>103</v>
       </c>
-      <c r="E212" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.81516587677725</v>
+      <c r="E212" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.4881516587677725</v>
       </c>
       <c r="F212" s="6">
         <v>76</v>
@@ -7881,9 +8233,9 @@
       <c r="D213" s="5">
         <v>1942</v>
       </c>
-      <c r="E213" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50.731452455590386</v>
+      <c r="E213" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.50731452455590387</v>
       </c>
       <c r="F213" s="6">
         <v>509</v>
@@ -7909,9 +8261,9 @@
       <c r="D214" s="6">
         <v>1</v>
       </c>
-      <c r="E214" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E214" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F214" s="6">
         <v>5</v>
@@ -7937,9 +8289,9 @@
       <c r="D215" s="5">
         <v>2279</v>
       </c>
-      <c r="E215" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.468736707783918</v>
+      <c r="E215" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48468736707783922</v>
       </c>
       <c r="F215" s="5">
         <v>3897</v>
@@ -7965,9 +8317,9 @@
       <c r="D216" s="6">
         <v>112</v>
       </c>
-      <c r="E216" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.484848484848484</v>
+      <c r="E216" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48484848484848486</v>
       </c>
       <c r="F216" s="6">
         <v>100</v>
@@ -7993,9 +8345,9 @@
       <c r="D217" s="6">
         <v>209</v>
       </c>
-      <c r="E217" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.604651162790695</v>
+      <c r="E217" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48604651162790696</v>
       </c>
       <c r="F217" s="6">
         <v>348</v>
@@ -8021,9 +8373,9 @@
       <c r="D218" s="6">
         <v>85</v>
       </c>
-      <c r="E218" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>48.022598870056498</v>
+      <c r="E218" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.48022598870056499</v>
       </c>
       <c r="F218" s="6">
         <v>139</v>
@@ -8049,9 +8401,9 @@
       <c r="D219" s="6">
         <v>1</v>
       </c>
-      <c r="E219" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E219" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F219" s="6">
         <v>32</v>
@@ -8077,9 +8429,9 @@
       <c r="D220" s="6">
         <v>1</v>
       </c>
-      <c r="E220" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E220" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F220" s="6">
         <v>1</v>
@@ -8105,9 +8457,9 @@
       <c r="D221" s="6">
         <v>1</v>
       </c>
-      <c r="E221" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E221" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F221" s="6">
         <v>54</v>
@@ -8133,9 +8485,9 @@
       <c r="D222" s="6">
         <v>1</v>
       </c>
-      <c r="E222" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E222" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F222" s="6">
         <v>6</v>
@@ -8161,9 +8513,9 @@
       <c r="D223" s="6">
         <v>93</v>
       </c>
-      <c r="E223" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>50</v>
+      <c r="E223" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>0.5</v>
       </c>
       <c r="F223" s="6">
         <v>149</v>
@@ -8189,9 +8541,9 @@
       <c r="D224" s="6">
         <v>1</v>
       </c>
-      <c r="E224" s="13">
-        <f>Poblacion[[#This Row],[Mujeres]]*100/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
-        <v>100</v>
+      <c r="E224" s="34">
+        <f>Poblacion[[#This Row],[Mujeres]]/(Poblacion[[#This Row],[Mujeres]]+Poblacion[[#This Row],[Hombres]])</f>
+        <v>1</v>
       </c>
       <c r="F224" s="6">
         <v>14</v>
@@ -8377,6 +8729,36 @@
       <c r="B236" s="9">
         <f>QUARTILE(Poblacion[Total],3)</f>
         <v>15610.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="35">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="36">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="36">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="35">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
